--- a/data/HR1/A_KPC_35_3/A_KPC_35_3_2020.xlsx
+++ b/data/HR1/A_KPC_35_3/A_KPC_35_3_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\A_KPC_35_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB66B5C-6FCF-41CC-A6D6-427375B01A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94326A0C-BAB1-40C8-A59D-BF19F0A576CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1950" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -129,8 +129,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Pc, 2020, Autumn"/>
@@ -158,7 +161,7 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>1.2500000000000001E-2</v>
+            <v>5.0000000000000001E-3</v>
           </cell>
         </row>
         <row r="4">
@@ -172,16 +175,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
       <sheetData sheetId="11">
         <row r="2">
           <cell r="B2">
@@ -3296,7 +3299,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="14"/>
+      <sheetData sheetId="14" refreshError="1"/>
       <sheetData sheetId="15">
         <row r="2">
           <cell r="B2">
@@ -4335,11 +4338,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4611,7 +4614,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4625,10 +4628,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <v>0.2</v>
@@ -4651,7 +4654,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
         <v>0.95</v>
@@ -4671,7 +4674,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
         <v>1.1000000000000001</v>
@@ -12324,99 +12327,99 @@
       </c>
       <c r="B2" s="1">
         <f>'[1]Pc, 2020, Summer'!B2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.693301790714286</v>
+        <v>6.3258908785714292</v>
       </c>
       <c r="C2" s="1">
         <f>'[1]Pc, 2020, Summer'!C2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6063368253571424</v>
+        <v>6.2292631392857141</v>
       </c>
       <c r="D2" s="1">
         <f>'[1]Pc, 2020, Summer'!D2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.426877185357144</v>
+        <v>6.0298635392857154</v>
       </c>
       <c r="E2" s="1">
         <f>'[1]Pc, 2020, Summer'!E2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3552415792857149</v>
+        <v>5.9502684214285715</v>
       </c>
       <c r="F2" s="1">
         <f>'[1]Pc, 2020, Summer'!F2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2908111771428574</v>
+        <v>5.8786790857142854</v>
       </c>
       <c r="G2" s="1">
         <f>'[1]Pc, 2020, Summer'!G2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3360018132142857</v>
+        <v>5.9288909035714283</v>
       </c>
       <c r="H2" s="1">
         <f>'[1]Pc, 2020, Summer'!H2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2578102310714288</v>
+        <v>5.8420113678571433</v>
       </c>
       <c r="I2" s="1">
         <f>'[1]Pc, 2020, Summer'!I2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1601480164285709</v>
+        <v>6.8446089071428569</v>
       </c>
       <c r="J2" s="1">
         <f>'[1]Pc, 2020, Summer'!J2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.5576124964285718</v>
+        <v>7.286236107142857</v>
       </c>
       <c r="K2" s="1">
         <f>'[1]Pc, 2020, Summer'!K2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.5377400335714286</v>
+        <v>7.2641555928571426</v>
       </c>
       <c r="L2" s="1">
         <f>'[1]Pc, 2020, Summer'!L2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4277364535714296</v>
+        <v>7.1419293928571435</v>
       </c>
       <c r="M2" s="1">
         <f>'[1]Pc, 2020, Summer'!M2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4691346310714293</v>
+        <v>7.1879273678571431</v>
       </c>
       <c r="N2" s="1">
         <f>'[1]Pc, 2020, Summer'!N2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.6469858071428574</v>
+        <v>7.3855397857142862</v>
       </c>
       <c r="O2" s="1">
         <f>'[1]Pc, 2020, Summer'!O2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.599490939642858</v>
+        <v>7.3327677107142861</v>
       </c>
       <c r="P2" s="1">
         <f>'[1]Pc, 2020, Summer'!P2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1955583299999999</v>
+        <v>6.8839537000000002</v>
       </c>
       <c r="Q2" s="1">
         <f>'[1]Pc, 2020, Summer'!Q2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.3515020853571436</v>
+        <v>7.0572245392857145</v>
       </c>
       <c r="R2" s="1">
         <f>'[1]Pc, 2020, Summer'!R2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4261491975</v>
+        <v>7.1401657749999998</v>
       </c>
       <c r="S2" s="1">
         <f>'[1]Pc, 2020, Summer'!S2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.241354801071429</v>
+        <v>6.934838667857143</v>
       </c>
       <c r="T2" s="1">
         <f>'[1]Pc, 2020, Summer'!T2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9852953575000001</v>
+        <v>6.6503281750000003</v>
       </c>
       <c r="U2" s="1">
         <f>'[1]Pc, 2020, Summer'!U2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9575020042857147</v>
+        <v>6.6194466714285713</v>
       </c>
       <c r="V2" s="1">
         <f>'[1]Pc, 2020, Summer'!V2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9365393939285713</v>
+        <v>6.5961548821428568</v>
       </c>
       <c r="W2" s="1">
         <f>'[1]Pc, 2020, Summer'!W2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8258955410714286</v>
+        <v>6.4732172678571427</v>
       </c>
       <c r="X2" s="1">
         <f>'[1]Pc, 2020, Summer'!X2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4451093114285722</v>
+        <v>6.0501214571428577</v>
       </c>
       <c r="Y2" s="1">
         <f>'[1]Pc, 2020, Summer'!Y2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2894303521428574</v>
+        <v>5.8771448357142857</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -12425,99 +12428,99 @@
       </c>
       <c r="B3" s="1">
         <f>'[1]Pc, 2020, Summer'!B3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3124652139285715</v>
+        <v>1.4582946821428573</v>
       </c>
       <c r="C3" s="1">
         <f>'[1]Pc, 2020, Summer'!C3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2308259696428572</v>
+        <v>1.3675844107142856</v>
       </c>
       <c r="D3" s="1">
         <f>'[1]Pc, 2020, Summer'!D3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1786121482142859</v>
+        <v>1.3095690535714288</v>
       </c>
       <c r="E3" s="1">
         <f>'[1]Pc, 2020, Summer'!E3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.07952183</v>
+        <v>1.1994686999999999</v>
       </c>
       <c r="F3" s="1">
         <f>'[1]Pc, 2020, Summer'!F3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0455448371428571</v>
+        <v>1.1617164857142857</v>
       </c>
       <c r="G3" s="1">
         <f>'[1]Pc, 2020, Summer'!G3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0789327446428572</v>
+        <v>1.1988141607142857</v>
       </c>
       <c r="H3" s="1">
         <f>'[1]Pc, 2020, Summer'!H3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1529933878571432</v>
+        <v>1.2811037642857146</v>
       </c>
       <c r="I3" s="1">
         <f>'[1]Pc, 2020, Summer'!I3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5185380821428571</v>
+        <v>1.6872645357142857</v>
       </c>
       <c r="J3" s="1">
         <f>'[1]Pc, 2020, Summer'!J3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.691013632142857</v>
+        <v>1.8789040357142857</v>
       </c>
       <c r="K3" s="1">
         <f>'[1]Pc, 2020, Summer'!K3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8209448900000003</v>
+        <v>2.0232721000000002</v>
       </c>
       <c r="L3" s="1">
         <f>'[1]Pc, 2020, Summer'!L3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6953792139285715</v>
+        <v>1.8837546821428572</v>
       </c>
       <c r="M3" s="1">
         <f>'[1]Pc, 2020, Summer'!M3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7555144817857145</v>
+        <v>1.9505716464285716</v>
       </c>
       <c r="N3" s="1">
         <f>'[1]Pc, 2020, Summer'!N3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7516188253571428</v>
+        <v>1.946243139285714</v>
       </c>
       <c r="O3" s="1">
         <f>'[1]Pc, 2020, Summer'!O3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6832143864285716</v>
+        <v>1.8702382071428572</v>
       </c>
       <c r="P3" s="1">
         <f>'[1]Pc, 2020, Summer'!P3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4617946153571428</v>
+        <v>1.6242162392857142</v>
       </c>
       <c r="Q3" s="1">
         <f>'[1]Pc, 2020, Summer'!Q3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4961010049999999</v>
+        <v>1.6623344499999999</v>
       </c>
       <c r="R3" s="1">
         <f>'[1]Pc, 2020, Summer'!R3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5581906935714283</v>
+        <v>1.7313229928571425</v>
       </c>
       <c r="S3" s="1">
         <f>'[1]Pc, 2020, Summer'!S3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5555068967857144</v>
+        <v>1.7283409964285714</v>
       </c>
       <c r="T3" s="1">
         <f>'[1]Pc, 2020, Summer'!T3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.635213776785714</v>
+        <v>1.816904196428571</v>
       </c>
       <c r="U3" s="1">
         <f>'[1]Pc, 2020, Summer'!U3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7481875014285715</v>
+        <v>1.9424305571428571</v>
       </c>
       <c r="V3" s="1">
         <f>'[1]Pc, 2020, Summer'!V3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.822231488214286</v>
+        <v>2.0247016535714288</v>
       </c>
       <c r="W3" s="1">
         <f>'[1]Pc, 2020, Summer'!W3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7205914025000002</v>
+        <v>1.9117682250000001</v>
       </c>
       <c r="X3" s="1">
         <f>'[1]Pc, 2020, Summer'!X3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4932263021428571</v>
+        <v>1.6591403357142858</v>
       </c>
       <c r="Y3" s="1">
         <f>'[1]Pc, 2020, Summer'!Y3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3432674567857141</v>
+        <v>1.4925193964285712</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -12526,99 +12529,99 @@
       </c>
       <c r="B4" s="1">
         <f>'[1]Pc, 2020, Summer'!B4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0769436732142852</v>
+        <v>3.4188263035714281</v>
       </c>
       <c r="C4" s="1">
         <f>'[1]Pc, 2020, Summer'!C4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8859163107142862</v>
+        <v>3.2065736785714289</v>
       </c>
       <c r="D4" s="1">
         <f>'[1]Pc, 2020, Summer'!D4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6838837610714288</v>
+        <v>2.9820930678571429</v>
       </c>
       <c r="E4" s="1">
         <f>'[1]Pc, 2020, Summer'!E4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7417819310714284</v>
+        <v>3.0464243678571425</v>
       </c>
       <c r="F4" s="1">
         <f>'[1]Pc, 2020, Summer'!F4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6835770282142857</v>
+        <v>2.9817522535714285</v>
       </c>
       <c r="G4" s="1">
         <f>'[1]Pc, 2020, Summer'!G4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7150341882142857</v>
+        <v>3.0167046535714284</v>
       </c>
       <c r="H4" s="1">
         <f>'[1]Pc, 2020, Summer'!H4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6104092135714283</v>
+        <v>4.0115657928571427</v>
       </c>
       <c r="I4" s="1">
         <f>'[1]Pc, 2020, Summer'!I4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5346115571428571</v>
+        <v>5.0384572857142853</v>
       </c>
       <c r="J4" s="1">
         <f>'[1]Pc, 2020, Summer'!J4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.792763889642857</v>
+        <v>5.3252932107142854</v>
       </c>
       <c r="K4" s="1">
         <f>'[1]Pc, 2020, Summer'!K4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5928732371428564</v>
+        <v>5.1031924857142847</v>
       </c>
       <c r="L4" s="1">
         <f>'[1]Pc, 2020, Summer'!L4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5785657057142854</v>
+        <v>5.0872952285714277</v>
       </c>
       <c r="M4" s="1">
         <f>'[1]Pc, 2020, Summer'!M4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.904807522142856</v>
+        <v>5.4497861357142847</v>
       </c>
       <c r="N4" s="1">
         <f>'[1]Pc, 2020, Summer'!N4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0572800353571434</v>
+        <v>5.6192000392857144</v>
       </c>
       <c r="O4" s="1">
         <f>'[1]Pc, 2020, Summer'!O4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6948189917857146</v>
+        <v>5.2164655464285721</v>
       </c>
       <c r="P4" s="1">
         <f>'[1]Pc, 2020, Summer'!P4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2774885707142856</v>
+        <v>4.7527650785714286</v>
       </c>
       <c r="Q4" s="1">
         <f>'[1]Pc, 2020, Summer'!Q4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.0528447200000004</v>
+        <v>4.5031608000000007</v>
       </c>
       <c r="R4" s="1">
         <f>'[1]Pc, 2020, Summer'!R4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1007250221428571</v>
+        <v>4.5563611357142859</v>
       </c>
       <c r="S4" s="1">
         <f>'[1]Pc, 2020, Summer'!S4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.0134117728571432</v>
+        <v>4.4593464142857142</v>
       </c>
       <c r="T4" s="1">
         <f>'[1]Pc, 2020, Summer'!T4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9632903100000005</v>
+        <v>4.4036559000000004</v>
       </c>
       <c r="U4" s="1">
         <f>'[1]Pc, 2020, Summer'!U4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2671571267857145</v>
+        <v>4.7412856964285712</v>
       </c>
       <c r="V4" s="1">
         <f>'[1]Pc, 2020, Summer'!V4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4594368071428567</v>
+        <v>4.9549297857142856</v>
       </c>
       <c r="W4" s="1">
         <f>'[1]Pc, 2020, Summer'!W4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2661478635714287</v>
+        <v>4.740164292857143</v>
       </c>
       <c r="X4" s="1">
         <f>'[1]Pc, 2020, Summer'!X4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7997735914285706</v>
+        <v>4.2219706571428564</v>
       </c>
       <c r="Y4" s="1">
         <f>'[1]Pc, 2020, Summer'!Y4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.212332945714286</v>
+        <v>3.5692588285714288</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -12627,99 +12630,99 @@
       </c>
       <c r="B5" s="1">
         <f>'[1]Pc, 2020, Summer'!B5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.3215359285714286</v>
+        <v>0.35726214285714286</v>
       </c>
       <c r="C5" s="1">
         <f>'[1]Pc, 2020, Summer'!C5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.24925026535714287</v>
+        <v>0.27694473928571428</v>
       </c>
       <c r="D5" s="1">
         <f>'[1]Pc, 2020, Summer'!D5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.18896205214285713</v>
+        <v>0.2099578357142857</v>
       </c>
       <c r="E5" s="1">
         <f>'[1]Pc, 2020, Summer'!E5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.22964821071428576</v>
+        <v>0.2551646785714286</v>
       </c>
       <c r="F5" s="1">
         <f>'[1]Pc, 2020, Summer'!F5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.19447822928571432</v>
+        <v>0.21608692142857144</v>
       </c>
       <c r="G5" s="1">
         <f>'[1]Pc, 2020, Summer'!G5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.15559030607142857</v>
+        <v>0.17287811785714285</v>
       </c>
       <c r="H5" s="1">
         <f>'[1]Pc, 2020, Summer'!H5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.35161538142857141</v>
+        <v>0.39068375714285714</v>
       </c>
       <c r="I5" s="1">
         <f>'[1]Pc, 2020, Summer'!I5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.65749707000000002</v>
+        <v>0.73055230000000004</v>
       </c>
       <c r="J5" s="1">
         <f>'[1]Pc, 2020, Summer'!J5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.80466266249999996</v>
+        <v>0.89406962499999998</v>
       </c>
       <c r="K5" s="1">
         <f>'[1]Pc, 2020, Summer'!K5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.84352438285714282</v>
+        <v>0.93724931428571423</v>
       </c>
       <c r="L5" s="1">
         <f>'[1]Pc, 2020, Summer'!L5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.85469379107142862</v>
+        <v>0.9496597678571429</v>
       </c>
       <c r="M5" s="1">
         <f>'[1]Pc, 2020, Summer'!M5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.78377601214285719</v>
+        <v>0.87086223571428578</v>
       </c>
       <c r="N5" s="1">
         <f>'[1]Pc, 2020, Summer'!N5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.84315823714285709</v>
+        <v>0.93684248571428563</v>
       </c>
       <c r="O5" s="1">
         <f>'[1]Pc, 2020, Summer'!O5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.77558884071428569</v>
+        <v>0.86176537857142854</v>
       </c>
       <c r="P5" s="1">
         <f>'[1]Pc, 2020, Summer'!P5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.68380984285714286</v>
+        <v>0.75978871428571426</v>
       </c>
       <c r="Q5" s="1">
         <f>'[1]Pc, 2020, Summer'!Q5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63244413964285706</v>
+        <v>0.70271571071428562</v>
       </c>
       <c r="R5" s="1">
         <f>'[1]Pc, 2020, Summer'!R5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.5769298157142857</v>
+        <v>0.64103312857142858</v>
       </c>
       <c r="S5" s="1">
         <f>'[1]Pc, 2020, Summer'!S5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.5442515421428572</v>
+        <v>0.60472393571428573</v>
       </c>
       <c r="T5" s="1">
         <f>'[1]Pc, 2020, Summer'!T5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69606512035714285</v>
+        <v>0.77340568928571429</v>
       </c>
       <c r="U5" s="1">
         <f>'[1]Pc, 2020, Summer'!U5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.8020057017857144</v>
+        <v>0.89111744642857149</v>
       </c>
       <c r="V5" s="1">
         <f>'[1]Pc, 2020, Summer'!V5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.89565562285714295</v>
+        <v>0.99517291428571442</v>
       </c>
       <c r="W5" s="1">
         <f>'[1]Pc, 2020, Summer'!W5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.91417234499999989</v>
+        <v>1.0157470499999999</v>
       </c>
       <c r="X5" s="1">
         <f>'[1]Pc, 2020, Summer'!X5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.68488109035714284</v>
+        <v>0.76097898928571428</v>
       </c>
       <c r="Y5" s="1">
         <f>'[1]Pc, 2020, Summer'!Y5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.48214071321428575</v>
+        <v>0.53571190357142862</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -12728,99 +12731,99 @@
       </c>
       <c r="B6" s="1">
         <f>'[1]Pc, 2020, Summer'!B6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8593946446428569</v>
+        <v>3.1771051607142855</v>
       </c>
       <c r="C6" s="1">
         <f>'[1]Pc, 2020, Summer'!C6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5783416835714288</v>
+        <v>2.8648240928571429</v>
       </c>
       <c r="D6" s="1">
         <f>'[1]Pc, 2020, Summer'!D6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3885601492857145</v>
+        <v>2.6539557214285714</v>
       </c>
       <c r="E6" s="1">
         <f>'[1]Pc, 2020, Summer'!E6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3257760785714288</v>
+        <v>2.5841956428571429</v>
       </c>
       <c r="F6" s="1">
         <f>'[1]Pc, 2020, Summer'!F6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3977178710714284</v>
+        <v>2.6641309678571425</v>
       </c>
       <c r="G6" s="1">
         <f>'[1]Pc, 2020, Summer'!G6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3819214407142861</v>
+        <v>2.6465793785714289</v>
       </c>
       <c r="H6" s="1">
         <f>'[1]Pc, 2020, Summer'!H6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6090927710714289</v>
+        <v>2.898991967857143</v>
       </c>
       <c r="I6" s="1">
         <f>'[1]Pc, 2020, Summer'!I6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0537908357142856</v>
+        <v>3.3931009285714282</v>
       </c>
       <c r="J6" s="1">
         <f>'[1]Pc, 2020, Summer'!J6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4202387089285708</v>
+        <v>3.8002652321428565</v>
       </c>
       <c r="K6" s="1">
         <f>'[1]Pc, 2020, Summer'!K6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6339379939285714</v>
+        <v>4.0377088821428568</v>
       </c>
       <c r="L6" s="1">
         <f>'[1]Pc, 2020, Summer'!L6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9319942082142858</v>
+        <v>4.3688824535714286</v>
       </c>
       <c r="M6" s="1">
         <f>'[1]Pc, 2020, Summer'!M6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1697120503571439</v>
+        <v>4.6330133892857148</v>
       </c>
       <c r="N6" s="1">
         <f>'[1]Pc, 2020, Summer'!N6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2387539174999995</v>
+        <v>4.7097265749999995</v>
       </c>
       <c r="O6" s="1">
         <f>'[1]Pc, 2020, Summer'!O6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9948756685714275</v>
+        <v>4.4387507428571418</v>
       </c>
       <c r="P6" s="1">
         <f>'[1]Pc, 2020, Summer'!P6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7920048589285722</v>
+        <v>4.2133387321428577</v>
       </c>
       <c r="Q6" s="1">
         <f>'[1]Pc, 2020, Summer'!Q6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7245631146428573</v>
+        <v>4.1384034607142857</v>
       </c>
       <c r="R6" s="1">
         <f>'[1]Pc, 2020, Summer'!R6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6959602275000001</v>
+        <v>4.106622475</v>
       </c>
       <c r="S6" s="1">
         <f>'[1]Pc, 2020, Summer'!S6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6510367435714288</v>
+        <v>4.0567074928571429</v>
       </c>
       <c r="T6" s="1">
         <f>'[1]Pc, 2020, Summer'!T6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7191790992857143</v>
+        <v>4.1324212214285714</v>
       </c>
       <c r="U6" s="1">
         <f>'[1]Pc, 2020, Summer'!U6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7923298103571428</v>
+        <v>4.2136997892857142</v>
       </c>
       <c r="V6" s="1">
         <f>'[1]Pc, 2020, Summer'!V6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1374066178571427</v>
+        <v>4.5971184642857139</v>
       </c>
       <c r="W6" s="1">
         <f>'[1]Pc, 2020, Summer'!W6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1035193357142861</v>
+        <v>4.559465928571429</v>
       </c>
       <c r="X6" s="1">
         <f>'[1]Pc, 2020, Summer'!X6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8847247842857144</v>
+        <v>4.3163608714285715</v>
       </c>
       <c r="Y6" s="1">
         <f>'[1]Pc, 2020, Summer'!Y6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3855951760714289</v>
+        <v>3.7617724178571432</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -12829,99 +12832,99 @@
       </c>
       <c r="B7" s="1">
         <f>'[1]Pc, 2020, Summer'!B7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4215474339285716</v>
+        <v>4.9128304821428568</v>
       </c>
       <c r="C7" s="1">
         <f>'[1]Pc, 2020, Summer'!C7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2942713399999999</v>
+        <v>4.7714125999999997</v>
       </c>
       <c r="D7" s="1">
         <f>'[1]Pc, 2020, Summer'!D7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.0325764242857138</v>
+        <v>4.480640471428571</v>
       </c>
       <c r="E7" s="1">
         <f>'[1]Pc, 2020, Summer'!E7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.154223905357143</v>
+        <v>4.615804339285714</v>
       </c>
       <c r="F7" s="1">
         <f>'[1]Pc, 2020, Summer'!F7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2242174228571425</v>
+        <v>4.6935749142857137</v>
       </c>
       <c r="G7" s="1">
         <f>'[1]Pc, 2020, Summer'!G7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1944975103571425</v>
+        <v>4.6605527892857141</v>
       </c>
       <c r="H7" s="1">
         <f>'[1]Pc, 2020, Summer'!H7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4199624439285721</v>
+        <v>4.9110693821428573</v>
       </c>
       <c r="I7" s="1">
         <f>'[1]Pc, 2020, Summer'!I7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3917315232142862</v>
+        <v>5.990812803571429</v>
       </c>
       <c r="J7" s="1">
         <f>'[1]Pc, 2020, Summer'!J7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6596236139285718</v>
+        <v>6.2884706821428571</v>
       </c>
       <c r="K7" s="1">
         <f>'[1]Pc, 2020, Summer'!K7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7290961085714285</v>
+        <v>6.3656623428571431</v>
       </c>
       <c r="L7" s="1">
         <f>'[1]Pc, 2020, Summer'!L7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7906550253571432</v>
+        <v>6.4340611392857143</v>
       </c>
       <c r="M7" s="1">
         <f>'[1]Pc, 2020, Summer'!M7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0937458332142862</v>
+        <v>6.7708287035714285</v>
       </c>
       <c r="N7" s="1">
         <f>'[1]Pc, 2020, Summer'!N7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0101442771428575</v>
+        <v>6.6779380857142856</v>
       </c>
       <c r="O7" s="1">
         <f>'[1]Pc, 2020, Summer'!O7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7239242296428579</v>
+        <v>6.3599158107142859</v>
       </c>
       <c r="P7" s="1">
         <f>'[1]Pc, 2020, Summer'!P7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3829107164285714</v>
+        <v>5.9810119071428574</v>
       </c>
       <c r="Q7" s="1">
         <f>'[1]Pc, 2020, Summer'!Q7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.238701797500001</v>
+        <v>5.820779775000001</v>
       </c>
       <c r="R7" s="1">
         <f>'[1]Pc, 2020, Summer'!R7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4222595714285724</v>
+        <v>6.0247328571428582</v>
       </c>
       <c r="S7" s="1">
         <f>'[1]Pc, 2020, Summer'!S7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2499514792857145</v>
+        <v>5.8332794214285713</v>
       </c>
       <c r="T7" s="1">
         <f>'[1]Pc, 2020, Summer'!T7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0079056882142856</v>
+        <v>5.5643396535714285</v>
       </c>
       <c r="U7" s="1">
         <f>'[1]Pc, 2020, Summer'!U7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0946379007142859</v>
+        <v>5.6607087785714283</v>
       </c>
       <c r="V7" s="1">
         <f>'[1]Pc, 2020, Summer'!V7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2586096528571433</v>
+        <v>5.8428996142857148</v>
       </c>
       <c r="W7" s="1">
         <f>'[1]Pc, 2020, Summer'!W7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9821925532142854</v>
+        <v>5.5357695035714283</v>
       </c>
       <c r="X7" s="1">
         <f>'[1]Pc, 2020, Summer'!X7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5842453646428574</v>
+        <v>5.0936059607142861</v>
       </c>
       <c r="Y7" s="1">
         <f>'[1]Pc, 2020, Summer'!Y7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5448410953571434</v>
+        <v>5.0498234392857144</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -12930,99 +12933,99 @@
       </c>
       <c r="B8" s="1">
         <f>'[1]Pc, 2020, Summer'!B8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2927440278571427</v>
+        <v>2.5474933642857143</v>
       </c>
       <c r="C8" s="1">
         <f>'[1]Pc, 2020, Summer'!C8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0809243896428571</v>
+        <v>2.3121382107142856</v>
       </c>
       <c r="D8" s="1">
         <f>'[1]Pc, 2020, Summer'!D8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0444610021428571</v>
+        <v>2.2716233357142857</v>
       </c>
       <c r="E8" s="1">
         <f>'[1]Pc, 2020, Summer'!E8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0793197764285716</v>
+        <v>2.3103553071428573</v>
       </c>
       <c r="F8" s="1">
         <f>'[1]Pc, 2020, Summer'!F8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0302746621428573</v>
+        <v>2.2558607357142857</v>
       </c>
       <c r="G8" s="1">
         <f>'[1]Pc, 2020, Summer'!G8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1482717271428569</v>
+        <v>2.3869685857142855</v>
       </c>
       <c r="H8" s="1">
         <f>'[1]Pc, 2020, Summer'!H8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6454207342857141</v>
+        <v>2.9393563714285711</v>
       </c>
       <c r="I8" s="1">
         <f>'[1]Pc, 2020, Summer'!I8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0391363960714282</v>
+        <v>3.3768182178571422</v>
       </c>
       <c r="J8" s="1">
         <f>'[1]Pc, 2020, Summer'!J8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5095775432142862</v>
+        <v>3.8995306035714288</v>
       </c>
       <c r="K8" s="1">
         <f>'[1]Pc, 2020, Summer'!K8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7541548221428576</v>
+        <v>4.1712831357142859</v>
       </c>
       <c r="L8" s="1">
         <f>'[1]Pc, 2020, Summer'!L8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7977007853571427</v>
+        <v>4.2196675392857141</v>
       </c>
       <c r="M8" s="1">
         <f>'[1]Pc, 2020, Summer'!M8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9414777235714284</v>
+        <v>4.3794196928571427</v>
       </c>
       <c r="N8" s="1">
         <f>'[1]Pc, 2020, Summer'!N8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8713701375000005</v>
+        <v>4.3015223750000002</v>
       </c>
       <c r="O8" s="1">
         <f>'[1]Pc, 2020, Summer'!O8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.899201930357143</v>
+        <v>4.3324465892857145</v>
       </c>
       <c r="P8" s="1">
         <f>'[1]Pc, 2020, Summer'!P8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.762785330357143</v>
+        <v>4.1808725892857144</v>
       </c>
       <c r="Q8" s="1">
         <f>'[1]Pc, 2020, Summer'!Q8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5169886510714283</v>
+        <v>3.9077651678571423</v>
       </c>
       <c r="R8" s="1">
         <f>'[1]Pc, 2020, Summer'!R8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5486020575000001</v>
+        <v>3.9428911750000002</v>
       </c>
       <c r="S8" s="1">
         <f>'[1]Pc, 2020, Summer'!S8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4170211285714283</v>
+        <v>3.7966901428571425</v>
       </c>
       <c r="T8" s="1">
         <f>'[1]Pc, 2020, Summer'!T8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3832741532142854</v>
+        <v>3.7591935035714283</v>
       </c>
       <c r="U8" s="1">
         <f>'[1]Pc, 2020, Summer'!U8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4390062160714288</v>
+        <v>3.8211180178571431</v>
       </c>
       <c r="V8" s="1">
         <f>'[1]Pc, 2020, Summer'!V8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4942329610714284</v>
+        <v>3.8824810678571429</v>
       </c>
       <c r="W8" s="1">
         <f>'[1]Pc, 2020, Summer'!W8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0619545653571425</v>
+        <v>3.402171739285714</v>
       </c>
       <c r="X8" s="1">
         <f>'[1]Pc, 2020, Summer'!X8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9237117078571426</v>
+        <v>3.2485685642857138</v>
       </c>
       <c r="Y8" s="1">
         <f>'[1]Pc, 2020, Summer'!Y8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5292993303571425</v>
+        <v>2.8103325892857138</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -13031,99 +13034,99 @@
       </c>
       <c r="B9" s="1">
         <f>'[1]Pc, 2020, Summer'!B9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4610452850000002</v>
+        <v>1.6233836500000001</v>
       </c>
       <c r="C9" s="1">
         <f>'[1]Pc, 2020, Summer'!C9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.366584769285714</v>
+        <v>1.5184275214285712</v>
       </c>
       <c r="D9" s="1">
         <f>'[1]Pc, 2020, Summer'!D9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3125153278571429</v>
+        <v>1.4583503642857143</v>
       </c>
       <c r="E9" s="1">
         <f>'[1]Pc, 2020, Summer'!E9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2976069660714287</v>
+        <v>1.441785517857143</v>
       </c>
       <c r="F9" s="1">
         <f>'[1]Pc, 2020, Summer'!F9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3483818064285713</v>
+        <v>1.498202007142857</v>
       </c>
       <c r="G9" s="1">
         <f>'[1]Pc, 2020, Summer'!G9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.450086075</v>
+        <v>1.61120675</v>
       </c>
       <c r="H9" s="1">
         <f>'[1]Pc, 2020, Summer'!H9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.285563374642857</v>
+        <v>2.5395148607142857</v>
       </c>
       <c r="I9" s="1">
         <f>'[1]Pc, 2020, Summer'!I9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7575258464285715</v>
+        <v>3.0639176071428569</v>
       </c>
       <c r="J9" s="1">
         <f>'[1]Pc, 2020, Summer'!J9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9913413592857143</v>
+        <v>3.3237126214285713</v>
       </c>
       <c r="K9" s="1">
         <f>'[1]Pc, 2020, Summer'!K9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.001041115714286</v>
+        <v>3.3344901285714288</v>
       </c>
       <c r="L9" s="1">
         <f>'[1]Pc, 2020, Summer'!L9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1667162303571432</v>
+        <v>3.5185735892857144</v>
       </c>
       <c r="M9" s="1">
         <f>'[1]Pc, 2020, Summer'!M9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3424956674999997</v>
+        <v>3.7138840749999997</v>
       </c>
       <c r="N9" s="1">
         <f>'[1]Pc, 2020, Summer'!N9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2516425285714288</v>
+        <v>3.6129361428571429</v>
       </c>
       <c r="O9" s="1">
         <f>'[1]Pc, 2020, Summer'!O9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9682518078571434</v>
+        <v>3.2980575642857146</v>
       </c>
       <c r="P9" s="1">
         <f>'[1]Pc, 2020, Summer'!P9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5926645889285718</v>
+        <v>2.8807384321428575</v>
       </c>
       <c r="Q9" s="1">
         <f>'[1]Pc, 2020, Summer'!Q9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4791838653571432</v>
+        <v>2.7546487392857144</v>
       </c>
       <c r="R9" s="1">
         <f>'[1]Pc, 2020, Summer'!R9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.376686256428572</v>
+        <v>2.6407625071428575</v>
       </c>
       <c r="S9" s="1">
         <f>'[1]Pc, 2020, Summer'!S9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3197177864285714</v>
+        <v>2.5774642071428571</v>
       </c>
       <c r="T9" s="1">
         <f>'[1]Pc, 2020, Summer'!T9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3140277614285716</v>
+        <v>2.5711419571428573</v>
       </c>
       <c r="U9" s="1">
         <f>'[1]Pc, 2020, Summer'!U9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3938247025000003</v>
+        <v>2.6598052250000004</v>
       </c>
       <c r="V9" s="1">
         <f>'[1]Pc, 2020, Summer'!V9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3467543167857139</v>
+        <v>2.6075047964285711</v>
       </c>
       <c r="W9" s="1">
         <f>'[1]Pc, 2020, Summer'!W9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1680803767857144</v>
+        <v>2.4089781964285715</v>
       </c>
       <c r="X9" s="1">
         <f>'[1]Pc, 2020, Summer'!X9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8187421592857143</v>
+        <v>2.0208246214285714</v>
       </c>
       <c r="Y9" s="1">
         <f>'[1]Pc, 2020, Summer'!Y9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6122295735714287</v>
+        <v>1.7913661928571429</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -13132,99 +13135,99 @@
       </c>
       <c r="B10" s="1">
         <f>'[1]Pc, 2020, Summer'!B10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4153649364285714</v>
+        <v>1.5726277071428572</v>
       </c>
       <c r="C10" s="1">
         <f>'[1]Pc, 2020, Summer'!C10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3075147671428571</v>
+        <v>1.4527941857142856</v>
       </c>
       <c r="D10" s="1">
         <f>'[1]Pc, 2020, Summer'!D10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2658248000000001</v>
+        <v>1.4064719999999999</v>
       </c>
       <c r="E10" s="1">
         <f>'[1]Pc, 2020, Summer'!E10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1888622610714283</v>
+        <v>1.3209580678571426</v>
       </c>
       <c r="F10" s="1">
         <f>'[1]Pc, 2020, Summer'!F10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2052381628571427</v>
+        <v>1.3391535142857141</v>
       </c>
       <c r="G10" s="1">
         <f>'[1]Pc, 2020, Summer'!G10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1939938971428572</v>
+        <v>1.3266598857142857</v>
       </c>
       <c r="H10" s="1">
         <f>'[1]Pc, 2020, Summer'!H10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1716105242857144</v>
+        <v>1.3017894714285716</v>
       </c>
       <c r="I10" s="1">
         <f>'[1]Pc, 2020, Summer'!I10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3452864621428571</v>
+        <v>1.4947627357142856</v>
       </c>
       <c r="J10" s="1">
         <f>'[1]Pc, 2020, Summer'!J10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2167895664285715</v>
+        <v>1.3519884071428572</v>
       </c>
       <c r="K10" s="1">
         <f>'[1]Pc, 2020, Summer'!K10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2912954524999998</v>
+        <v>1.4347727249999997</v>
       </c>
       <c r="L10" s="1">
         <f>'[1]Pc, 2020, Summer'!L10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4185936671428574</v>
+        <v>1.5762151857142859</v>
       </c>
       <c r="M10" s="1">
         <f>'[1]Pc, 2020, Summer'!M10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5917295150000002</v>
+        <v>1.7685883500000001</v>
       </c>
       <c r="N10" s="1">
         <f>'[1]Pc, 2020, Summer'!N10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6201127571428573</v>
+        <v>1.8001252857142858</v>
       </c>
       <c r="O10" s="1">
         <f>'[1]Pc, 2020, Summer'!O10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5665928396428574</v>
+        <v>1.7406587107142859</v>
       </c>
       <c r="P10" s="1">
         <f>'[1]Pc, 2020, Summer'!P10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4738439953571432</v>
+        <v>1.6376044392857145</v>
       </c>
       <c r="Q10" s="1">
         <f>'[1]Pc, 2020, Summer'!Q10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4905272857142857</v>
+        <v>1.6561414285714284</v>
       </c>
       <c r="R10" s="1">
         <f>'[1]Pc, 2020, Summer'!R10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.500584027142857</v>
+        <v>1.6673155857142856</v>
       </c>
       <c r="S10" s="1">
         <f>'[1]Pc, 2020, Summer'!S10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4705700010714287</v>
+        <v>1.633966667857143</v>
       </c>
       <c r="T10" s="1">
         <f>'[1]Pc, 2020, Summer'!T10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4941873800000003</v>
+        <v>1.6602082000000002</v>
       </c>
       <c r="U10" s="1">
         <f>'[1]Pc, 2020, Summer'!U10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5811391796428573</v>
+        <v>1.7568213107142858</v>
       </c>
       <c r="V10" s="1">
         <f>'[1]Pc, 2020, Summer'!V10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6683872914285713</v>
+        <v>1.8537636571428571</v>
       </c>
       <c r="W10" s="1">
         <f>'[1]Pc, 2020, Summer'!W10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6208202214285716</v>
+        <v>1.8009113571428572</v>
       </c>
       <c r="X10" s="1">
         <f>'[1]Pc, 2020, Summer'!X10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4183482949999999</v>
+        <v>1.5759425499999999</v>
       </c>
       <c r="Y10" s="1">
         <f>'[1]Pc, 2020, Summer'!Y10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4458588167857145</v>
+        <v>1.6065097964285715</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -13233,99 +13236,99 @@
       </c>
       <c r="B11" s="1">
         <f>'[1]Pc, 2020, Summer'!B11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1359016771428569</v>
+        <v>2.3732240857142854</v>
       </c>
       <c r="C11" s="1">
         <f>'[1]Pc, 2020, Summer'!C11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9748601835714286</v>
+        <v>2.1942890928571428</v>
       </c>
       <c r="D11" s="1">
         <f>'[1]Pc, 2020, Summer'!D11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9054087457142854</v>
+        <v>2.1171208285714282</v>
       </c>
       <c r="E11" s="1">
         <f>'[1]Pc, 2020, Summer'!E11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9101552878571433</v>
+        <v>2.1223947642857146</v>
       </c>
       <c r="F11" s="1">
         <f>'[1]Pc, 2020, Summer'!F11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9154270089285714</v>
+        <v>2.1282522321428572</v>
       </c>
       <c r="G11" s="1">
         <f>'[1]Pc, 2020, Summer'!G11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9526919878571429</v>
+        <v>2.1696577642857142</v>
       </c>
       <c r="H11" s="1">
         <f>'[1]Pc, 2020, Summer'!H11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2690429617857144</v>
+        <v>2.5211588464285715</v>
       </c>
       <c r="I11" s="1">
         <f>'[1]Pc, 2020, Summer'!I11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6539606832142857</v>
+        <v>2.9488452035714285</v>
       </c>
       <c r="J11" s="1">
         <f>'[1]Pc, 2020, Summer'!J11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.885673902142857</v>
+        <v>3.2063043357142855</v>
       </c>
       <c r="K11" s="1">
         <f>'[1]Pc, 2020, Summer'!K11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0384110700000004</v>
+        <v>3.3760123000000002</v>
       </c>
       <c r="L11" s="1">
         <f>'[1]Pc, 2020, Summer'!L11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.055219280357143</v>
+        <v>3.3946880892857143</v>
       </c>
       <c r="M11" s="1">
         <f>'[1]Pc, 2020, Summer'!M11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1556661010714286</v>
+        <v>3.5062956678571431</v>
       </c>
       <c r="N11" s="1">
         <f>'[1]Pc, 2020, Summer'!N11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1989714139285708</v>
+        <v>3.5544126821428565</v>
       </c>
       <c r="O11" s="1">
         <f>'[1]Pc, 2020, Summer'!O11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0527004053571423</v>
+        <v>3.3918893392857137</v>
       </c>
       <c r="P11" s="1">
         <f>'[1]Pc, 2020, Summer'!P11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9439157049999998</v>
+        <v>3.2710174499999995</v>
       </c>
       <c r="Q11" s="1">
         <f>'[1]Pc, 2020, Summer'!Q11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7532175142857138</v>
+        <v>3.0591305714285708</v>
       </c>
       <c r="R11" s="1">
         <f>'[1]Pc, 2020, Summer'!R11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6912971125</v>
+        <v>2.9903301249999998</v>
       </c>
       <c r="S11" s="1">
         <f>'[1]Pc, 2020, Summer'!S11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6825935757142858</v>
+        <v>2.9806595285714286</v>
       </c>
       <c r="T11" s="1">
         <f>'[1]Pc, 2020, Summer'!T11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7394824921428569</v>
+        <v>3.0438694357142855</v>
       </c>
       <c r="U11" s="1">
         <f>'[1]Pc, 2020, Summer'!U11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9044914139285716</v>
+        <v>3.2272126821428571</v>
       </c>
       <c r="V11" s="1">
         <f>'[1]Pc, 2020, Summer'!V11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1136374832142857</v>
+        <v>3.4595972035714286</v>
       </c>
       <c r="W11" s="1">
         <f>'[1]Pc, 2020, Summer'!W11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9468585667857146</v>
+        <v>3.2742872964285716</v>
       </c>
       <c r="X11" s="1">
         <f>'[1]Pc, 2020, Summer'!X11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6684549582142858</v>
+        <v>2.9649499535714288</v>
       </c>
       <c r="Y11" s="1">
         <f>'[1]Pc, 2020, Summer'!Y11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3089593117857143</v>
+        <v>2.5655103464285713</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -13334,99 +13337,99 @@
       </c>
       <c r="B12" s="1">
         <f>'[1]Pc, 2020, Summer'!B12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.70529395821428587</v>
+        <v>0.7836599535714287</v>
       </c>
       <c r="C12" s="1">
         <f>'[1]Pc, 2020, Summer'!C12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63386901964285713</v>
+        <v>0.70429891071428574</v>
       </c>
       <c r="D12" s="1">
         <f>'[1]Pc, 2020, Summer'!D12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.59591411357142854</v>
+        <v>0.66212679285714282</v>
       </c>
       <c r="E12" s="1">
         <f>'[1]Pc, 2020, Summer'!E12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.57615168857142873</v>
+        <v>0.64016854285714297</v>
       </c>
       <c r="F12" s="1">
         <f>'[1]Pc, 2020, Summer'!F12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.58441910142857134</v>
+        <v>0.64935455714285706</v>
       </c>
       <c r="G12" s="1">
         <f>'[1]Pc, 2020, Summer'!G12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.62859348964285722</v>
+        <v>0.69843721071428577</v>
       </c>
       <c r="H12" s="1">
         <f>'[1]Pc, 2020, Summer'!H12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.74156881500000005</v>
+        <v>0.82396535000000004</v>
       </c>
       <c r="I12" s="1">
         <f>'[1]Pc, 2020, Summer'!I12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.8908958410714285</v>
+        <v>0.98988426785714279</v>
       </c>
       <c r="J12" s="1">
         <f>'[1]Pc, 2020, Summer'!J12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.99943413107142842</v>
+        <v>1.1104823678571427</v>
       </c>
       <c r="K12" s="1">
         <f>'[1]Pc, 2020, Summer'!K12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0688838717857143</v>
+        <v>1.1876487464285714</v>
       </c>
       <c r="L12" s="1">
         <f>'[1]Pc, 2020, Summer'!L12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1385463660714286</v>
+        <v>1.2650515178571429</v>
       </c>
       <c r="M12" s="1">
         <f>'[1]Pc, 2020, Summer'!M12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.180103711785714</v>
+        <v>1.3112263464285712</v>
       </c>
       <c r="N12" s="1">
         <f>'[1]Pc, 2020, Summer'!N12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1467634978571426</v>
+        <v>1.274181664285714</v>
       </c>
       <c r="O12" s="1">
         <f>'[1]Pc, 2020, Summer'!O12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0838058460714284</v>
+        <v>1.2042287178571427</v>
       </c>
       <c r="P12" s="1">
         <f>'[1]Pc, 2020, Summer'!P12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0129909757142859</v>
+        <v>1.1255455285714286</v>
       </c>
       <c r="Q12" s="1">
         <f>'[1]Pc, 2020, Summer'!Q12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.95637895392857142</v>
+        <v>1.0626432821428571</v>
       </c>
       <c r="R12" s="1">
         <f>'[1]Pc, 2020, Summer'!R12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.94919801785714297</v>
+        <v>1.0546644642857144</v>
       </c>
       <c r="S12" s="1">
         <f>'[1]Pc, 2020, Summer'!S12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.99955687500000001</v>
+        <v>1.11061875</v>
       </c>
       <c r="T12" s="1">
         <f>'[1]Pc, 2020, Summer'!T12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0581289457142857</v>
+        <v>1.1756988285714285</v>
       </c>
       <c r="U12" s="1">
         <f>'[1]Pc, 2020, Summer'!U12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0927159585714286</v>
+        <v>1.2141288428571428</v>
       </c>
       <c r="V12" s="1">
         <f>'[1]Pc, 2020, Summer'!V12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2018060932142856</v>
+        <v>1.3353401035714283</v>
       </c>
       <c r="W12" s="1">
         <f>'[1]Pc, 2020, Summer'!W12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1292914635714284</v>
+        <v>1.2547682928571426</v>
       </c>
       <c r="X12" s="1">
         <f>'[1]Pc, 2020, Summer'!X12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0257540589285714</v>
+        <v>1.139726732142857</v>
       </c>
       <c r="Y12" s="1">
         <f>'[1]Pc, 2020, Summer'!Y12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.86431459499999996</v>
+        <v>0.96034955</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -13435,99 +13438,99 @@
       </c>
       <c r="B13" s="1">
         <f>'[1]Pc, 2020, Summer'!B13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6587040714285717</v>
+        <v>5.1763378571428573</v>
       </c>
       <c r="C13" s="1">
         <f>'[1]Pc, 2020, Summer'!C13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.585315287857143</v>
+        <v>5.0947947642857141</v>
       </c>
       <c r="D13" s="1">
         <f>'[1]Pc, 2020, Summer'!D13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7893478592857148</v>
+        <v>5.3214976214285716</v>
       </c>
       <c r="E13" s="1">
         <f>'[1]Pc, 2020, Summer'!E13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3623443185714281</v>
+        <v>4.8470492428571426</v>
       </c>
       <c r="F13" s="1">
         <f>'[1]Pc, 2020, Summer'!F13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.0700067107142868</v>
+        <v>4.5222296785714295</v>
       </c>
       <c r="G13" s="1">
         <f>'[1]Pc, 2020, Summer'!G13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.0294247142857147</v>
+        <v>4.4771385714285721</v>
       </c>
       <c r="H13" s="1">
         <f>'[1]Pc, 2020, Summer'!H13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1680319303571434</v>
+        <v>4.6311465892857147</v>
       </c>
       <c r="I13" s="1">
         <f>'[1]Pc, 2020, Summer'!I13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.407005487857143</v>
+        <v>4.8966727642857144</v>
       </c>
       <c r="J13" s="1">
         <f>'[1]Pc, 2020, Summer'!J13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9270428228571426</v>
+        <v>4.3633809142857141</v>
       </c>
       <c r="K13" s="1">
         <f>'[1]Pc, 2020, Summer'!K13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2532802939285723</v>
+        <v>3.614755882142858</v>
       </c>
       <c r="L13" s="1">
         <f>'[1]Pc, 2020, Summer'!L13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3127409857142878</v>
+        <v>4.7919344285714303</v>
       </c>
       <c r="M13" s="1">
         <f>'[1]Pc, 2020, Summer'!M13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6570956075000005</v>
+        <v>5.1745506750000008</v>
       </c>
       <c r="N13" s="1">
         <f>'[1]Pc, 2020, Summer'!N13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6463690217857154</v>
+        <v>5.1626322464285721</v>
       </c>
       <c r="O13" s="1">
         <f>'[1]Pc, 2020, Summer'!O13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6694611060714291</v>
+        <v>5.188290117857143</v>
       </c>
       <c r="P13" s="1">
         <f>'[1]Pc, 2020, Summer'!P13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.002525925714286</v>
+        <v>4.4472510285714284</v>
       </c>
       <c r="Q13" s="1">
         <f>'[1]Pc, 2020, Summer'!Q13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9998159450000008</v>
+        <v>5.5553510500000005</v>
       </c>
       <c r="R13" s="1">
         <f>'[1]Pc, 2020, Summer'!R13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6153644267857148</v>
+        <v>5.1281826964285715</v>
       </c>
       <c r="S13" s="1">
         <f>'[1]Pc, 2020, Summer'!S13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4920032300000008</v>
+        <v>4.9911147000000007</v>
       </c>
       <c r="T13" s="1">
         <f>'[1]Pc, 2020, Summer'!T13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.628969797499999</v>
+        <v>5.1432997749999991</v>
       </c>
       <c r="U13" s="1">
         <f>'[1]Pc, 2020, Summer'!U13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9907768496428568</v>
+        <v>5.5453076107142856</v>
       </c>
       <c r="V13" s="1">
         <f>'[1]Pc, 2020, Summer'!V13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2533616628571425</v>
+        <v>5.8370685142857139</v>
       </c>
       <c r="W13" s="1">
         <f>'[1]Pc, 2020, Summer'!W13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2327579596428571</v>
+        <v>5.8141755107142856</v>
       </c>
       <c r="X13" s="1">
         <f>'[1]Pc, 2020, Summer'!X13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2100975442857145</v>
+        <v>5.7889972714285713</v>
       </c>
       <c r="Y13" s="1">
         <f>'[1]Pc, 2020, Summer'!Y13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2644339000000002</v>
+        <v>5.8493709999999997</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -13536,99 +13539,99 @@
       </c>
       <c r="B14" s="1">
         <f>'[1]Pc, 2020, Summer'!B14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.1124866257142862</v>
+        <v>9.0138740285714292</v>
       </c>
       <c r="C14" s="1">
         <f>'[1]Pc, 2020, Summer'!C14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.9965564782142859</v>
+        <v>8.8850627535714288</v>
       </c>
       <c r="D14" s="1">
         <f>'[1]Pc, 2020, Summer'!D14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.8933949939285712</v>
+        <v>8.7704388821428569</v>
       </c>
       <c r="E14" s="1">
         <f>'[1]Pc, 2020, Summer'!E14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.8534841564285705</v>
+        <v>8.7260935071428563</v>
       </c>
       <c r="F14" s="1">
         <f>'[1]Pc, 2020, Summer'!F14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.7945554575000005</v>
+        <v>8.6606171750000005</v>
       </c>
       <c r="G14" s="1">
         <f>'[1]Pc, 2020, Summer'!G14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.9112528967857143</v>
+        <v>8.7902809964285709</v>
       </c>
       <c r="H14" s="1">
         <f>'[1]Pc, 2020, Summer'!H14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.9320363425</v>
+        <v>9.9244848250000004</v>
       </c>
       <c r="I14" s="1">
         <f>'[1]Pc, 2020, Summer'!I14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.3298636800000008</v>
+        <v>10.3665152</v>
       </c>
       <c r="J14" s="1">
         <f>'[1]Pc, 2020, Summer'!J14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.9103381457142863</v>
+        <v>11.011486828571428</v>
       </c>
       <c r="K14" s="1">
         <f>'[1]Pc, 2020, Summer'!K14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.5489573882142853</v>
+        <v>10.609952653571428</v>
       </c>
       <c r="L14" s="1">
         <f>'[1]Pc, 2020, Summer'!L14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.7101015396428583</v>
+        <v>10.789001710714286</v>
       </c>
       <c r="M14" s="1">
         <f>'[1]Pc, 2020, Summer'!M14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.7745674210714295</v>
+        <v>10.860630467857144</v>
       </c>
       <c r="N14" s="1">
         <f>'[1]Pc, 2020, Summer'!N14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.9306413871428596</v>
+        <v>11.034045985714288</v>
       </c>
       <c r="O14" s="1">
         <f>'[1]Pc, 2020, Summer'!O14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.7506920796428584</v>
+        <v>10.834102310714286</v>
       </c>
       <c r="P14" s="1">
         <f>'[1]Pc, 2020, Summer'!P14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.4681528392857146</v>
+        <v>10.520169821428572</v>
       </c>
       <c r="Q14" s="1">
         <f>'[1]Pc, 2020, Summer'!Q14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.4230266721428588</v>
+        <v>10.470029635714287</v>
       </c>
       <c r="R14" s="1">
         <f>'[1]Pc, 2020, Summer'!R14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.4865982107142859</v>
+        <v>10.540664678571428</v>
       </c>
       <c r="S14" s="1">
         <f>'[1]Pc, 2020, Summer'!S14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.5904738417857143</v>
+        <v>10.656082046428571</v>
       </c>
       <c r="T14" s="1">
         <f>'[1]Pc, 2020, Summer'!T14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.0832346164285713</v>
+        <v>10.092482907142857</v>
       </c>
       <c r="U14" s="1">
         <f>'[1]Pc, 2020, Summer'!U14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.3474004114285716</v>
+        <v>10.386000457142856</v>
       </c>
       <c r="V14" s="1">
         <f>'[1]Pc, 2020, Summer'!V14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.5069028085714269</v>
+        <v>10.563225342857141</v>
       </c>
       <c r="W14" s="1">
         <f>'[1]Pc, 2020, Summer'!W14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.1215933171428567</v>
+        <v>10.135103685714284</v>
       </c>
       <c r="X14" s="1">
         <f>'[1]Pc, 2020, Summer'!X14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.2725613489285728</v>
+        <v>9.191734832142858</v>
       </c>
       <c r="Y14" s="1">
         <f>'[1]Pc, 2020, Summer'!Y14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.1575252550000013</v>
+        <v>9.0639169500000012</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -13637,99 +13640,99 @@
       </c>
       <c r="B15" s="1">
         <f>'[1]Pc, 2020, Summer'!B15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.26706301071428568</v>
+        <v>0.29673667857142855</v>
       </c>
       <c r="C15" s="1">
         <f>'[1]Pc, 2020, Summer'!C15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.24985373464285721</v>
+        <v>0.27761526071428577</v>
       </c>
       <c r="D15" s="1">
         <f>'[1]Pc, 2020, Summer'!D15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.24271080107142862</v>
+        <v>0.2696786678571429</v>
       </c>
       <c r="E15" s="1">
         <f>'[1]Pc, 2020, Summer'!E15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.23725781035714286</v>
+        <v>0.26361978928571428</v>
       </c>
       <c r="F15" s="1">
         <f>'[1]Pc, 2020, Summer'!F15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.24035188821428571</v>
+        <v>0.26705765357142858</v>
       </c>
       <c r="G15" s="1">
         <f>'[1]Pc, 2020, Summer'!G15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.25531842214285716</v>
+        <v>0.28368713571428572</v>
       </c>
       <c r="H15" s="1">
         <f>'[1]Pc, 2020, Summer'!H15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2995501982142858</v>
+        <v>0.33283355357142863</v>
       </c>
       <c r="I15" s="1">
         <f>'[1]Pc, 2020, Summer'!I15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.34728484499999995</v>
+        <v>0.38587204999999997</v>
       </c>
       <c r="J15" s="1">
         <f>'[1]Pc, 2020, Summer'!J15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.38299138392857146</v>
+        <v>0.42554598214285716</v>
       </c>
       <c r="K15" s="1">
         <f>'[1]Pc, 2020, Summer'!K15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.41056296107142859</v>
+        <v>0.45618106785714285</v>
       </c>
       <c r="L15" s="1">
         <f>'[1]Pc, 2020, Summer'!L15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.44175875464285719</v>
+        <v>0.49084306071428574</v>
       </c>
       <c r="M15" s="1">
         <f>'[1]Pc, 2020, Summer'!M15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.45392145428571429</v>
+        <v>0.50435717142857139</v>
       </c>
       <c r="N15" s="1">
         <f>'[1]Pc, 2020, Summer'!N15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.44087494499999996</v>
+        <v>0.48986104999999996</v>
       </c>
       <c r="O15" s="1">
         <f>'[1]Pc, 2020, Summer'!O15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.40479948321428577</v>
+        <v>0.44977720357142864</v>
       </c>
       <c r="P15" s="1">
         <f>'[1]Pc, 2020, Summer'!P15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.35683188749999994</v>
+        <v>0.39647987499999993</v>
       </c>
       <c r="Q15" s="1">
         <f>'[1]Pc, 2020, Summer'!Q15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.35399839178571429</v>
+        <v>0.39333154642857143</v>
       </c>
       <c r="R15" s="1">
         <f>'[1]Pc, 2020, Summer'!R15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.35669923071428572</v>
+        <v>0.39633247857142856</v>
       </c>
       <c r="S15" s="1">
         <f>'[1]Pc, 2020, Summer'!S15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.34888901785714294</v>
+        <v>0.38765446428571437</v>
       </c>
       <c r="T15" s="1">
         <f>'[1]Pc, 2020, Summer'!T15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.35949410678571431</v>
+        <v>0.39943789642857142</v>
       </c>
       <c r="U15" s="1">
         <f>'[1]Pc, 2020, Summer'!U15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.38381499321428569</v>
+        <v>0.42646110357142852</v>
       </c>
       <c r="V15" s="1">
         <f>'[1]Pc, 2020, Summer'!V15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.39585044571428574</v>
+        <v>0.43983382857142861</v>
       </c>
       <c r="W15" s="1">
         <f>'[1]Pc, 2020, Summer'!W15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.36090338785714288</v>
+        <v>0.40100376428571427</v>
       </c>
       <c r="X15" s="1">
         <f>'[1]Pc, 2020, Summer'!X15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.32910255642857145</v>
+        <v>0.36566950714285718</v>
       </c>
       <c r="Y15" s="1">
         <f>'[1]Pc, 2020, Summer'!Y15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.28629261642857146</v>
+        <v>0.31810290714285716</v>
       </c>
     </row>
   </sheetData>
@@ -19859,99 +19862,99 @@
       </c>
       <c r="B2" s="1">
         <f>'[1]Qc, 2020, Summer'!B2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42473786785714285</v>
+        <v>0.47193096428571424</v>
       </c>
       <c r="C2" s="1">
         <f>'[1]Qc, 2020, Summer'!C2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.46007664428571438</v>
+        <v>0.51119627142857149</v>
       </c>
       <c r="D2" s="1">
         <f>'[1]Qc, 2020, Summer'!D2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.43846211250000006</v>
+        <v>0.48718012500000007</v>
       </c>
       <c r="E2" s="1">
         <f>'[1]Qc, 2020, Summer'!E2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42982134107142855</v>
+        <v>0.47757926785714283</v>
       </c>
       <c r="F2" s="1">
         <f>'[1]Qc, 2020, Summer'!F2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.41840076214285715</v>
+        <v>0.46488973571428571</v>
       </c>
       <c r="G2" s="1">
         <f>'[1]Qc, 2020, Summer'!G2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.44249695714285714</v>
+        <v>0.49166328571428569</v>
       </c>
       <c r="H2" s="1">
         <f>'[1]Qc, 2020, Summer'!H2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.43400778749999996</v>
+        <v>0.48223087499999995</v>
       </c>
       <c r="I2" s="1">
         <f>'[1]Qc, 2020, Summer'!I2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.7751198121428573</v>
+        <v>0.86124423571428588</v>
       </c>
       <c r="J2" s="1">
         <f>'[1]Qc, 2020, Summer'!J2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.90710077178571435</v>
+        <v>1.0078897464285714</v>
       </c>
       <c r="K2" s="1">
         <f>'[1]Qc, 2020, Summer'!K2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.89676984857142861</v>
+        <v>0.99641094285714282</v>
       </c>
       <c r="L2" s="1">
         <f>'[1]Qc, 2020, Summer'!L2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.86760520392857154</v>
+        <v>0.96400578214285726</v>
       </c>
       <c r="M2" s="1">
         <f>'[1]Qc, 2020, Summer'!M2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.87226270714285714</v>
+        <v>0.96918078571428568</v>
       </c>
       <c r="N2" s="1">
         <f>'[1]Qc, 2020, Summer'!N2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.9244408885714287</v>
+        <v>1.027156542857143</v>
       </c>
       <c r="O2" s="1">
         <f>'[1]Qc, 2020, Summer'!O2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.90290430964285717</v>
+        <v>1.0032270107142858</v>
       </c>
       <c r="P2" s="1">
         <f>'[1]Qc, 2020, Summer'!P2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.65128938428571426</v>
+        <v>0.72365487142857143</v>
       </c>
       <c r="Q2" s="1">
         <f>'[1]Qc, 2020, Summer'!Q2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.83993411892857139</v>
+        <v>0.93326013214285708</v>
       </c>
       <c r="R2" s="1">
         <f>'[1]Qc, 2020, Summer'!R2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.84445811678571436</v>
+        <v>0.93828679642857149</v>
       </c>
       <c r="S2" s="1">
         <f>'[1]Qc, 2020, Summer'!S2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.78154211571428578</v>
+        <v>0.86838012857142866</v>
       </c>
       <c r="T2" s="1">
         <f>'[1]Qc, 2020, Summer'!T2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.62525518071428576</v>
+        <v>0.69472797857142865</v>
       </c>
       <c r="U2" s="1">
         <f>'[1]Qc, 2020, Summer'!U2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.57948639428571425</v>
+        <v>0.64387377142857138</v>
       </c>
       <c r="V2" s="1">
         <f>'[1]Qc, 2020, Summer'!V2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.60281062071428571</v>
+        <v>0.66978957857142851</v>
       </c>
       <c r="W2" s="1">
         <f>'[1]Qc, 2020, Summer'!W2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.59719827214285703</v>
+        <v>0.66355363571428561</v>
       </c>
       <c r="X2" s="1">
         <f>'[1]Qc, 2020, Summer'!X2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42893813571428574</v>
+        <v>0.47659792857142858</v>
       </c>
       <c r="Y2" s="1">
         <f>'[1]Qc, 2020, Summer'!Y2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42029024464285714</v>
+        <v>0.4669891607142857</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -19960,99 +19963,99 @@
       </c>
       <c r="B3" s="1">
         <f>'[1]Qc, 2020, Summer'!B3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7127932142857141E-2</v>
+        <v>-1.9031035714285712E-2</v>
       </c>
       <c r="C3" s="1">
         <f>'[1]Qc, 2020, Summer'!C3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.168747285714286E-2</v>
+        <v>-4.6319414285714289E-2</v>
       </c>
       <c r="D3" s="1">
         <f>'[1]Qc, 2020, Summer'!D3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.5572049642857139E-2</v>
+        <v>-5.0635610714285711E-2</v>
       </c>
       <c r="E3" s="1">
         <f>'[1]Qc, 2020, Summer'!E3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.6510363571428572E-2</v>
+        <v>-6.2789292857142853E-2</v>
       </c>
       <c r="F3" s="1">
         <f>'[1]Qc, 2020, Summer'!F3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.3567237857142855E-2</v>
+        <v>-7.0630264285714284E-2</v>
       </c>
       <c r="G3" s="1">
         <f>'[1]Qc, 2020, Summer'!G3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.9444479285714287E-2</v>
+        <v>-6.6049421428571425E-2</v>
       </c>
       <c r="H3" s="1">
         <f>'[1]Qc, 2020, Summer'!H3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.0639441428571424E-2</v>
+        <v>-6.7377157142857136E-2</v>
       </c>
       <c r="I3" s="1">
         <f>'[1]Qc, 2020, Summer'!I3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.5141529642857131E-2</v>
+        <v>0.1057128107142857</v>
       </c>
       <c r="J3" s="1">
         <f>'[1]Qc, 2020, Summer'!J3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.13286617714285714</v>
+        <v>0.14762908571428571</v>
       </c>
       <c r="K3" s="1">
         <f>'[1]Qc, 2020, Summer'!K3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.17051606357142857</v>
+        <v>0.18946229285714283</v>
       </c>
       <c r="L3" s="1">
         <f>'[1]Qc, 2020, Summer'!L3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.1457026071428582E-2</v>
+        <v>0.10161891785714287</v>
       </c>
       <c r="M3" s="1">
         <f>'[1]Qc, 2020, Summer'!M3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.025239607142858E-2</v>
+        <v>7.805821785714287E-2</v>
       </c>
       <c r="N3" s="1">
         <f>'[1]Qc, 2020, Summer'!N3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1468898214285718E-2</v>
+        <v>4.6076553571428577E-2</v>
       </c>
       <c r="O3" s="1">
         <f>'[1]Qc, 2020, Summer'!O3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5088279999999996E-2</v>
+        <v>6.1209199999999991E-2</v>
       </c>
       <c r="P3" s="1">
         <f>'[1]Qc, 2020, Summer'!P3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1300473928571425E-2</v>
+        <v>1.2556082142857139E-2</v>
       </c>
       <c r="Q3" s="1">
         <f>'[1]Qc, 2020, Summer'!Q3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.9667353571428604E-3</v>
+        <v>9.963039285714289E-3</v>
       </c>
       <c r="R3" s="1">
         <f>'[1]Qc, 2020, Summer'!R3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5624729642857143E-2</v>
+        <v>1.7360810714285715E-2</v>
       </c>
       <c r="S3" s="1">
         <f>'[1]Qc, 2020, Summer'!S3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4977795714285715E-2</v>
+        <v>4.9975328571428571E-2</v>
       </c>
       <c r="T3" s="1">
         <f>'[1]Qc, 2020, Summer'!T3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.1196836875</v>
+        <v>0.132981875</v>
       </c>
       <c r="U3" s="1">
         <f>'[1]Qc, 2020, Summer'!U3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.13637572714285717</v>
+        <v>0.15152858571428574</v>
       </c>
       <c r="V3" s="1">
         <f>'[1]Qc, 2020, Summer'!V3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.8196949285714277E-2</v>
+        <v>0.10910772142857142</v>
       </c>
       <c r="W3" s="1">
         <f>'[1]Qc, 2020, Summer'!W3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.1493515357142864E-2</v>
+        <v>7.9437239285714292E-2</v>
       </c>
       <c r="X3" s="1">
         <f>'[1]Qc, 2020, Summer'!X3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.286324E-2</v>
+        <v>2.5403599999999998E-2</v>
       </c>
       <c r="Y3" s="1">
         <f>'[1]Qc, 2020, Summer'!Y3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3628761071428571E-2</v>
+        <v>-1.5143067857142856E-2</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -20061,99 +20064,99 @@
       </c>
       <c r="B4" s="1">
         <f>'[1]Qc, 2020, Summer'!B4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14080976357142858</v>
+        <v>-0.15645529285714285</v>
       </c>
       <c r="C4" s="1">
         <f>'[1]Qc, 2020, Summer'!C4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.24207362035714289</v>
+        <v>-0.26897068928571433</v>
       </c>
       <c r="D4" s="1">
         <f>'[1]Qc, 2020, Summer'!D4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.35845698535714288</v>
+        <v>-0.39828553928571431</v>
       </c>
       <c r="E4" s="1">
         <f>'[1]Qc, 2020, Summer'!E4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.34750500428571429</v>
+        <v>-0.38611667142857142</v>
       </c>
       <c r="F4" s="1">
         <f>'[1]Qc, 2020, Summer'!F4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.35562036535714286</v>
+        <v>-0.39513373928571427</v>
       </c>
       <c r="G4" s="1">
         <f>'[1]Qc, 2020, Summer'!G4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.34885664678571432</v>
+        <v>-0.38761849642857144</v>
       </c>
       <c r="H4" s="1">
         <f>'[1]Qc, 2020, Summer'!H4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.12307843607142857</v>
+        <v>-0.13675381785714286</v>
       </c>
       <c r="I4" s="1">
         <f>'[1]Qc, 2020, Summer'!I4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.20480491928571432</v>
+        <v>0.22756102142857146</v>
       </c>
       <c r="J4" s="1">
         <f>'[1]Qc, 2020, Summer'!J4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.29966188500000002</v>
+        <v>0.33295764999999999</v>
       </c>
       <c r="K4" s="1">
         <f>'[1]Qc, 2020, Summer'!K4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.30922759285714285</v>
+        <v>0.34358621428571429</v>
       </c>
       <c r="L4" s="1">
         <f>'[1]Qc, 2020, Summer'!L4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.25978928464285717</v>
+        <v>0.28865476071428575</v>
       </c>
       <c r="M4" s="1">
         <f>'[1]Qc, 2020, Summer'!M4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.33660290250000008</v>
+        <v>0.37400322500000005</v>
       </c>
       <c r="N4" s="1">
         <f>'[1]Qc, 2020, Summer'!N4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.29302357821428576</v>
+        <v>0.3255817535714286</v>
       </c>
       <c r="O4" s="1">
         <f>'[1]Qc, 2020, Summer'!O4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.22539727607142857</v>
+        <v>0.25044141785714286</v>
       </c>
       <c r="P4" s="1">
         <f>'[1]Qc, 2020, Summer'!P4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.12262504821428573</v>
+        <v>0.13625005357142858</v>
       </c>
       <c r="Q4" s="1">
         <f>'[1]Qc, 2020, Summer'!Q4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9244107857142864E-2</v>
+        <v>4.3604564285714291E-2</v>
       </c>
       <c r="R4" s="1">
         <f>'[1]Qc, 2020, Summer'!R4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.0516928214285716E-2</v>
+        <v>8.9463253571428564E-2</v>
       </c>
       <c r="S4" s="1">
         <f>'[1]Qc, 2020, Summer'!S4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0950150357142852E-2</v>
+        <v>6.772238928571428E-2</v>
       </c>
       <c r="T4" s="1">
         <f>'[1]Qc, 2020, Summer'!T4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.5707020714285715E-2</v>
+        <v>-5.0785578571428569E-2</v>
       </c>
       <c r="U4" s="1">
         <f>'[1]Qc, 2020, Summer'!U4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8221029642857153E-2</v>
+        <v>4.2467810714285723E-2</v>
       </c>
       <c r="V4" s="1">
         <f>'[1]Qc, 2020, Summer'!V4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.135437500000002E-2</v>
+        <v>9.0393750000000023E-2</v>
       </c>
       <c r="W4" s="1">
         <f>'[1]Qc, 2020, Summer'!W4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1344043214285728E-2</v>
+        <v>2.3715603571428587E-2</v>
       </c>
       <c r="X4" s="1">
         <f>'[1]Qc, 2020, Summer'!X4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.20243979964285716</v>
+        <v>-0.22493311071428573</v>
       </c>
       <c r="Y4" s="1">
         <f>'[1]Qc, 2020, Summer'!Y4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.32263275535714286</v>
+        <v>-0.35848083928571428</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -20162,99 +20165,99 @@
       </c>
       <c r="B5" s="1">
         <f>'[1]Qc, 2020, Summer'!B5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.47229280071428587</v>
+        <v>-0.5247697785714287</v>
       </c>
       <c r="C5" s="1">
         <f>'[1]Qc, 2020, Summer'!C5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.47667529285714283</v>
+        <v>-0.52963921428571425</v>
       </c>
       <c r="D5" s="1">
         <f>'[1]Qc, 2020, Summer'!D5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.48782203714285716</v>
+        <v>-0.54202448571428574</v>
       </c>
       <c r="E5" s="1">
         <f>'[1]Qc, 2020, Summer'!E5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.48928146428571434</v>
+        <v>-0.54364607142857146</v>
       </c>
       <c r="F5" s="1">
         <f>'[1]Qc, 2020, Summer'!F5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.49787262964285711</v>
+        <v>-0.55319181071428569</v>
       </c>
       <c r="G5" s="1">
         <f>'[1]Qc, 2020, Summer'!G5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.51922078714285713</v>
+        <v>-0.5769119857142857</v>
       </c>
       <c r="H5" s="1">
         <f>'[1]Qc, 2020, Summer'!H5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.47297682000000013</v>
+        <v>-0.52552980000000016</v>
       </c>
       <c r="I5" s="1">
         <f>'[1]Qc, 2020, Summer'!I5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.32889104678571429</v>
+        <v>-0.3654344964285714</v>
       </c>
       <c r="J5" s="1">
         <f>'[1]Qc, 2020, Summer'!J5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.26252737714285712</v>
+        <v>-0.29169708571428571</v>
       </c>
       <c r="K5" s="1">
         <f>'[1]Qc, 2020, Summer'!K5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.28177381928571432</v>
+        <v>-0.31308202142857144</v>
       </c>
       <c r="L5" s="1">
         <f>'[1]Qc, 2020, Summer'!L5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.33474999214285717</v>
+        <v>-0.3719444357142857</v>
       </c>
       <c r="M5" s="1">
         <f>'[1]Qc, 2020, Summer'!M5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.36946848214285716</v>
+        <v>-0.41052053571428571</v>
       </c>
       <c r="N5" s="1">
         <f>'[1]Qc, 2020, Summer'!N5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.35620230857142859</v>
+        <v>-0.39578034285714286</v>
       </c>
       <c r="O5" s="1">
         <f>'[1]Qc, 2020, Summer'!O5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.3833573785714286</v>
+        <v>-0.42595264285714285</v>
       </c>
       <c r="P5" s="1">
         <f>'[1]Qc, 2020, Summer'!P5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.36989667642857149</v>
+        <v>-0.41099630714285718</v>
       </c>
       <c r="Q5" s="1">
         <f>'[1]Qc, 2020, Summer'!Q5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.41421748821428572</v>
+        <v>-0.46024165357142854</v>
       </c>
       <c r="R5" s="1">
         <f>'[1]Qc, 2020, Summer'!R5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.44545949678571434</v>
+        <v>-0.49495499642857149</v>
       </c>
       <c r="S5" s="1">
         <f>'[1]Qc, 2020, Summer'!S5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.39957121285714287</v>
+        <v>-0.44396801428571431</v>
       </c>
       <c r="T5" s="1">
         <f>'[1]Qc, 2020, Summer'!T5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.29431871357142858</v>
+        <v>-0.32702079285714286</v>
       </c>
       <c r="U5" s="1">
         <f>'[1]Qc, 2020, Summer'!U5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.27168049607142852</v>
+        <v>-0.30186721785714282</v>
       </c>
       <c r="V5" s="1">
         <f>'[1]Qc, 2020, Summer'!V5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.27811653107142859</v>
+        <v>-0.30901836785714287</v>
       </c>
       <c r="W5" s="1">
         <f>'[1]Qc, 2020, Summer'!W5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.32991451071428568</v>
+        <v>-0.36657167857142853</v>
       </c>
       <c r="X5" s="1">
         <f>'[1]Qc, 2020, Summer'!X5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.39985248857142858</v>
+        <v>-0.44428054285714286</v>
       </c>
       <c r="Y5" s="1">
         <f>'[1]Qc, 2020, Summer'!Y5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.41811057321428574</v>
+        <v>-0.46456730357142861</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -20263,99 +20266,99 @@
       </c>
       <c r="B6" s="1">
         <f>'[1]Qc, 2020, Summer'!B6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.22924652464285716</v>
+        <v>-0.25471836071428572</v>
       </c>
       <c r="C6" s="1">
         <f>'[1]Qc, 2020, Summer'!C6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.2825541225</v>
+        <v>-0.31394902499999999</v>
       </c>
       <c r="D6" s="1">
         <f>'[1]Qc, 2020, Summer'!D6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.3252014646428571</v>
+        <v>-0.36133496071428567</v>
       </c>
       <c r="E6" s="1">
         <f>'[1]Qc, 2020, Summer'!E6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.33294853928571433</v>
+        <v>-0.36994282142857149</v>
       </c>
       <c r="F6" s="1">
         <f>'[1]Qc, 2020, Summer'!F6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.33866008392857139</v>
+        <v>-0.37628898214285711</v>
       </c>
       <c r="G6" s="1">
         <f>'[1]Qc, 2020, Summer'!G6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.36751783821428574</v>
+        <v>-0.4083531535714286</v>
       </c>
       <c r="H6" s="1">
         <f>'[1]Qc, 2020, Summer'!H6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.34535988000000001</v>
+        <v>-0.3837332</v>
       </c>
       <c r="I6" s="1">
         <f>'[1]Qc, 2020, Summer'!I6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18742623749999998</v>
+        <v>-0.20825137499999996</v>
       </c>
       <c r="J6" s="1">
         <f>'[1]Qc, 2020, Summer'!J6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.5382451785714283E-2</v>
+        <v>-5.0424946428571427E-2</v>
       </c>
       <c r="K6" s="1">
         <f>'[1]Qc, 2020, Summer'!K6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3805760714285715E-2</v>
+        <v>5.9784178571428571E-2</v>
       </c>
       <c r="L6" s="1">
         <f>'[1]Qc, 2020, Summer'!L6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.13406768678571429</v>
+        <v>0.14896409642857142</v>
       </c>
       <c r="M6" s="1">
         <f>'[1]Qc, 2020, Summer'!M6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.15490271571428571</v>
+        <v>0.17211412857142855</v>
       </c>
       <c r="N6" s="1">
         <f>'[1]Qc, 2020, Summer'!N6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.12178496571428571</v>
+        <v>0.13531662857142857</v>
       </c>
       <c r="O6" s="1">
         <f>'[1]Qc, 2020, Summer'!O6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.0021603571428568E-2</v>
+        <v>8.891289285714285E-2</v>
       </c>
       <c r="P6" s="1">
         <f>'[1]Qc, 2020, Summer'!P6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4455806071428582E-2</v>
+        <v>2.7173117857142867E-2</v>
       </c>
       <c r="Q6" s="1">
         <f>'[1]Qc, 2020, Summer'!Q6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.0094235714285631E-3</v>
+        <v>-2.2326928571428477E-3</v>
       </c>
       <c r="R6" s="1">
         <f>'[1]Qc, 2020, Summer'!R6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7387829642857136E-2</v>
+        <v>-1.9319810714285707E-2</v>
       </c>
       <c r="S6" s="1">
         <f>'[1]Qc, 2020, Summer'!S6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.0944051071428573E-2</v>
+        <v>-2.3271167857142859E-2</v>
       </c>
       <c r="T6" s="1">
         <f>'[1]Qc, 2020, Summer'!T6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3390926428571424E-2</v>
+        <v>-1.4878807142857137E-2</v>
       </c>
       <c r="U6" s="1">
         <f>'[1]Qc, 2020, Summer'!U6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.4650584642857136E-2</v>
+        <v>-4.9611760714285705E-2</v>
       </c>
       <c r="V6" s="1">
         <f>'[1]Qc, 2020, Summer'!V6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7708797857142859E-2</v>
+        <v>4.1898664285714288E-2</v>
       </c>
       <c r="W6" s="1">
         <f>'[1]Qc, 2020, Summer'!W6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7540514642857143E-2</v>
+        <v>1.9489460714285714E-2</v>
       </c>
       <c r="X6" s="1">
         <f>'[1]Qc, 2020, Summer'!X6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1898488571428573E-2</v>
+        <v>-1.3220542857142858E-2</v>
       </c>
       <c r="Y6" s="1">
         <f>'[1]Qc, 2020, Summer'!Y6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.5032186428571424E-2</v>
+        <v>-9.4480207142857139E-2</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -20364,99 +20367,99 @@
       </c>
       <c r="B7" s="1">
         <f>'[1]Qc, 2020, Summer'!B7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.55771176214285711</v>
+        <v>0.6196797357142857</v>
       </c>
       <c r="C7" s="1">
         <f>'[1]Qc, 2020, Summer'!C7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.61947390214285725</v>
+        <v>0.68830433571428584</v>
       </c>
       <c r="D7" s="1">
         <f>'[1]Qc, 2020, Summer'!D7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.49041934392857145</v>
+        <v>0.54491038214285714</v>
       </c>
       <c r="E7" s="1">
         <f>'[1]Qc, 2020, Summer'!E7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.55735361357142854</v>
+        <v>0.6192817928571428</v>
       </c>
       <c r="F7" s="1">
         <f>'[1]Qc, 2020, Summer'!F7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.57002071178571434</v>
+        <v>0.63335634642857142</v>
       </c>
       <c r="G7" s="1">
         <f>'[1]Qc, 2020, Summer'!G7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.57438324321428569</v>
+        <v>0.63820360357142858</v>
       </c>
       <c r="H7" s="1">
         <f>'[1]Qc, 2020, Summer'!H7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.52952008821428576</v>
+        <v>0.58835565357142861</v>
       </c>
       <c r="I7" s="1">
         <f>'[1]Qc, 2020, Summer'!I7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.91281249321428559</v>
+        <v>1.0142361035714285</v>
       </c>
       <c r="J7" s="1">
         <f>'[1]Qc, 2020, Summer'!J7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0448239307142857</v>
+        <v>1.1609154785714286</v>
       </c>
       <c r="K7" s="1">
         <f>'[1]Qc, 2020, Summer'!K7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0841947553571429</v>
+        <v>1.2046608392857143</v>
       </c>
       <c r="L7" s="1">
         <f>'[1]Qc, 2020, Summer'!L7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.96621351749999995</v>
+        <v>1.073570575</v>
       </c>
       <c r="M7" s="1">
         <f>'[1]Qc, 2020, Summer'!M7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1357138121428572</v>
+        <v>1.2619042357142858</v>
       </c>
       <c r="N7" s="1">
         <f>'[1]Qc, 2020, Summer'!N7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1679313853571429</v>
+        <v>1.2977015392857143</v>
       </c>
       <c r="O7" s="1">
         <f>'[1]Qc, 2020, Summer'!O7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0757289664285714</v>
+        <v>1.195254407142857</v>
       </c>
       <c r="P7" s="1">
         <f>'[1]Qc, 2020, Summer'!P7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.93885212892857139</v>
+        <v>1.0431690321428571</v>
       </c>
       <c r="Q7" s="1">
         <f>'[1]Qc, 2020, Summer'!Q7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.85178233607142861</v>
+        <v>0.94642481785714283</v>
       </c>
       <c r="R7" s="1">
         <f>'[1]Qc, 2020, Summer'!R7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.98443388892857131</v>
+        <v>1.093815432142857</v>
       </c>
       <c r="S7" s="1">
         <f>'[1]Qc, 2020, Summer'!S7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.95351999785714303</v>
+        <v>1.0594666642857145</v>
       </c>
       <c r="T7" s="1">
         <f>'[1]Qc, 2020, Summer'!T7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.7757468839285715</v>
+        <v>0.86194098214285719</v>
       </c>
       <c r="U7" s="1">
         <f>'[1]Qc, 2020, Summer'!U7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.74507405464285714</v>
+        <v>0.82786006071428564</v>
       </c>
       <c r="V7" s="1">
         <f>'[1]Qc, 2020, Summer'!V7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.83773548964285727</v>
+        <v>0.9308172107142858</v>
       </c>
       <c r="W7" s="1">
         <f>'[1]Qc, 2020, Summer'!W7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.70398539999999998</v>
+        <v>0.78220599999999996</v>
       </c>
       <c r="X7" s="1">
         <f>'[1]Qc, 2020, Summer'!X7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.56645732892857148</v>
+        <v>0.62939703214285714</v>
       </c>
       <c r="Y7" s="1">
         <f>'[1]Qc, 2020, Summer'!Y7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.60557715964285719</v>
+        <v>0.67286351071428574</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -20465,99 +20468,99 @@
       </c>
       <c r="B8" s="1">
         <f>'[1]Qc, 2020, Summer'!B8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.31299456535714287</v>
+        <v>-0.34777173928571431</v>
       </c>
       <c r="C8" s="1">
         <f>'[1]Qc, 2020, Summer'!C8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.32330374714285709</v>
+        <v>-0.35922638571428567</v>
       </c>
       <c r="D8" s="1">
         <f>'[1]Qc, 2020, Summer'!D8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.34535530928571423</v>
+        <v>-0.38372812142857138</v>
       </c>
       <c r="E8" s="1">
         <f>'[1]Qc, 2020, Summer'!E8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.35175259285714289</v>
+        <v>-0.3908362142857143</v>
       </c>
       <c r="F8" s="1">
         <f>'[1]Qc, 2020, Summer'!F8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.34097912357142862</v>
+        <v>-0.37886569285714289</v>
       </c>
       <c r="G8" s="1">
         <f>'[1]Qc, 2020, Summer'!G8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.36150992678571431</v>
+        <v>-0.40167769642857143</v>
       </c>
       <c r="H8" s="1">
         <f>'[1]Qc, 2020, Summer'!H8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.33727880892857143</v>
+        <v>-0.37475423214285714</v>
       </c>
       <c r="I8" s="1">
         <f>'[1]Qc, 2020, Summer'!I8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.19759029750000004</v>
+        <v>-0.21954477500000003</v>
       </c>
       <c r="J8" s="1">
         <f>'[1]Qc, 2020, Summer'!J8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.8062855714285704E-2</v>
+        <v>-0.10895872857142856</v>
       </c>
       <c r="K8" s="1">
         <f>'[1]Qc, 2020, Summer'!K8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.5731795357142848E-2</v>
+        <v>-8.4146439285714275E-2</v>
       </c>
       <c r="L8" s="1">
         <f>'[1]Qc, 2020, Summer'!L8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.7843965357142841E-2</v>
+        <v>-3.0937739285714267E-2</v>
       </c>
       <c r="M8" s="1">
         <f>'[1]Qc, 2020, Summer'!M8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.6280002499999993E-2</v>
+        <v>-5.1422224999999988E-2</v>
       </c>
       <c r="N8" s="1">
         <f>'[1]Qc, 2020, Summer'!N8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.1392066785714285E-2</v>
+        <v>-5.7102296428571425E-2</v>
       </c>
       <c r="O8" s="1">
         <f>'[1]Qc, 2020, Summer'!O8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.678794607142857E-2</v>
+        <v>-6.3097717857142854E-2</v>
       </c>
       <c r="P8" s="1">
         <f>'[1]Qc, 2020, Summer'!P8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.7529801785714271E-2</v>
+        <v>-0.10836644642857141</v>
       </c>
       <c r="Q8" s="1">
         <f>'[1]Qc, 2020, Summer'!Q8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.12605019749999999</v>
+        <v>-0.14005577499999999</v>
       </c>
       <c r="R8" s="1">
         <f>'[1]Qc, 2020, Summer'!R8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14408451642857145</v>
+        <v>-0.16009390714285715</v>
       </c>
       <c r="S8" s="1">
         <f>'[1]Qc, 2020, Summer'!S8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16470956571428572</v>
+        <v>-0.18301062857142858</v>
       </c>
       <c r="T8" s="1">
         <f>'[1]Qc, 2020, Summer'!T8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15401495892857142</v>
+        <v>-0.17112773214285712</v>
       </c>
       <c r="U8" s="1">
         <f>'[1]Qc, 2020, Summer'!U8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17719681499999998</v>
+        <v>-0.19688534999999999</v>
       </c>
       <c r="V8" s="1">
         <f>'[1]Qc, 2020, Summer'!V8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14623082035714288</v>
+        <v>-0.1624786892857143</v>
       </c>
       <c r="W8" s="1">
         <f>'[1]Qc, 2020, Summer'!W8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.19713283071428572</v>
+        <v>-0.21903647857142858</v>
       </c>
       <c r="X8" s="1">
         <f>'[1]Qc, 2020, Summer'!X8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.23580637071428573</v>
+        <v>-0.26200707857142858</v>
       </c>
       <c r="Y8" s="1">
         <f>'[1]Qc, 2020, Summer'!Y8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.25263862392857145</v>
+        <v>-0.28070958214285713</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -20566,99 +20569,99 @@
       </c>
       <c r="B9" s="1">
         <f>'[1]Qc, 2020, Summer'!B9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3571469932142859</v>
+        <v>-1.5079411035714287</v>
       </c>
       <c r="C9" s="1">
         <f>'[1]Qc, 2020, Summer'!C9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3685234046428576</v>
+        <v>-1.5205815607142861</v>
       </c>
       <c r="D9" s="1">
         <f>'[1]Qc, 2020, Summer'!D9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3808457257142859</v>
+        <v>-1.5342730285714288</v>
       </c>
       <c r="E9" s="1">
         <f>'[1]Qc, 2020, Summer'!E9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3866759932142858</v>
+        <v>-1.5407511035714285</v>
       </c>
       <c r="F9" s="1">
         <f>'[1]Qc, 2020, Summer'!F9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3745335050000003</v>
+        <v>-1.5272594500000003</v>
       </c>
       <c r="G9" s="1">
         <f>'[1]Qc, 2020, Summer'!G9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3480077246428572</v>
+        <v>-1.4977863607142858</v>
       </c>
       <c r="H9" s="1">
         <f>'[1]Qc, 2020, Summer'!H9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.185622974642857</v>
+        <v>-1.3173588607142857</v>
       </c>
       <c r="I9" s="1">
         <f>'[1]Qc, 2020, Summer'!I9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0287651985714286</v>
+        <v>-1.1430724428571428</v>
       </c>
       <c r="J9" s="1">
         <f>'[1]Qc, 2020, Summer'!J9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0052164735714286</v>
+        <v>-1.1169071928571428</v>
       </c>
       <c r="K9" s="1">
         <f>'[1]Qc, 2020, Summer'!K9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.98330821071428565</v>
+        <v>-1.0925646785714285</v>
       </c>
       <c r="L9" s="1">
         <f>'[1]Qc, 2020, Summer'!L9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.96022303071428583</v>
+        <v>-1.0669144785714286</v>
       </c>
       <c r="M9" s="1">
         <f>'[1]Qc, 2020, Summer'!M9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.95614075285714273</v>
+        <v>-1.0623786142857141</v>
       </c>
       <c r="N9" s="1">
         <f>'[1]Qc, 2020, Summer'!N9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.99245634750000022</v>
+        <v>-1.1027292750000002</v>
       </c>
       <c r="O9" s="1">
         <f>'[1]Qc, 2020, Summer'!O9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.028441600357143</v>
+        <v>-1.1427128892857144</v>
       </c>
       <c r="P9" s="1">
         <f>'[1]Qc, 2020, Summer'!P9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1052027</v>
+        <v>-1.228003</v>
       </c>
       <c r="Q9" s="1">
         <f>'[1]Qc, 2020, Summer'!Q9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.136745858214286</v>
+        <v>-1.2630509535714287</v>
       </c>
       <c r="R9" s="1">
         <f>'[1]Qc, 2020, Summer'!R9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1588575050000001</v>
+        <v>-1.28761945</v>
       </c>
       <c r="S9" s="1">
         <f>'[1]Qc, 2020, Summer'!S9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1576835192857144</v>
+        <v>-1.2863150214285715</v>
       </c>
       <c r="T9" s="1">
         <f>'[1]Qc, 2020, Summer'!T9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1708046064285713</v>
+        <v>-1.300894007142857</v>
       </c>
       <c r="U9" s="1">
         <f>'[1]Qc, 2020, Summer'!U9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2050223042857142</v>
+        <v>-1.3389136714285714</v>
       </c>
       <c r="V9" s="1">
         <f>'[1]Qc, 2020, Summer'!V9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2641323532142859</v>
+        <v>-1.4045915035714287</v>
       </c>
       <c r="W9" s="1">
         <f>'[1]Qc, 2020, Summer'!W9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3028150314285716</v>
+        <v>-1.4475722571428573</v>
       </c>
       <c r="X9" s="1">
         <f>'[1]Qc, 2020, Summer'!X9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.327984817142857</v>
+        <v>-1.4755386857142856</v>
       </c>
       <c r="Y9" s="1">
         <f>'[1]Qc, 2020, Summer'!Y9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3468388014285717</v>
+        <v>-1.4964875571428573</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -20667,99 +20670,99 @@
       </c>
       <c r="B10" s="1">
         <f>'[1]Qc, 2020, Summer'!B10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3232635714285713E-2</v>
+        <v>-1.470292857142857E-2</v>
       </c>
       <c r="C10" s="1">
         <f>'[1]Qc, 2020, Summer'!C10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.9150603928571436E-2</v>
+        <v>-5.4611782142857147E-2</v>
       </c>
       <c r="D10" s="1">
         <f>'[1]Qc, 2020, Summer'!D10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.695478035714286E-2</v>
+        <v>-6.3283089285714286E-2</v>
       </c>
       <c r="E10" s="1">
         <f>'[1]Qc, 2020, Summer'!E10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.9225566785714288E-2</v>
+        <v>-7.6917296428571424E-2</v>
       </c>
       <c r="F10" s="1">
         <f>'[1]Qc, 2020, Summer'!F10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.0505135357142854E-2</v>
+        <v>-7.8339039285714285E-2</v>
       </c>
       <c r="G10" s="1">
         <f>'[1]Qc, 2020, Summer'!G10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.7448757499999993E-2</v>
+        <v>-8.6054174999999997E-2</v>
       </c>
       <c r="H10" s="1">
         <f>'[1]Qc, 2020, Summer'!H10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.13086281571428571</v>
+        <v>-0.14540312857142856</v>
       </c>
       <c r="I10" s="1">
         <f>'[1]Qc, 2020, Summer'!I10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.7734588571428574E-2</v>
+        <v>-6.4149542857142861E-2</v>
       </c>
       <c r="J10" s="1">
         <f>'[1]Qc, 2020, Summer'!J10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.8985459999999997E-2</v>
+        <v>-6.5539399999999998E-2</v>
       </c>
       <c r="K10" s="1">
         <f>'[1]Qc, 2020, Summer'!K10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7276017500000001E-2</v>
+        <v>-1.9195574999999999E-2</v>
       </c>
       <c r="L10" s="1">
         <f>'[1]Qc, 2020, Summer'!L10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.2585674999999985E-3</v>
+        <v>-8.0650749999999979E-3</v>
       </c>
       <c r="M10" s="1">
         <f>'[1]Qc, 2020, Summer'!M10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9680843214285714E-2</v>
+        <v>2.186760357142857E-2</v>
       </c>
       <c r="N10" s="1">
         <f>'[1]Qc, 2020, Summer'!N10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3580921785714294E-2</v>
+        <v>4.8423246428571438E-2</v>
       </c>
       <c r="O10" s="1">
         <f>'[1]Qc, 2020, Summer'!O10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0747908571428579E-2</v>
+        <v>3.4164342857142864E-2</v>
       </c>
       <c r="P10" s="1">
         <f>'[1]Qc, 2020, Summer'!P10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1327518928571437E-2</v>
+        <v>1.2586132142857151E-2</v>
       </c>
       <c r="Q10" s="1">
         <f>'[1]Qc, 2020, Summer'!Q10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0910113571428571E-2</v>
+        <v>5.6566792857142854E-2</v>
       </c>
       <c r="R10" s="1">
         <f>'[1]Qc, 2020, Summer'!R10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7453117500000001E-2</v>
+        <v>4.1614575000000001E-2</v>
       </c>
       <c r="S10" s="1">
         <f>'[1]Qc, 2020, Summer'!S10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0472659642857152E-2</v>
+        <v>3.3858510714285722E-2</v>
       </c>
       <c r="T10" s="1">
         <f>'[1]Qc, 2020, Summer'!T10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8877489999999999E-2</v>
+        <v>3.2086099999999999E-2</v>
       </c>
       <c r="U10" s="1">
         <f>'[1]Qc, 2020, Summer'!U10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7863816785714292E-2</v>
+        <v>3.0959796428571433E-2</v>
       </c>
       <c r="V10" s="1">
         <f>'[1]Qc, 2020, Summer'!V10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2423900714285723E-2</v>
+        <v>5.8248778571428579E-2</v>
       </c>
       <c r="W10" s="1">
         <f>'[1]Qc, 2020, Summer'!W10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5951399285714291E-2</v>
+        <v>6.2168221428571431E-2</v>
       </c>
       <c r="X10" s="1">
         <f>'[1]Qc, 2020, Summer'!X10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0375621071428571E-2</v>
+        <v>-1.1528467857142857E-2</v>
       </c>
       <c r="Y10" s="1">
         <f>'[1]Qc, 2020, Summer'!Y10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5751906071428571E-2</v>
+        <v>-1.7502117857142858E-2</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -20768,99 +20771,99 @@
       </c>
       <c r="B11" s="1">
         <f>'[1]Qc, 2020, Summer'!B11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.19420239857142857</v>
+        <v>-0.21578044285714285</v>
       </c>
       <c r="C11" s="1">
         <f>'[1]Qc, 2020, Summer'!C11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.21846399107142858</v>
+        <v>-0.24273776785714285</v>
       </c>
       <c r="D11" s="1">
         <f>'[1]Qc, 2020, Summer'!D11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.22393823785714284</v>
+        <v>-0.24882026428571427</v>
       </c>
       <c r="E11" s="1">
         <f>'[1]Qc, 2020, Summer'!E11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.2200776942857143</v>
+        <v>-0.24453077142857144</v>
       </c>
       <c r="F11" s="1">
         <f>'[1]Qc, 2020, Summer'!F11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.22505068928571434</v>
+        <v>-0.25005632142857148</v>
       </c>
       <c r="G11" s="1">
         <f>'[1]Qc, 2020, Summer'!G11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.23624428821428572</v>
+        <v>-0.26249365357142856</v>
       </c>
       <c r="H11" s="1">
         <f>'[1]Qc, 2020, Summer'!H11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11100306214285714</v>
+        <v>-0.12333673571428572</v>
       </c>
       <c r="I11" s="1">
         <f>'[1]Qc, 2020, Summer'!I11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.1875414285714296E-3</v>
+        <v>7.9861571428571435E-3</v>
       </c>
       <c r="J11" s="1">
         <f>'[1]Qc, 2020, Summer'!J11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.0374487142857151E-2</v>
+        <v>8.9304985714285717E-2</v>
       </c>
       <c r="K11" s="1">
         <f>'[1]Qc, 2020, Summer'!K11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.3932559642857141E-2</v>
+        <v>0.10436951071428571</v>
       </c>
       <c r="L11" s="1">
         <f>'[1]Qc, 2020, Summer'!L11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7288314642857145E-2</v>
+        <v>4.1431460714285717E-2</v>
       </c>
       <c r="M11" s="1">
         <f>'[1]Qc, 2020, Summer'!M11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10710934392857144</v>
+        <v>0.11901038214285715</v>
       </c>
       <c r="N11" s="1">
         <f>'[1]Qc, 2020, Summer'!N11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10132582178571428</v>
+        <v>0.11258424642857143</v>
       </c>
       <c r="O11" s="1">
         <f>'[1]Qc, 2020, Summer'!O11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.3710973571428565E-2</v>
+        <v>9.301219285714285E-2</v>
       </c>
       <c r="P11" s="1">
         <f>'[1]Qc, 2020, Summer'!P11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0820142500000012E-2</v>
+        <v>5.6466825000000012E-2</v>
       </c>
       <c r="Q11" s="1">
         <f>'[1]Qc, 2020, Summer'!Q11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.4014407142857047E-3</v>
+        <v>-3.7793785714285606E-3</v>
       </c>
       <c r="R11" s="1">
         <f>'[1]Qc, 2020, Summer'!R11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.5194121071428568E-2</v>
+        <v>-2.7993467857142854E-2</v>
       </c>
       <c r="S11" s="1">
         <f>'[1]Qc, 2020, Summer'!S11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.1975627857142854E-2</v>
+        <v>-2.4417364285714283E-2</v>
       </c>
       <c r="T11" s="1">
         <f>'[1]Qc, 2020, Summer'!T11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5689777142857145E-2</v>
+        <v>-1.7433085714285715E-2</v>
       </c>
       <c r="U11" s="1">
         <f>'[1]Qc, 2020, Summer'!U11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.6300975000000055E-3</v>
+        <v>7.366775000000006E-3</v>
       </c>
       <c r="V11" s="1">
         <f>'[1]Qc, 2020, Summer'!V11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4315062142857152E-2</v>
+        <v>2.7016735714285724E-2</v>
       </c>
       <c r="W11" s="1">
         <f>'[1]Qc, 2020, Summer'!W11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.155303285714286E-2</v>
+        <v>-2.3947814285714287E-2</v>
       </c>
       <c r="X11" s="1">
         <f>'[1]Qc, 2020, Summer'!X11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.10424230714285714</v>
+        <v>-0.1158247857142857</v>
       </c>
       <c r="Y11" s="1">
         <f>'[1]Qc, 2020, Summer'!Y11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15818268535714286</v>
+        <v>-0.17575853928571428</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -20869,99 +20872,99 @@
       </c>
       <c r="B12" s="1">
         <f>'[1]Qc, 2020, Summer'!B12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.24622691464285712</v>
+        <v>-0.27358546071428569</v>
       </c>
       <c r="C12" s="1">
         <f>'[1]Qc, 2020, Summer'!C12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.26390352857142857</v>
+        <v>-0.29322614285714282</v>
       </c>
       <c r="D12" s="1">
         <f>'[1]Qc, 2020, Summer'!D12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.27524583964285715</v>
+        <v>-0.30582871071428569</v>
       </c>
       <c r="E12" s="1">
         <f>'[1]Qc, 2020, Summer'!E12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.27977691857142861</v>
+        <v>-0.3108632428571429</v>
       </c>
       <c r="F12" s="1">
         <f>'[1]Qc, 2020, Summer'!F12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.27227503607142861</v>
+        <v>-0.30252781785714289</v>
       </c>
       <c r="G12" s="1">
         <f>'[1]Qc, 2020, Summer'!G12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.27454352464285714</v>
+        <v>-0.3050483607142857</v>
       </c>
       <c r="H12" s="1">
         <f>'[1]Qc, 2020, Summer'!H12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.22575182142857145</v>
+        <v>-0.25083535714285715</v>
       </c>
       <c r="I12" s="1">
         <f>'[1]Qc, 2020, Summer'!I12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18513648642857145</v>
+        <v>-0.20570720714285715</v>
       </c>
       <c r="J12" s="1">
         <f>'[1]Qc, 2020, Summer'!J12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15774452357142857</v>
+        <v>-0.17527169285714286</v>
       </c>
       <c r="K12" s="1">
         <f>'[1]Qc, 2020, Summer'!K12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.13313961000000002</v>
+        <v>-0.14793290000000001</v>
       </c>
       <c r="L12" s="1">
         <f>'[1]Qc, 2020, Summer'!L12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.13329202500000001</v>
+        <v>-0.14810224999999999</v>
       </c>
       <c r="M12" s="1">
         <f>'[1]Qc, 2020, Summer'!M12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.13831639392857142</v>
+        <v>-0.15368488214285714</v>
       </c>
       <c r="N12" s="1">
         <f>'[1]Qc, 2020, Summer'!N12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15507826714285716</v>
+        <v>-0.17230918571428572</v>
       </c>
       <c r="O12" s="1">
         <f>'[1]Qc, 2020, Summer'!O12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16548601499999999</v>
+        <v>-0.18387334999999999</v>
       </c>
       <c r="P12" s="1">
         <f>'[1]Qc, 2020, Summer'!P12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18143966250000002</v>
+        <v>-0.201599625</v>
       </c>
       <c r="Q12" s="1">
         <f>'[1]Qc, 2020, Summer'!Q12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18252295714285713</v>
+        <v>-0.20280328571428569</v>
       </c>
       <c r="R12" s="1">
         <f>'[1]Qc, 2020, Summer'!R12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1835495807142857</v>
+        <v>-0.20394397857142857</v>
       </c>
       <c r="S12" s="1">
         <f>'[1]Qc, 2020, Summer'!S12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14943367285714285</v>
+        <v>-0.16603741428571428</v>
       </c>
       <c r="T12" s="1">
         <f>'[1]Qc, 2020, Summer'!T12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.13125830142857142</v>
+        <v>-0.14584255714285713</v>
       </c>
       <c r="U12" s="1">
         <f>'[1]Qc, 2020, Summer'!U12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14190663214285718</v>
+        <v>-0.15767403571428573</v>
       </c>
       <c r="V12" s="1">
         <f>'[1]Qc, 2020, Summer'!V12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.12827394642857143</v>
+        <v>-0.14252660714285714</v>
       </c>
       <c r="W12" s="1">
         <f>'[1]Qc, 2020, Summer'!W12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14577008142857145</v>
+        <v>-0.16196675714285716</v>
       </c>
       <c r="X12" s="1">
         <f>'[1]Qc, 2020, Summer'!X12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16811152714285713</v>
+        <v>-0.1867905857142857</v>
       </c>
       <c r="Y12" s="1">
         <f>'[1]Qc, 2020, Summer'!Y12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18761931321428574</v>
+        <v>-0.20846590357142858</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -20970,99 +20973,99 @@
       </c>
       <c r="B13" s="1">
         <f>'[1]Qc, 2020, Summer'!B13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16594112571428576</v>
+        <v>-0.18437902857142863</v>
       </c>
       <c r="C13" s="1">
         <f>'[1]Qc, 2020, Summer'!C13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11098534178571427</v>
+        <v>-0.12331704642857141</v>
       </c>
       <c r="D13" s="1">
         <f>'[1]Qc, 2020, Summer'!D13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.19559543464285717</v>
+        <v>-0.21732826071428574</v>
       </c>
       <c r="E13" s="1">
         <f>'[1]Qc, 2020, Summer'!E13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16881859607142854</v>
+        <v>-0.18757621785714282</v>
       </c>
       <c r="F13" s="1">
         <f>'[1]Qc, 2020, Summer'!F13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.25670141678571429</v>
+        <v>-0.28522379642857143</v>
       </c>
       <c r="G13" s="1">
         <f>'[1]Qc, 2020, Summer'!G13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1209641367857143</v>
+        <v>-0.13440459642857144</v>
       </c>
       <c r="H13" s="1">
         <f>'[1]Qc, 2020, Summer'!H13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.43187824607142855</v>
+        <v>-0.47986471785714285</v>
       </c>
       <c r="I13" s="1">
         <f>'[1]Qc, 2020, Summer'!I13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.39451883785714281</v>
+        <v>-0.43835426428571422</v>
       </c>
       <c r="J13" s="1">
         <f>'[1]Qc, 2020, Summer'!J13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.37743167892857149</v>
+        <v>-0.41936853214285719</v>
       </c>
       <c r="K13" s="1">
         <f>'[1]Qc, 2020, Summer'!K13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.44371132071428571</v>
+        <v>-0.49301257857142855</v>
       </c>
       <c r="L13" s="1">
         <f>'[1]Qc, 2020, Summer'!L13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.36521802321428576</v>
+        <v>-0.40579780357142858</v>
       </c>
       <c r="M13" s="1">
         <f>'[1]Qc, 2020, Summer'!M13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.32469578678571426</v>
+        <v>-0.36077309642857142</v>
       </c>
       <c r="N13" s="1">
         <f>'[1]Qc, 2020, Summer'!N13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.2511671785714275E-2</v>
+        <v>0.10279074642857142</v>
       </c>
       <c r="O13" s="1">
         <f>'[1]Qc, 2020, Summer'!O13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6762232142857157E-2</v>
+        <v>5.1958035714285727E-2</v>
       </c>
       <c r="P13" s="1">
         <f>'[1]Qc, 2020, Summer'!P13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.3729497882142857</v>
+        <v>-0.41438865357142857</v>
       </c>
       <c r="Q13" s="1">
         <f>'[1]Qc, 2020, Summer'!Q13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14259006642857144</v>
+        <v>-0.15843340714285714</v>
       </c>
       <c r="R13" s="1">
         <f>'[1]Qc, 2020, Summer'!R13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16122023678571429</v>
+        <v>-0.17913359642857143</v>
       </c>
       <c r="S13" s="1">
         <f>'[1]Qc, 2020, Summer'!S13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11631497464285716</v>
+        <v>-0.12923886071428572</v>
       </c>
       <c r="T13" s="1">
         <f>'[1]Qc, 2020, Summer'!T13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.3395368214285707E-2</v>
+        <v>-2.5994853571428563E-2</v>
       </c>
       <c r="U13" s="1">
         <f>'[1]Qc, 2020, Summer'!U13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.18817517571428569</v>
+        <v>0.20908352857142853</v>
       </c>
       <c r="V13" s="1">
         <f>'[1]Qc, 2020, Summer'!V13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.46271724107142853</v>
+        <v>0.51413026785714278</v>
       </c>
       <c r="W13" s="1">
         <f>'[1]Qc, 2020, Summer'!W13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.52560679178571434</v>
+        <v>0.58400754642857144</v>
       </c>
       <c r="X13" s="1">
         <f>'[1]Qc, 2020, Summer'!X13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.50608347750000005</v>
+        <v>0.56231497500000005</v>
       </c>
       <c r="Y13" s="1">
         <f>'[1]Qc, 2020, Summer'!Y13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.57541191107142864</v>
+        <v>0.63934656785714294</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -21071,99 +21074,99 @@
       </c>
       <c r="B14" s="1">
         <f>'[1]Qc, 2020, Summer'!B14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.32649326035714277</v>
+        <v>0.3627702892857142</v>
       </c>
       <c r="C14" s="1">
         <f>'[1]Qc, 2020, Summer'!C14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.30008158392857148</v>
+        <v>0.33342398214285718</v>
       </c>
       <c r="D14" s="1">
         <f>'[1]Qc, 2020, Summer'!D14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.22866918428571431</v>
+        <v>0.25407687142857144</v>
       </c>
       <c r="E14" s="1">
         <f>'[1]Qc, 2020, Summer'!E14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.20888315035714283</v>
+        <v>0.23209238928571424</v>
       </c>
       <c r="F14" s="1">
         <f>'[1]Qc, 2020, Summer'!F14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.1880795667857143</v>
+        <v>0.20897729642857144</v>
       </c>
       <c r="G14" s="1">
         <f>'[1]Qc, 2020, Summer'!G14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.21856261500000002</v>
+        <v>0.24284735000000002</v>
       </c>
       <c r="H14" s="1">
         <f>'[1]Qc, 2020, Summer'!H14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.74928510964285722</v>
+        <v>0.83253901071428582</v>
       </c>
       <c r="I14" s="1">
         <f>'[1]Qc, 2020, Summer'!I14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.98032625357142855</v>
+        <v>1.0892513928571428</v>
       </c>
       <c r="J14" s="1">
         <f>'[1]Qc, 2020, Summer'!J14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2665783442857144</v>
+        <v>1.4073092714285715</v>
       </c>
       <c r="K14" s="1">
         <f>'[1]Qc, 2020, Summer'!K14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2151501264285716</v>
+        <v>1.3501668071428572</v>
       </c>
       <c r="L14" s="1">
         <f>'[1]Qc, 2020, Summer'!L14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2235796453571426</v>
+        <v>1.3595329392857141</v>
       </c>
       <c r="M14" s="1">
         <f>'[1]Qc, 2020, Summer'!M14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2060798910714285</v>
+        <v>1.3400887678571427</v>
       </c>
       <c r="N14" s="1">
         <f>'[1]Qc, 2020, Summer'!N14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2539723560714287</v>
+        <v>1.3933026178571428</v>
       </c>
       <c r="O14" s="1">
         <f>'[1]Qc, 2020, Summer'!O14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.129595454642857</v>
+        <v>1.2551060607142857</v>
       </c>
       <c r="P14" s="1">
         <f>'[1]Qc, 2020, Summer'!P14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0048446964285715</v>
+        <v>1.1164941071428571</v>
       </c>
       <c r="Q14" s="1">
         <f>'[1]Qc, 2020, Summer'!Q14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.95071950642857161</v>
+        <v>1.0563550071428573</v>
       </c>
       <c r="R14" s="1">
         <f>'[1]Qc, 2020, Summer'!R14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.93959414678571462</v>
+        <v>1.0439934964285718</v>
       </c>
       <c r="S14" s="1">
         <f>'[1]Qc, 2020, Summer'!S14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.9779346739285717</v>
+        <v>1.0865940821428575</v>
       </c>
       <c r="T14" s="1">
         <f>'[1]Qc, 2020, Summer'!T14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.75321427499999993</v>
+        <v>0.83690474999999986</v>
       </c>
       <c r="U14" s="1">
         <f>'[1]Qc, 2020, Summer'!U14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.73335668785714281</v>
+        <v>0.81484076428571417</v>
       </c>
       <c r="V14" s="1">
         <f>'[1]Qc, 2020, Summer'!V14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.79837463892857141</v>
+        <v>0.88708293214285705</v>
       </c>
       <c r="W14" s="1">
         <f>'[1]Qc, 2020, Summer'!W14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.57958652571428559</v>
+        <v>0.64398502857142847</v>
       </c>
       <c r="X14" s="1">
         <f>'[1]Qc, 2020, Summer'!X14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2702766535714286</v>
+        <v>0.30030739285714286</v>
       </c>
       <c r="Y14" s="1">
         <f>'[1]Qc, 2020, Summer'!Y14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.26297261035714292</v>
+        <v>0.29219178928571432</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -21172,99 +21175,99 @@
       </c>
       <c r="B15" s="1">
         <f>'[1]Qc, 2020, Summer'!B15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10455304178571428</v>
+        <v>0.11617004642857143</v>
       </c>
       <c r="C15" s="1">
         <f>'[1]Qc, 2020, Summer'!C15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10479421928571429</v>
+        <v>0.11643802142857143</v>
       </c>
       <c r="D15" s="1">
         <f>'[1]Qc, 2020, Summer'!D15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10602678535714287</v>
+        <v>0.1178075392857143</v>
       </c>
       <c r="E15" s="1">
         <f>'[1]Qc, 2020, Summer'!E15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10661702785714285</v>
+        <v>0.11846336428571427</v>
       </c>
       <c r="F15" s="1">
         <f>'[1]Qc, 2020, Summer'!F15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11015713607142855</v>
+        <v>0.12239681785714283</v>
       </c>
       <c r="G15" s="1">
         <f>'[1]Qc, 2020, Summer'!G15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10520777892857144</v>
+        <v>0.11689753214285716</v>
       </c>
       <c r="H15" s="1">
         <f>'[1]Qc, 2020, Summer'!H15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.8154414642857166E-2</v>
+        <v>0.10906046071428574</v>
       </c>
       <c r="I15" s="1">
         <f>'[1]Qc, 2020, Summer'!I15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.9969885357142856E-2</v>
+        <v>9.9966539285714279E-2</v>
       </c>
       <c r="J15" s="1">
         <f>'[1]Qc, 2020, Summer'!J15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.5782982857142842E-2</v>
+        <v>8.4203314285714273E-2</v>
       </c>
       <c r="K15" s="1">
         <f>'[1]Qc, 2020, Summer'!K15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6924614285714291E-2</v>
+        <v>6.3249571428571433E-2</v>
       </c>
       <c r="L15" s="1">
         <f>'[1]Qc, 2020, Summer'!L15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0188869285714285E-2</v>
+        <v>6.6876521428571423E-2</v>
       </c>
       <c r="M15" s="1">
         <f>'[1]Qc, 2020, Summer'!M15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.6453582857142854E-2</v>
+        <v>7.3837314285714287E-2</v>
       </c>
       <c r="N15" s="1">
         <f>'[1]Qc, 2020, Summer'!N15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5265596071428578E-2</v>
+        <v>6.1406217857142863E-2</v>
       </c>
       <c r="O15" s="1">
         <f>'[1]Qc, 2020, Summer'!O15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.2923216785714284E-2</v>
+        <v>8.1025796428571426E-2</v>
       </c>
       <c r="P15" s="1">
         <f>'[1]Qc, 2020, Summer'!P15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.7793589285714282E-2</v>
+        <v>8.6437321428571426E-2</v>
       </c>
       <c r="Q15" s="1">
         <f>'[1]Qc, 2020, Summer'!Q15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.8330465000000002E-2</v>
+        <v>8.7033849999999996E-2</v>
       </c>
       <c r="R15" s="1">
         <f>'[1]Qc, 2020, Summer'!R15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.5215086071428586E-2</v>
+        <v>8.3572317857142864E-2</v>
       </c>
       <c r="S15" s="1">
         <f>'[1]Qc, 2020, Summer'!S15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.6525277142857145E-2</v>
+        <v>8.5028085714285717E-2</v>
       </c>
       <c r="T15" s="1">
         <f>'[1]Qc, 2020, Summer'!T15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.212555000000001E-2</v>
+        <v>8.0139500000000002E-2</v>
       </c>
       <c r="U15" s="1">
         <f>'[1]Qc, 2020, Summer'!U15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.2268440714285712E-2</v>
+        <v>9.1409378571428571E-2</v>
       </c>
       <c r="V15" s="1">
         <f>'[1]Qc, 2020, Summer'!V15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.601821678571428E-2</v>
+        <v>9.5575796428571419E-2</v>
       </c>
       <c r="W15" s="1">
         <f>'[1]Qc, 2020, Summer'!W15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.8734596428571422E-2</v>
+        <v>0.10970510714285714</v>
       </c>
       <c r="X15" s="1">
         <f>'[1]Qc, 2020, Summer'!X15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.1667735357142871E-2</v>
+        <v>0.10185303928571429</v>
       </c>
       <c r="Y15" s="1">
         <f>'[1]Qc, 2020, Summer'!Y15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.4312600714285724E-2</v>
+        <v>0.10479177857142857</v>
       </c>
     </row>
   </sheetData>

--- a/data/HR1/A_KPC_35_3/A_KPC_35_3_2020.xlsx
+++ b/data/HR1/A_KPC_35_3/A_KPC_35_3_2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\A_KPC_35_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94326A0C-BAB1-40C8-A59D-BF19F0A576CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B46F4E-0FD2-43BE-8AC9-E199E83C5786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,16 +175,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11">
         <row r="2">
           <cell r="B2">
@@ -3299,7 +3299,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="14"/>
       <sheetData sheetId="15">
         <row r="2">
           <cell r="B2">
@@ -4338,11 +4338,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4628,10 +4628,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="D1" s="1">
         <v>0.2</v>
@@ -4654,7 +4654,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="2">
         <v>0.95</v>
@@ -4674,7 +4674,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D3" s="2">
         <v>1.1000000000000001</v>
@@ -12327,99 +12327,99 @@
       </c>
       <c r="B2" s="1">
         <f>'[1]Pc, 2020, Summer'!B2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.3258908785714292</v>
+        <v>5.693301790714286</v>
       </c>
       <c r="C2" s="1">
         <f>'[1]Pc, 2020, Summer'!C2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.2292631392857141</v>
+        <v>5.6063368253571424</v>
       </c>
       <c r="D2" s="1">
         <f>'[1]Pc, 2020, Summer'!D2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0298635392857154</v>
+        <v>5.426877185357144</v>
       </c>
       <c r="E2" s="1">
         <f>'[1]Pc, 2020, Summer'!E2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9502684214285715</v>
+        <v>5.3552415792857149</v>
       </c>
       <c r="F2" s="1">
         <f>'[1]Pc, 2020, Summer'!F2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8786790857142854</v>
+        <v>5.2908111771428574</v>
       </c>
       <c r="G2" s="1">
         <f>'[1]Pc, 2020, Summer'!G2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9288909035714283</v>
+        <v>5.3360018132142857</v>
       </c>
       <c r="H2" s="1">
         <f>'[1]Pc, 2020, Summer'!H2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8420113678571433</v>
+        <v>5.2578102310714288</v>
       </c>
       <c r="I2" s="1">
         <f>'[1]Pc, 2020, Summer'!I2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.8446089071428569</v>
+        <v>6.1601480164285709</v>
       </c>
       <c r="J2" s="1">
         <f>'[1]Pc, 2020, Summer'!J2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.286236107142857</v>
+        <v>6.5576124964285718</v>
       </c>
       <c r="K2" s="1">
         <f>'[1]Pc, 2020, Summer'!K2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.2641555928571426</v>
+        <v>6.5377400335714286</v>
       </c>
       <c r="L2" s="1">
         <f>'[1]Pc, 2020, Summer'!L2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.1419293928571435</v>
+        <v>6.4277364535714296</v>
       </c>
       <c r="M2" s="1">
         <f>'[1]Pc, 2020, Summer'!M2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.1879273678571431</v>
+        <v>6.4691346310714293</v>
       </c>
       <c r="N2" s="1">
         <f>'[1]Pc, 2020, Summer'!N2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.3855397857142862</v>
+        <v>6.6469858071428574</v>
       </c>
       <c r="O2" s="1">
         <f>'[1]Pc, 2020, Summer'!O2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.3327677107142861</v>
+        <v>6.599490939642858</v>
       </c>
       <c r="P2" s="1">
         <f>'[1]Pc, 2020, Summer'!P2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.8839537000000002</v>
+        <v>6.1955583299999999</v>
       </c>
       <c r="Q2" s="1">
         <f>'[1]Pc, 2020, Summer'!Q2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.0572245392857145</v>
+        <v>6.3515020853571436</v>
       </c>
       <c r="R2" s="1">
         <f>'[1]Pc, 2020, Summer'!R2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.1401657749999998</v>
+        <v>6.4261491975</v>
       </c>
       <c r="S2" s="1">
         <f>'[1]Pc, 2020, Summer'!S2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.934838667857143</v>
+        <v>6.241354801071429</v>
       </c>
       <c r="T2" s="1">
         <f>'[1]Pc, 2020, Summer'!T2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.6503281750000003</v>
+        <v>5.9852953575000001</v>
       </c>
       <c r="U2" s="1">
         <f>'[1]Pc, 2020, Summer'!U2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.6194466714285713</v>
+        <v>5.9575020042857147</v>
       </c>
       <c r="V2" s="1">
         <f>'[1]Pc, 2020, Summer'!V2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.5961548821428568</v>
+        <v>5.9365393939285713</v>
       </c>
       <c r="W2" s="1">
         <f>'[1]Pc, 2020, Summer'!W2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4732172678571427</v>
+        <v>5.8258955410714286</v>
       </c>
       <c r="X2" s="1">
         <f>'[1]Pc, 2020, Summer'!X2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0501214571428577</v>
+        <v>5.4451093114285722</v>
       </c>
       <c r="Y2" s="1">
         <f>'[1]Pc, 2020, Summer'!Y2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8771448357142857</v>
+        <v>5.2894303521428574</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -12428,99 +12428,99 @@
       </c>
       <c r="B3" s="1">
         <f>'[1]Pc, 2020, Summer'!B3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4582946821428573</v>
+        <v>1.3124652139285715</v>
       </c>
       <c r="C3" s="1">
         <f>'[1]Pc, 2020, Summer'!C3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3675844107142856</v>
+        <v>1.2308259696428572</v>
       </c>
       <c r="D3" s="1">
         <f>'[1]Pc, 2020, Summer'!D3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3095690535714288</v>
+        <v>1.1786121482142859</v>
       </c>
       <c r="E3" s="1">
         <f>'[1]Pc, 2020, Summer'!E3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1994686999999999</v>
+        <v>1.07952183</v>
       </c>
       <c r="F3" s="1">
         <f>'[1]Pc, 2020, Summer'!F3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1617164857142857</v>
+        <v>1.0455448371428571</v>
       </c>
       <c r="G3" s="1">
         <f>'[1]Pc, 2020, Summer'!G3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1988141607142857</v>
+        <v>1.0789327446428572</v>
       </c>
       <c r="H3" s="1">
         <f>'[1]Pc, 2020, Summer'!H3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2811037642857146</v>
+        <v>1.1529933878571432</v>
       </c>
       <c r="I3" s="1">
         <f>'[1]Pc, 2020, Summer'!I3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6872645357142857</v>
+        <v>1.5185380821428571</v>
       </c>
       <c r="J3" s="1">
         <f>'[1]Pc, 2020, Summer'!J3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8789040357142857</v>
+        <v>1.691013632142857</v>
       </c>
       <c r="K3" s="1">
         <f>'[1]Pc, 2020, Summer'!K3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0232721000000002</v>
+        <v>1.8209448900000003</v>
       </c>
       <c r="L3" s="1">
         <f>'[1]Pc, 2020, Summer'!L3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8837546821428572</v>
+        <v>1.6953792139285715</v>
       </c>
       <c r="M3" s="1">
         <f>'[1]Pc, 2020, Summer'!M3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9505716464285716</v>
+        <v>1.7555144817857145</v>
       </c>
       <c r="N3" s="1">
         <f>'[1]Pc, 2020, Summer'!N3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.946243139285714</v>
+        <v>1.7516188253571428</v>
       </c>
       <c r="O3" s="1">
         <f>'[1]Pc, 2020, Summer'!O3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8702382071428572</v>
+        <v>1.6832143864285716</v>
       </c>
       <c r="P3" s="1">
         <f>'[1]Pc, 2020, Summer'!P3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6242162392857142</v>
+        <v>1.4617946153571428</v>
       </c>
       <c r="Q3" s="1">
         <f>'[1]Pc, 2020, Summer'!Q3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6623344499999999</v>
+        <v>1.4961010049999999</v>
       </c>
       <c r="R3" s="1">
         <f>'[1]Pc, 2020, Summer'!R3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7313229928571425</v>
+        <v>1.5581906935714283</v>
       </c>
       <c r="S3" s="1">
         <f>'[1]Pc, 2020, Summer'!S3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7283409964285714</v>
+        <v>1.5555068967857144</v>
       </c>
       <c r="T3" s="1">
         <f>'[1]Pc, 2020, Summer'!T3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.816904196428571</v>
+        <v>1.635213776785714</v>
       </c>
       <c r="U3" s="1">
         <f>'[1]Pc, 2020, Summer'!U3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9424305571428571</v>
+        <v>1.7481875014285715</v>
       </c>
       <c r="V3" s="1">
         <f>'[1]Pc, 2020, Summer'!V3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0247016535714288</v>
+        <v>1.822231488214286</v>
       </c>
       <c r="W3" s="1">
         <f>'[1]Pc, 2020, Summer'!W3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9117682250000001</v>
+        <v>1.7205914025000002</v>
       </c>
       <c r="X3" s="1">
         <f>'[1]Pc, 2020, Summer'!X3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6591403357142858</v>
+        <v>1.4932263021428571</v>
       </c>
       <c r="Y3" s="1">
         <f>'[1]Pc, 2020, Summer'!Y3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4925193964285712</v>
+        <v>1.3432674567857141</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -12529,99 +12529,99 @@
       </c>
       <c r="B4" s="1">
         <f>'[1]Pc, 2020, Summer'!B4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4188263035714281</v>
+        <v>3.0769436732142852</v>
       </c>
       <c r="C4" s="1">
         <f>'[1]Pc, 2020, Summer'!C4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2065736785714289</v>
+        <v>2.8859163107142862</v>
       </c>
       <c r="D4" s="1">
         <f>'[1]Pc, 2020, Summer'!D4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9820930678571429</v>
+        <v>2.6838837610714288</v>
       </c>
       <c r="E4" s="1">
         <f>'[1]Pc, 2020, Summer'!E4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0464243678571425</v>
+        <v>2.7417819310714284</v>
       </c>
       <c r="F4" s="1">
         <f>'[1]Pc, 2020, Summer'!F4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9817522535714285</v>
+        <v>2.6835770282142857</v>
       </c>
       <c r="G4" s="1">
         <f>'[1]Pc, 2020, Summer'!G4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0167046535714284</v>
+        <v>2.7150341882142857</v>
       </c>
       <c r="H4" s="1">
         <f>'[1]Pc, 2020, Summer'!H4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.0115657928571427</v>
+        <v>3.6104092135714283</v>
       </c>
       <c r="I4" s="1">
         <f>'[1]Pc, 2020, Summer'!I4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0384572857142853</v>
+        <v>4.5346115571428571</v>
       </c>
       <c r="J4" s="1">
         <f>'[1]Pc, 2020, Summer'!J4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3252932107142854</v>
+        <v>4.792763889642857</v>
       </c>
       <c r="K4" s="1">
         <f>'[1]Pc, 2020, Summer'!K4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1031924857142847</v>
+        <v>4.5928732371428564</v>
       </c>
       <c r="L4" s="1">
         <f>'[1]Pc, 2020, Summer'!L4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0872952285714277</v>
+        <v>4.5785657057142854</v>
       </c>
       <c r="M4" s="1">
         <f>'[1]Pc, 2020, Summer'!M4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4497861357142847</v>
+        <v>4.904807522142856</v>
       </c>
       <c r="N4" s="1">
         <f>'[1]Pc, 2020, Summer'!N4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6192000392857144</v>
+        <v>5.0572800353571434</v>
       </c>
       <c r="O4" s="1">
         <f>'[1]Pc, 2020, Summer'!O4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2164655464285721</v>
+        <v>4.6948189917857146</v>
       </c>
       <c r="P4" s="1">
         <f>'[1]Pc, 2020, Summer'!P4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7527650785714286</v>
+        <v>4.2774885707142856</v>
       </c>
       <c r="Q4" s="1">
         <f>'[1]Pc, 2020, Summer'!Q4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5031608000000007</v>
+        <v>4.0528447200000004</v>
       </c>
       <c r="R4" s="1">
         <f>'[1]Pc, 2020, Summer'!R4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5563611357142859</v>
+        <v>4.1007250221428571</v>
       </c>
       <c r="S4" s="1">
         <f>'[1]Pc, 2020, Summer'!S4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4593464142857142</v>
+        <v>4.0134117728571432</v>
       </c>
       <c r="T4" s="1">
         <f>'[1]Pc, 2020, Summer'!T4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4036559000000004</v>
+        <v>3.9632903100000005</v>
       </c>
       <c r="U4" s="1">
         <f>'[1]Pc, 2020, Summer'!U4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7412856964285712</v>
+        <v>4.2671571267857145</v>
       </c>
       <c r="V4" s="1">
         <f>'[1]Pc, 2020, Summer'!V4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9549297857142856</v>
+        <v>4.4594368071428567</v>
       </c>
       <c r="W4" s="1">
         <f>'[1]Pc, 2020, Summer'!W4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.740164292857143</v>
+        <v>4.2661478635714287</v>
       </c>
       <c r="X4" s="1">
         <f>'[1]Pc, 2020, Summer'!X4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2219706571428564</v>
+        <v>3.7997735914285706</v>
       </c>
       <c r="Y4" s="1">
         <f>'[1]Pc, 2020, Summer'!Y4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5692588285714288</v>
+        <v>3.212332945714286</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -12630,99 +12630,99 @@
       </c>
       <c r="B5" s="1">
         <f>'[1]Pc, 2020, Summer'!B5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.35726214285714286</v>
+        <v>0.3215359285714286</v>
       </c>
       <c r="C5" s="1">
         <f>'[1]Pc, 2020, Summer'!C5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.27694473928571428</v>
+        <v>0.24925026535714287</v>
       </c>
       <c r="D5" s="1">
         <f>'[1]Pc, 2020, Summer'!D5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2099578357142857</v>
+        <v>0.18896205214285713</v>
       </c>
       <c r="E5" s="1">
         <f>'[1]Pc, 2020, Summer'!E5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2551646785714286</v>
+        <v>0.22964821071428576</v>
       </c>
       <c r="F5" s="1">
         <f>'[1]Pc, 2020, Summer'!F5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.21608692142857144</v>
+        <v>0.19447822928571432</v>
       </c>
       <c r="G5" s="1">
         <f>'[1]Pc, 2020, Summer'!G5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.17287811785714285</v>
+        <v>0.15559030607142857</v>
       </c>
       <c r="H5" s="1">
         <f>'[1]Pc, 2020, Summer'!H5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.39068375714285714</v>
+        <v>0.35161538142857141</v>
       </c>
       <c r="I5" s="1">
         <f>'[1]Pc, 2020, Summer'!I5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.73055230000000004</v>
+        <v>0.65749707000000002</v>
       </c>
       <c r="J5" s="1">
         <f>'[1]Pc, 2020, Summer'!J5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.89406962499999998</v>
+        <v>0.80466266249999996</v>
       </c>
       <c r="K5" s="1">
         <f>'[1]Pc, 2020, Summer'!K5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.93724931428571423</v>
+        <v>0.84352438285714282</v>
       </c>
       <c r="L5" s="1">
         <f>'[1]Pc, 2020, Summer'!L5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.9496597678571429</v>
+        <v>0.85469379107142862</v>
       </c>
       <c r="M5" s="1">
         <f>'[1]Pc, 2020, Summer'!M5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.87086223571428578</v>
+        <v>0.78377601214285719</v>
       </c>
       <c r="N5" s="1">
         <f>'[1]Pc, 2020, Summer'!N5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.93684248571428563</v>
+        <v>0.84315823714285709</v>
       </c>
       <c r="O5" s="1">
         <f>'[1]Pc, 2020, Summer'!O5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.86176537857142854</v>
+        <v>0.77558884071428569</v>
       </c>
       <c r="P5" s="1">
         <f>'[1]Pc, 2020, Summer'!P5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.75978871428571426</v>
+        <v>0.68380984285714286</v>
       </c>
       <c r="Q5" s="1">
         <f>'[1]Pc, 2020, Summer'!Q5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.70271571071428562</v>
+        <v>0.63244413964285706</v>
       </c>
       <c r="R5" s="1">
         <f>'[1]Pc, 2020, Summer'!R5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.64103312857142858</v>
+        <v>0.5769298157142857</v>
       </c>
       <c r="S5" s="1">
         <f>'[1]Pc, 2020, Summer'!S5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.60472393571428573</v>
+        <v>0.5442515421428572</v>
       </c>
       <c r="T5" s="1">
         <f>'[1]Pc, 2020, Summer'!T5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.77340568928571429</v>
+        <v>0.69606512035714285</v>
       </c>
       <c r="U5" s="1">
         <f>'[1]Pc, 2020, Summer'!U5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.89111744642857149</v>
+        <v>0.8020057017857144</v>
       </c>
       <c r="V5" s="1">
         <f>'[1]Pc, 2020, Summer'!V5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.99517291428571442</v>
+        <v>0.89565562285714295</v>
       </c>
       <c r="W5" s="1">
         <f>'[1]Pc, 2020, Summer'!W5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0157470499999999</v>
+        <v>0.91417234499999989</v>
       </c>
       <c r="X5" s="1">
         <f>'[1]Pc, 2020, Summer'!X5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.76097898928571428</v>
+        <v>0.68488109035714284</v>
       </c>
       <c r="Y5" s="1">
         <f>'[1]Pc, 2020, Summer'!Y5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.53571190357142862</v>
+        <v>0.48214071321428575</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -12731,99 +12731,99 @@
       </c>
       <c r="B6" s="1">
         <f>'[1]Pc, 2020, Summer'!B6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1771051607142855</v>
+        <v>2.8593946446428569</v>
       </c>
       <c r="C6" s="1">
         <f>'[1]Pc, 2020, Summer'!C6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8648240928571429</v>
+        <v>2.5783416835714288</v>
       </c>
       <c r="D6" s="1">
         <f>'[1]Pc, 2020, Summer'!D6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6539557214285714</v>
+        <v>2.3885601492857145</v>
       </c>
       <c r="E6" s="1">
         <f>'[1]Pc, 2020, Summer'!E6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5841956428571429</v>
+        <v>2.3257760785714288</v>
       </c>
       <c r="F6" s="1">
         <f>'[1]Pc, 2020, Summer'!F6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6641309678571425</v>
+        <v>2.3977178710714284</v>
       </c>
       <c r="G6" s="1">
         <f>'[1]Pc, 2020, Summer'!G6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6465793785714289</v>
+        <v>2.3819214407142861</v>
       </c>
       <c r="H6" s="1">
         <f>'[1]Pc, 2020, Summer'!H6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.898991967857143</v>
+        <v>2.6090927710714289</v>
       </c>
       <c r="I6" s="1">
         <f>'[1]Pc, 2020, Summer'!I6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3931009285714282</v>
+        <v>3.0537908357142856</v>
       </c>
       <c r="J6" s="1">
         <f>'[1]Pc, 2020, Summer'!J6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8002652321428565</v>
+        <v>3.4202387089285708</v>
       </c>
       <c r="K6" s="1">
         <f>'[1]Pc, 2020, Summer'!K6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.0377088821428568</v>
+        <v>3.6339379939285714</v>
       </c>
       <c r="L6" s="1">
         <f>'[1]Pc, 2020, Summer'!L6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3688824535714286</v>
+        <v>3.9319942082142858</v>
       </c>
       <c r="M6" s="1">
         <f>'[1]Pc, 2020, Summer'!M6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6330133892857148</v>
+        <v>4.1697120503571439</v>
       </c>
       <c r="N6" s="1">
         <f>'[1]Pc, 2020, Summer'!N6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7097265749999995</v>
+        <v>4.2387539174999995</v>
       </c>
       <c r="O6" s="1">
         <f>'[1]Pc, 2020, Summer'!O6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4387507428571418</v>
+        <v>3.9948756685714275</v>
       </c>
       <c r="P6" s="1">
         <f>'[1]Pc, 2020, Summer'!P6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2133387321428577</v>
+        <v>3.7920048589285722</v>
       </c>
       <c r="Q6" s="1">
         <f>'[1]Pc, 2020, Summer'!Q6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1384034607142857</v>
+        <v>3.7245631146428573</v>
       </c>
       <c r="R6" s="1">
         <f>'[1]Pc, 2020, Summer'!R6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.106622475</v>
+        <v>3.6959602275000001</v>
       </c>
       <c r="S6" s="1">
         <f>'[1]Pc, 2020, Summer'!S6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.0567074928571429</v>
+        <v>3.6510367435714288</v>
       </c>
       <c r="T6" s="1">
         <f>'[1]Pc, 2020, Summer'!T6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1324212214285714</v>
+        <v>3.7191790992857143</v>
       </c>
       <c r="U6" s="1">
         <f>'[1]Pc, 2020, Summer'!U6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2136997892857142</v>
+        <v>3.7923298103571428</v>
       </c>
       <c r="V6" s="1">
         <f>'[1]Pc, 2020, Summer'!V6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5971184642857139</v>
+        <v>4.1374066178571427</v>
       </c>
       <c r="W6" s="1">
         <f>'[1]Pc, 2020, Summer'!W6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.559465928571429</v>
+        <v>4.1035193357142861</v>
       </c>
       <c r="X6" s="1">
         <f>'[1]Pc, 2020, Summer'!X6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3163608714285715</v>
+        <v>3.8847247842857144</v>
       </c>
       <c r="Y6" s="1">
         <f>'[1]Pc, 2020, Summer'!Y6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7617724178571432</v>
+        <v>3.3855951760714289</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -12832,99 +12832,99 @@
       </c>
       <c r="B7" s="1">
         <f>'[1]Pc, 2020, Summer'!B7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9128304821428568</v>
+        <v>4.4215474339285716</v>
       </c>
       <c r="C7" s="1">
         <f>'[1]Pc, 2020, Summer'!C7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7714125999999997</v>
+        <v>4.2942713399999999</v>
       </c>
       <c r="D7" s="1">
         <f>'[1]Pc, 2020, Summer'!D7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.480640471428571</v>
+        <v>4.0325764242857138</v>
       </c>
       <c r="E7" s="1">
         <f>'[1]Pc, 2020, Summer'!E7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.615804339285714</v>
+        <v>4.154223905357143</v>
       </c>
       <c r="F7" s="1">
         <f>'[1]Pc, 2020, Summer'!F7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6935749142857137</v>
+        <v>4.2242174228571425</v>
       </c>
       <c r="G7" s="1">
         <f>'[1]Pc, 2020, Summer'!G7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6605527892857141</v>
+        <v>4.1944975103571425</v>
       </c>
       <c r="H7" s="1">
         <f>'[1]Pc, 2020, Summer'!H7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9110693821428573</v>
+        <v>4.4199624439285721</v>
       </c>
       <c r="I7" s="1">
         <f>'[1]Pc, 2020, Summer'!I7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.990812803571429</v>
+        <v>5.3917315232142862</v>
       </c>
       <c r="J7" s="1">
         <f>'[1]Pc, 2020, Summer'!J7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.2884706821428571</v>
+        <v>5.6596236139285718</v>
       </c>
       <c r="K7" s="1">
         <f>'[1]Pc, 2020, Summer'!K7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.3656623428571431</v>
+        <v>5.7290961085714285</v>
       </c>
       <c r="L7" s="1">
         <f>'[1]Pc, 2020, Summer'!L7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4340611392857143</v>
+        <v>5.7906550253571432</v>
       </c>
       <c r="M7" s="1">
         <f>'[1]Pc, 2020, Summer'!M7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.7708287035714285</v>
+        <v>6.0937458332142862</v>
       </c>
       <c r="N7" s="1">
         <f>'[1]Pc, 2020, Summer'!N7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.6779380857142856</v>
+        <v>6.0101442771428575</v>
       </c>
       <c r="O7" s="1">
         <f>'[1]Pc, 2020, Summer'!O7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.3599158107142859</v>
+        <v>5.7239242296428579</v>
       </c>
       <c r="P7" s="1">
         <f>'[1]Pc, 2020, Summer'!P7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9810119071428574</v>
+        <v>5.3829107164285714</v>
       </c>
       <c r="Q7" s="1">
         <f>'[1]Pc, 2020, Summer'!Q7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.820779775000001</v>
+        <v>5.238701797500001</v>
       </c>
       <c r="R7" s="1">
         <f>'[1]Pc, 2020, Summer'!R7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0247328571428582</v>
+        <v>5.4222595714285724</v>
       </c>
       <c r="S7" s="1">
         <f>'[1]Pc, 2020, Summer'!S7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8332794214285713</v>
+        <v>5.2499514792857145</v>
       </c>
       <c r="T7" s="1">
         <f>'[1]Pc, 2020, Summer'!T7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5643396535714285</v>
+        <v>5.0079056882142856</v>
       </c>
       <c r="U7" s="1">
         <f>'[1]Pc, 2020, Summer'!U7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6607087785714283</v>
+        <v>5.0946379007142859</v>
       </c>
       <c r="V7" s="1">
         <f>'[1]Pc, 2020, Summer'!V7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8428996142857148</v>
+        <v>5.2586096528571433</v>
       </c>
       <c r="W7" s="1">
         <f>'[1]Pc, 2020, Summer'!W7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5357695035714283</v>
+        <v>4.9821925532142854</v>
       </c>
       <c r="X7" s="1">
         <f>'[1]Pc, 2020, Summer'!X7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0936059607142861</v>
+        <v>4.5842453646428574</v>
       </c>
       <c r="Y7" s="1">
         <f>'[1]Pc, 2020, Summer'!Y7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0498234392857144</v>
+        <v>4.5448410953571434</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -12933,99 +12933,99 @@
       </c>
       <c r="B8" s="1">
         <f>'[1]Pc, 2020, Summer'!B8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5474933642857143</v>
+        <v>2.2927440278571427</v>
       </c>
       <c r="C8" s="1">
         <f>'[1]Pc, 2020, Summer'!C8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3121382107142856</v>
+        <v>2.0809243896428571</v>
       </c>
       <c r="D8" s="1">
         <f>'[1]Pc, 2020, Summer'!D8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2716233357142857</v>
+        <v>2.0444610021428571</v>
       </c>
       <c r="E8" s="1">
         <f>'[1]Pc, 2020, Summer'!E8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3103553071428573</v>
+        <v>2.0793197764285716</v>
       </c>
       <c r="F8" s="1">
         <f>'[1]Pc, 2020, Summer'!F8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2558607357142857</v>
+        <v>2.0302746621428573</v>
       </c>
       <c r="G8" s="1">
         <f>'[1]Pc, 2020, Summer'!G8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3869685857142855</v>
+        <v>2.1482717271428569</v>
       </c>
       <c r="H8" s="1">
         <f>'[1]Pc, 2020, Summer'!H8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9393563714285711</v>
+        <v>2.6454207342857141</v>
       </c>
       <c r="I8" s="1">
         <f>'[1]Pc, 2020, Summer'!I8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3768182178571422</v>
+        <v>3.0391363960714282</v>
       </c>
       <c r="J8" s="1">
         <f>'[1]Pc, 2020, Summer'!J8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8995306035714288</v>
+        <v>3.5095775432142862</v>
       </c>
       <c r="K8" s="1">
         <f>'[1]Pc, 2020, Summer'!K8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1712831357142859</v>
+        <v>3.7541548221428576</v>
       </c>
       <c r="L8" s="1">
         <f>'[1]Pc, 2020, Summer'!L8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2196675392857141</v>
+        <v>3.7977007853571427</v>
       </c>
       <c r="M8" s="1">
         <f>'[1]Pc, 2020, Summer'!M8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3794196928571427</v>
+        <v>3.9414777235714284</v>
       </c>
       <c r="N8" s="1">
         <f>'[1]Pc, 2020, Summer'!N8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3015223750000002</v>
+        <v>3.8713701375000005</v>
       </c>
       <c r="O8" s="1">
         <f>'[1]Pc, 2020, Summer'!O8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3324465892857145</v>
+        <v>3.899201930357143</v>
       </c>
       <c r="P8" s="1">
         <f>'[1]Pc, 2020, Summer'!P8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1808725892857144</v>
+        <v>3.762785330357143</v>
       </c>
       <c r="Q8" s="1">
         <f>'[1]Pc, 2020, Summer'!Q8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9077651678571423</v>
+        <v>3.5169886510714283</v>
       </c>
       <c r="R8" s="1">
         <f>'[1]Pc, 2020, Summer'!R8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9428911750000002</v>
+        <v>3.5486020575000001</v>
       </c>
       <c r="S8" s="1">
         <f>'[1]Pc, 2020, Summer'!S8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7966901428571425</v>
+        <v>3.4170211285714283</v>
       </c>
       <c r="T8" s="1">
         <f>'[1]Pc, 2020, Summer'!T8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7591935035714283</v>
+        <v>3.3832741532142854</v>
       </c>
       <c r="U8" s="1">
         <f>'[1]Pc, 2020, Summer'!U8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8211180178571431</v>
+        <v>3.4390062160714288</v>
       </c>
       <c r="V8" s="1">
         <f>'[1]Pc, 2020, Summer'!V8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8824810678571429</v>
+        <v>3.4942329610714284</v>
       </c>
       <c r="W8" s="1">
         <f>'[1]Pc, 2020, Summer'!W8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.402171739285714</v>
+        <v>3.0619545653571425</v>
       </c>
       <c r="X8" s="1">
         <f>'[1]Pc, 2020, Summer'!X8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2485685642857138</v>
+        <v>2.9237117078571426</v>
       </c>
       <c r="Y8" s="1">
         <f>'[1]Pc, 2020, Summer'!Y8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8103325892857138</v>
+        <v>2.5292993303571425</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -13034,99 +13034,99 @@
       </c>
       <c r="B9" s="1">
         <f>'[1]Pc, 2020, Summer'!B9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6233836500000001</v>
+        <v>1.4610452850000002</v>
       </c>
       <c r="C9" s="1">
         <f>'[1]Pc, 2020, Summer'!C9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5184275214285712</v>
+        <v>1.366584769285714</v>
       </c>
       <c r="D9" s="1">
         <f>'[1]Pc, 2020, Summer'!D9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4583503642857143</v>
+        <v>1.3125153278571429</v>
       </c>
       <c r="E9" s="1">
         <f>'[1]Pc, 2020, Summer'!E9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.441785517857143</v>
+        <v>1.2976069660714287</v>
       </c>
       <c r="F9" s="1">
         <f>'[1]Pc, 2020, Summer'!F9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.498202007142857</v>
+        <v>1.3483818064285713</v>
       </c>
       <c r="G9" s="1">
         <f>'[1]Pc, 2020, Summer'!G9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.61120675</v>
+        <v>1.450086075</v>
       </c>
       <c r="H9" s="1">
         <f>'[1]Pc, 2020, Summer'!H9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5395148607142857</v>
+        <v>2.285563374642857</v>
       </c>
       <c r="I9" s="1">
         <f>'[1]Pc, 2020, Summer'!I9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0639176071428569</v>
+        <v>2.7575258464285715</v>
       </c>
       <c r="J9" s="1">
         <f>'[1]Pc, 2020, Summer'!J9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3237126214285713</v>
+        <v>2.9913413592857143</v>
       </c>
       <c r="K9" s="1">
         <f>'[1]Pc, 2020, Summer'!K9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3344901285714288</v>
+        <v>3.001041115714286</v>
       </c>
       <c r="L9" s="1">
         <f>'[1]Pc, 2020, Summer'!L9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5185735892857144</v>
+        <v>3.1667162303571432</v>
       </c>
       <c r="M9" s="1">
         <f>'[1]Pc, 2020, Summer'!M9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7138840749999997</v>
+        <v>3.3424956674999997</v>
       </c>
       <c r="N9" s="1">
         <f>'[1]Pc, 2020, Summer'!N9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6129361428571429</v>
+        <v>3.2516425285714288</v>
       </c>
       <c r="O9" s="1">
         <f>'[1]Pc, 2020, Summer'!O9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2980575642857146</v>
+        <v>2.9682518078571434</v>
       </c>
       <c r="P9" s="1">
         <f>'[1]Pc, 2020, Summer'!P9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8807384321428575</v>
+        <v>2.5926645889285718</v>
       </c>
       <c r="Q9" s="1">
         <f>'[1]Pc, 2020, Summer'!Q9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7546487392857144</v>
+        <v>2.4791838653571432</v>
       </c>
       <c r="R9" s="1">
         <f>'[1]Pc, 2020, Summer'!R9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6407625071428575</v>
+        <v>2.376686256428572</v>
       </c>
       <c r="S9" s="1">
         <f>'[1]Pc, 2020, Summer'!S9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5774642071428571</v>
+        <v>2.3197177864285714</v>
       </c>
       <c r="T9" s="1">
         <f>'[1]Pc, 2020, Summer'!T9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5711419571428573</v>
+        <v>2.3140277614285716</v>
       </c>
       <c r="U9" s="1">
         <f>'[1]Pc, 2020, Summer'!U9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6598052250000004</v>
+        <v>2.3938247025000003</v>
       </c>
       <c r="V9" s="1">
         <f>'[1]Pc, 2020, Summer'!V9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6075047964285711</v>
+        <v>2.3467543167857139</v>
       </c>
       <c r="W9" s="1">
         <f>'[1]Pc, 2020, Summer'!W9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4089781964285715</v>
+        <v>2.1680803767857144</v>
       </c>
       <c r="X9" s="1">
         <f>'[1]Pc, 2020, Summer'!X9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0208246214285714</v>
+        <v>1.8187421592857143</v>
       </c>
       <c r="Y9" s="1">
         <f>'[1]Pc, 2020, Summer'!Y9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7913661928571429</v>
+        <v>1.6122295735714287</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -13135,99 +13135,99 @@
       </c>
       <c r="B10" s="1">
         <f>'[1]Pc, 2020, Summer'!B10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5726277071428572</v>
+        <v>1.4153649364285714</v>
       </c>
       <c r="C10" s="1">
         <f>'[1]Pc, 2020, Summer'!C10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4527941857142856</v>
+        <v>1.3075147671428571</v>
       </c>
       <c r="D10" s="1">
         <f>'[1]Pc, 2020, Summer'!D10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4064719999999999</v>
+        <v>1.2658248000000001</v>
       </c>
       <c r="E10" s="1">
         <f>'[1]Pc, 2020, Summer'!E10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3209580678571426</v>
+        <v>1.1888622610714283</v>
       </c>
       <c r="F10" s="1">
         <f>'[1]Pc, 2020, Summer'!F10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3391535142857141</v>
+        <v>1.2052381628571427</v>
       </c>
       <c r="G10" s="1">
         <f>'[1]Pc, 2020, Summer'!G10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3266598857142857</v>
+        <v>1.1939938971428572</v>
       </c>
       <c r="H10" s="1">
         <f>'[1]Pc, 2020, Summer'!H10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3017894714285716</v>
+        <v>1.1716105242857144</v>
       </c>
       <c r="I10" s="1">
         <f>'[1]Pc, 2020, Summer'!I10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4947627357142856</v>
+        <v>1.3452864621428571</v>
       </c>
       <c r="J10" s="1">
         <f>'[1]Pc, 2020, Summer'!J10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3519884071428572</v>
+        <v>1.2167895664285715</v>
       </c>
       <c r="K10" s="1">
         <f>'[1]Pc, 2020, Summer'!K10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4347727249999997</v>
+        <v>1.2912954524999998</v>
       </c>
       <c r="L10" s="1">
         <f>'[1]Pc, 2020, Summer'!L10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5762151857142859</v>
+        <v>1.4185936671428574</v>
       </c>
       <c r="M10" s="1">
         <f>'[1]Pc, 2020, Summer'!M10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7685883500000001</v>
+        <v>1.5917295150000002</v>
       </c>
       <c r="N10" s="1">
         <f>'[1]Pc, 2020, Summer'!N10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8001252857142858</v>
+        <v>1.6201127571428573</v>
       </c>
       <c r="O10" s="1">
         <f>'[1]Pc, 2020, Summer'!O10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7406587107142859</v>
+        <v>1.5665928396428574</v>
       </c>
       <c r="P10" s="1">
         <f>'[1]Pc, 2020, Summer'!P10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6376044392857145</v>
+        <v>1.4738439953571432</v>
       </c>
       <c r="Q10" s="1">
         <f>'[1]Pc, 2020, Summer'!Q10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6561414285714284</v>
+        <v>1.4905272857142857</v>
       </c>
       <c r="R10" s="1">
         <f>'[1]Pc, 2020, Summer'!R10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6673155857142856</v>
+        <v>1.500584027142857</v>
       </c>
       <c r="S10" s="1">
         <f>'[1]Pc, 2020, Summer'!S10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.633966667857143</v>
+        <v>1.4705700010714287</v>
       </c>
       <c r="T10" s="1">
         <f>'[1]Pc, 2020, Summer'!T10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6602082000000002</v>
+        <v>1.4941873800000003</v>
       </c>
       <c r="U10" s="1">
         <f>'[1]Pc, 2020, Summer'!U10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7568213107142858</v>
+        <v>1.5811391796428573</v>
       </c>
       <c r="V10" s="1">
         <f>'[1]Pc, 2020, Summer'!V10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8537636571428571</v>
+        <v>1.6683872914285713</v>
       </c>
       <c r="W10" s="1">
         <f>'[1]Pc, 2020, Summer'!W10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8009113571428572</v>
+        <v>1.6208202214285716</v>
       </c>
       <c r="X10" s="1">
         <f>'[1]Pc, 2020, Summer'!X10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5759425499999999</v>
+        <v>1.4183482949999999</v>
       </c>
       <c r="Y10" s="1">
         <f>'[1]Pc, 2020, Summer'!Y10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6065097964285715</v>
+        <v>1.4458588167857145</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -13236,99 +13236,99 @@
       </c>
       <c r="B11" s="1">
         <f>'[1]Pc, 2020, Summer'!B11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3732240857142854</v>
+        <v>2.1359016771428569</v>
       </c>
       <c r="C11" s="1">
         <f>'[1]Pc, 2020, Summer'!C11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1942890928571428</v>
+        <v>1.9748601835714286</v>
       </c>
       <c r="D11" s="1">
         <f>'[1]Pc, 2020, Summer'!D11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1171208285714282</v>
+        <v>1.9054087457142854</v>
       </c>
       <c r="E11" s="1">
         <f>'[1]Pc, 2020, Summer'!E11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1223947642857146</v>
+        <v>1.9101552878571433</v>
       </c>
       <c r="F11" s="1">
         <f>'[1]Pc, 2020, Summer'!F11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1282522321428572</v>
+        <v>1.9154270089285714</v>
       </c>
       <c r="G11" s="1">
         <f>'[1]Pc, 2020, Summer'!G11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1696577642857142</v>
+        <v>1.9526919878571429</v>
       </c>
       <c r="H11" s="1">
         <f>'[1]Pc, 2020, Summer'!H11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5211588464285715</v>
+        <v>2.2690429617857144</v>
       </c>
       <c r="I11" s="1">
         <f>'[1]Pc, 2020, Summer'!I11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9488452035714285</v>
+        <v>2.6539606832142857</v>
       </c>
       <c r="J11" s="1">
         <f>'[1]Pc, 2020, Summer'!J11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2063043357142855</v>
+        <v>2.885673902142857</v>
       </c>
       <c r="K11" s="1">
         <f>'[1]Pc, 2020, Summer'!K11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3760123000000002</v>
+        <v>3.0384110700000004</v>
       </c>
       <c r="L11" s="1">
         <f>'[1]Pc, 2020, Summer'!L11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3946880892857143</v>
+        <v>3.055219280357143</v>
       </c>
       <c r="M11" s="1">
         <f>'[1]Pc, 2020, Summer'!M11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5062956678571431</v>
+        <v>3.1556661010714286</v>
       </c>
       <c r="N11" s="1">
         <f>'[1]Pc, 2020, Summer'!N11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5544126821428565</v>
+        <v>3.1989714139285708</v>
       </c>
       <c r="O11" s="1">
         <f>'[1]Pc, 2020, Summer'!O11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3918893392857137</v>
+        <v>3.0527004053571423</v>
       </c>
       <c r="P11" s="1">
         <f>'[1]Pc, 2020, Summer'!P11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2710174499999995</v>
+        <v>2.9439157049999998</v>
       </c>
       <c r="Q11" s="1">
         <f>'[1]Pc, 2020, Summer'!Q11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0591305714285708</v>
+        <v>2.7532175142857138</v>
       </c>
       <c r="R11" s="1">
         <f>'[1]Pc, 2020, Summer'!R11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9903301249999998</v>
+        <v>2.6912971125</v>
       </c>
       <c r="S11" s="1">
         <f>'[1]Pc, 2020, Summer'!S11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9806595285714286</v>
+        <v>2.6825935757142858</v>
       </c>
       <c r="T11" s="1">
         <f>'[1]Pc, 2020, Summer'!T11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0438694357142855</v>
+        <v>2.7394824921428569</v>
       </c>
       <c r="U11" s="1">
         <f>'[1]Pc, 2020, Summer'!U11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2272126821428571</v>
+        <v>2.9044914139285716</v>
       </c>
       <c r="V11" s="1">
         <f>'[1]Pc, 2020, Summer'!V11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4595972035714286</v>
+        <v>3.1136374832142857</v>
       </c>
       <c r="W11" s="1">
         <f>'[1]Pc, 2020, Summer'!W11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2742872964285716</v>
+        <v>2.9468585667857146</v>
       </c>
       <c r="X11" s="1">
         <f>'[1]Pc, 2020, Summer'!X11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9649499535714288</v>
+        <v>2.6684549582142858</v>
       </c>
       <c r="Y11" s="1">
         <f>'[1]Pc, 2020, Summer'!Y11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5655103464285713</v>
+        <v>2.3089593117857143</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -13337,99 +13337,99 @@
       </c>
       <c r="B12" s="1">
         <f>'[1]Pc, 2020, Summer'!B12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.7836599535714287</v>
+        <v>0.70529395821428587</v>
       </c>
       <c r="C12" s="1">
         <f>'[1]Pc, 2020, Summer'!C12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.70429891071428574</v>
+        <v>0.63386901964285713</v>
       </c>
       <c r="D12" s="1">
         <f>'[1]Pc, 2020, Summer'!D12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.66212679285714282</v>
+        <v>0.59591411357142854</v>
       </c>
       <c r="E12" s="1">
         <f>'[1]Pc, 2020, Summer'!E12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.64016854285714297</v>
+        <v>0.57615168857142873</v>
       </c>
       <c r="F12" s="1">
         <f>'[1]Pc, 2020, Summer'!F12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.64935455714285706</v>
+        <v>0.58441910142857134</v>
       </c>
       <c r="G12" s="1">
         <f>'[1]Pc, 2020, Summer'!G12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69843721071428577</v>
+        <v>0.62859348964285722</v>
       </c>
       <c r="H12" s="1">
         <f>'[1]Pc, 2020, Summer'!H12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.82396535000000004</v>
+        <v>0.74156881500000005</v>
       </c>
       <c r="I12" s="1">
         <f>'[1]Pc, 2020, Summer'!I12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.98988426785714279</v>
+        <v>0.8908958410714285</v>
       </c>
       <c r="J12" s="1">
         <f>'[1]Pc, 2020, Summer'!J12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1104823678571427</v>
+        <v>0.99943413107142842</v>
       </c>
       <c r="K12" s="1">
         <f>'[1]Pc, 2020, Summer'!K12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1876487464285714</v>
+        <v>1.0688838717857143</v>
       </c>
       <c r="L12" s="1">
         <f>'[1]Pc, 2020, Summer'!L12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2650515178571429</v>
+        <v>1.1385463660714286</v>
       </c>
       <c r="M12" s="1">
         <f>'[1]Pc, 2020, Summer'!M12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3112263464285712</v>
+        <v>1.180103711785714</v>
       </c>
       <c r="N12" s="1">
         <f>'[1]Pc, 2020, Summer'!N12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.274181664285714</v>
+        <v>1.1467634978571426</v>
       </c>
       <c r="O12" s="1">
         <f>'[1]Pc, 2020, Summer'!O12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2042287178571427</v>
+        <v>1.0838058460714284</v>
       </c>
       <c r="P12" s="1">
         <f>'[1]Pc, 2020, Summer'!P12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1255455285714286</v>
+        <v>1.0129909757142859</v>
       </c>
       <c r="Q12" s="1">
         <f>'[1]Pc, 2020, Summer'!Q12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0626432821428571</v>
+        <v>0.95637895392857142</v>
       </c>
       <c r="R12" s="1">
         <f>'[1]Pc, 2020, Summer'!R12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0546644642857144</v>
+        <v>0.94919801785714297</v>
       </c>
       <c r="S12" s="1">
         <f>'[1]Pc, 2020, Summer'!S12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.11061875</v>
+        <v>0.99955687500000001</v>
       </c>
       <c r="T12" s="1">
         <f>'[1]Pc, 2020, Summer'!T12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1756988285714285</v>
+        <v>1.0581289457142857</v>
       </c>
       <c r="U12" s="1">
         <f>'[1]Pc, 2020, Summer'!U12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2141288428571428</v>
+        <v>1.0927159585714286</v>
       </c>
       <c r="V12" s="1">
         <f>'[1]Pc, 2020, Summer'!V12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3353401035714283</v>
+        <v>1.2018060932142856</v>
       </c>
       <c r="W12" s="1">
         <f>'[1]Pc, 2020, Summer'!W12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2547682928571426</v>
+        <v>1.1292914635714284</v>
       </c>
       <c r="X12" s="1">
         <f>'[1]Pc, 2020, Summer'!X12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.139726732142857</v>
+        <v>1.0257540589285714</v>
       </c>
       <c r="Y12" s="1">
         <f>'[1]Pc, 2020, Summer'!Y12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.96034955</v>
+        <v>0.86431459499999996</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -13438,99 +13438,99 @@
       </c>
       <c r="B13" s="1">
         <f>'[1]Pc, 2020, Summer'!B13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1763378571428573</v>
+        <v>4.6587040714285717</v>
       </c>
       <c r="C13" s="1">
         <f>'[1]Pc, 2020, Summer'!C13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0947947642857141</v>
+        <v>4.585315287857143</v>
       </c>
       <c r="D13" s="1">
         <f>'[1]Pc, 2020, Summer'!D13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3214976214285716</v>
+        <v>4.7893478592857148</v>
       </c>
       <c r="E13" s="1">
         <f>'[1]Pc, 2020, Summer'!E13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8470492428571426</v>
+        <v>4.3623443185714281</v>
       </c>
       <c r="F13" s="1">
         <f>'[1]Pc, 2020, Summer'!F13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5222296785714295</v>
+        <v>4.0700067107142868</v>
       </c>
       <c r="G13" s="1">
         <f>'[1]Pc, 2020, Summer'!G13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4771385714285721</v>
+        <v>4.0294247142857147</v>
       </c>
       <c r="H13" s="1">
         <f>'[1]Pc, 2020, Summer'!H13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6311465892857147</v>
+        <v>4.1680319303571434</v>
       </c>
       <c r="I13" s="1">
         <f>'[1]Pc, 2020, Summer'!I13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8966727642857144</v>
+        <v>4.407005487857143</v>
       </c>
       <c r="J13" s="1">
         <f>'[1]Pc, 2020, Summer'!J13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3633809142857141</v>
+        <v>3.9270428228571426</v>
       </c>
       <c r="K13" s="1">
         <f>'[1]Pc, 2020, Summer'!K13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.614755882142858</v>
+        <v>3.2532802939285723</v>
       </c>
       <c r="L13" s="1">
         <f>'[1]Pc, 2020, Summer'!L13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7919344285714303</v>
+        <v>4.3127409857142878</v>
       </c>
       <c r="M13" s="1">
         <f>'[1]Pc, 2020, Summer'!M13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1745506750000008</v>
+        <v>4.6570956075000005</v>
       </c>
       <c r="N13" s="1">
         <f>'[1]Pc, 2020, Summer'!N13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1626322464285721</v>
+        <v>4.6463690217857154</v>
       </c>
       <c r="O13" s="1">
         <f>'[1]Pc, 2020, Summer'!O13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.188290117857143</v>
+        <v>4.6694611060714291</v>
       </c>
       <c r="P13" s="1">
         <f>'[1]Pc, 2020, Summer'!P13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4472510285714284</v>
+        <v>4.002525925714286</v>
       </c>
       <c r="Q13" s="1">
         <f>'[1]Pc, 2020, Summer'!Q13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5553510500000005</v>
+        <v>4.9998159450000008</v>
       </c>
       <c r="R13" s="1">
         <f>'[1]Pc, 2020, Summer'!R13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1281826964285715</v>
+        <v>4.6153644267857148</v>
       </c>
       <c r="S13" s="1">
         <f>'[1]Pc, 2020, Summer'!S13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9911147000000007</v>
+        <v>4.4920032300000008</v>
       </c>
       <c r="T13" s="1">
         <f>'[1]Pc, 2020, Summer'!T13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1432997749999991</v>
+        <v>4.628969797499999</v>
       </c>
       <c r="U13" s="1">
         <f>'[1]Pc, 2020, Summer'!U13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5453076107142856</v>
+        <v>4.9907768496428568</v>
       </c>
       <c r="V13" s="1">
         <f>'[1]Pc, 2020, Summer'!V13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8370685142857139</v>
+        <v>5.2533616628571425</v>
       </c>
       <c r="W13" s="1">
         <f>'[1]Pc, 2020, Summer'!W13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8141755107142856</v>
+        <v>5.2327579596428571</v>
       </c>
       <c r="X13" s="1">
         <f>'[1]Pc, 2020, Summer'!X13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7889972714285713</v>
+        <v>5.2100975442857145</v>
       </c>
       <c r="Y13" s="1">
         <f>'[1]Pc, 2020, Summer'!Y13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8493709999999997</v>
+        <v>5.2644339000000002</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -13539,99 +13539,99 @@
       </c>
       <c r="B14" s="1">
         <f>'[1]Pc, 2020, Summer'!B14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.0138740285714292</v>
+        <v>8.1124866257142862</v>
       </c>
       <c r="C14" s="1">
         <f>'[1]Pc, 2020, Summer'!C14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.8850627535714288</v>
+        <v>7.9965564782142859</v>
       </c>
       <c r="D14" s="1">
         <f>'[1]Pc, 2020, Summer'!D14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.7704388821428569</v>
+        <v>7.8933949939285712</v>
       </c>
       <c r="E14" s="1">
         <f>'[1]Pc, 2020, Summer'!E14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.7260935071428563</v>
+        <v>7.8534841564285705</v>
       </c>
       <c r="F14" s="1">
         <f>'[1]Pc, 2020, Summer'!F14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.6606171750000005</v>
+        <v>7.7945554575000005</v>
       </c>
       <c r="G14" s="1">
         <f>'[1]Pc, 2020, Summer'!G14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.7902809964285709</v>
+        <v>7.9112528967857143</v>
       </c>
       <c r="H14" s="1">
         <f>'[1]Pc, 2020, Summer'!H14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.9244848250000004</v>
+        <v>8.9320363425</v>
       </c>
       <c r="I14" s="1">
         <f>'[1]Pc, 2020, Summer'!I14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.3665152</v>
+        <v>9.3298636800000008</v>
       </c>
       <c r="J14" s="1">
         <f>'[1]Pc, 2020, Summer'!J14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.011486828571428</v>
+        <v>9.9103381457142863</v>
       </c>
       <c r="K14" s="1">
         <f>'[1]Pc, 2020, Summer'!K14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.609952653571428</v>
+        <v>9.5489573882142853</v>
       </c>
       <c r="L14" s="1">
         <f>'[1]Pc, 2020, Summer'!L14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.789001710714286</v>
+        <v>9.7101015396428583</v>
       </c>
       <c r="M14" s="1">
         <f>'[1]Pc, 2020, Summer'!M14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.860630467857144</v>
+        <v>9.7745674210714295</v>
       </c>
       <c r="N14" s="1">
         <f>'[1]Pc, 2020, Summer'!N14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.034045985714288</v>
+        <v>9.9306413871428596</v>
       </c>
       <c r="O14" s="1">
         <f>'[1]Pc, 2020, Summer'!O14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.834102310714286</v>
+        <v>9.7506920796428584</v>
       </c>
       <c r="P14" s="1">
         <f>'[1]Pc, 2020, Summer'!P14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.520169821428572</v>
+        <v>9.4681528392857146</v>
       </c>
       <c r="Q14" s="1">
         <f>'[1]Pc, 2020, Summer'!Q14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.470029635714287</v>
+        <v>9.4230266721428588</v>
       </c>
       <c r="R14" s="1">
         <f>'[1]Pc, 2020, Summer'!R14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.540664678571428</v>
+        <v>9.4865982107142859</v>
       </c>
       <c r="S14" s="1">
         <f>'[1]Pc, 2020, Summer'!S14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.656082046428571</v>
+        <v>9.5904738417857143</v>
       </c>
       <c r="T14" s="1">
         <f>'[1]Pc, 2020, Summer'!T14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.092482907142857</v>
+        <v>9.0832346164285713</v>
       </c>
       <c r="U14" s="1">
         <f>'[1]Pc, 2020, Summer'!U14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.386000457142856</v>
+        <v>9.3474004114285716</v>
       </c>
       <c r="V14" s="1">
         <f>'[1]Pc, 2020, Summer'!V14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.563225342857141</v>
+        <v>9.5069028085714269</v>
       </c>
       <c r="W14" s="1">
         <f>'[1]Pc, 2020, Summer'!W14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.135103685714284</v>
+        <v>9.1215933171428567</v>
       </c>
       <c r="X14" s="1">
         <f>'[1]Pc, 2020, Summer'!X14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.191734832142858</v>
+        <v>8.2725613489285728</v>
       </c>
       <c r="Y14" s="1">
         <f>'[1]Pc, 2020, Summer'!Y14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.0639169500000012</v>
+        <v>8.1575252550000013</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -13640,99 +13640,99 @@
       </c>
       <c r="B15" s="1">
         <f>'[1]Pc, 2020, Summer'!B15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.29673667857142855</v>
+        <v>0.26706301071428568</v>
       </c>
       <c r="C15" s="1">
         <f>'[1]Pc, 2020, Summer'!C15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.27761526071428577</v>
+        <v>0.24985373464285721</v>
       </c>
       <c r="D15" s="1">
         <f>'[1]Pc, 2020, Summer'!D15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2696786678571429</v>
+        <v>0.24271080107142862</v>
       </c>
       <c r="E15" s="1">
         <f>'[1]Pc, 2020, Summer'!E15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.26361978928571428</v>
+        <v>0.23725781035714286</v>
       </c>
       <c r="F15" s="1">
         <f>'[1]Pc, 2020, Summer'!F15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.26705765357142858</v>
+        <v>0.24035188821428571</v>
       </c>
       <c r="G15" s="1">
         <f>'[1]Pc, 2020, Summer'!G15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.28368713571428572</v>
+        <v>0.25531842214285716</v>
       </c>
       <c r="H15" s="1">
         <f>'[1]Pc, 2020, Summer'!H15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.33283355357142863</v>
+        <v>0.2995501982142858</v>
       </c>
       <c r="I15" s="1">
         <f>'[1]Pc, 2020, Summer'!I15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.38587204999999997</v>
+        <v>0.34728484499999995</v>
       </c>
       <c r="J15" s="1">
         <f>'[1]Pc, 2020, Summer'!J15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42554598214285716</v>
+        <v>0.38299138392857146</v>
       </c>
       <c r="K15" s="1">
         <f>'[1]Pc, 2020, Summer'!K15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.45618106785714285</v>
+        <v>0.41056296107142859</v>
       </c>
       <c r="L15" s="1">
         <f>'[1]Pc, 2020, Summer'!L15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.49084306071428574</v>
+        <v>0.44175875464285719</v>
       </c>
       <c r="M15" s="1">
         <f>'[1]Pc, 2020, Summer'!M15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.50435717142857139</v>
+        <v>0.45392145428571429</v>
       </c>
       <c r="N15" s="1">
         <f>'[1]Pc, 2020, Summer'!N15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.48986104999999996</v>
+        <v>0.44087494499999996</v>
       </c>
       <c r="O15" s="1">
         <f>'[1]Pc, 2020, Summer'!O15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.44977720357142864</v>
+        <v>0.40479948321428577</v>
       </c>
       <c r="P15" s="1">
         <f>'[1]Pc, 2020, Summer'!P15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.39647987499999993</v>
+        <v>0.35683188749999994</v>
       </c>
       <c r="Q15" s="1">
         <f>'[1]Pc, 2020, Summer'!Q15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.39333154642857143</v>
+        <v>0.35399839178571429</v>
       </c>
       <c r="R15" s="1">
         <f>'[1]Pc, 2020, Summer'!R15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.39633247857142856</v>
+        <v>0.35669923071428572</v>
       </c>
       <c r="S15" s="1">
         <f>'[1]Pc, 2020, Summer'!S15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.38765446428571437</v>
+        <v>0.34888901785714294</v>
       </c>
       <c r="T15" s="1">
         <f>'[1]Pc, 2020, Summer'!T15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.39943789642857142</v>
+        <v>0.35949410678571431</v>
       </c>
       <c r="U15" s="1">
         <f>'[1]Pc, 2020, Summer'!U15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42646110357142852</v>
+        <v>0.38381499321428569</v>
       </c>
       <c r="V15" s="1">
         <f>'[1]Pc, 2020, Summer'!V15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.43983382857142861</v>
+        <v>0.39585044571428574</v>
       </c>
       <c r="W15" s="1">
         <f>'[1]Pc, 2020, Summer'!W15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.40100376428571427</v>
+        <v>0.36090338785714288</v>
       </c>
       <c r="X15" s="1">
         <f>'[1]Pc, 2020, Summer'!X15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.36566950714285718</v>
+        <v>0.32910255642857145</v>
       </c>
       <c r="Y15" s="1">
         <f>'[1]Pc, 2020, Summer'!Y15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.31810290714285716</v>
+        <v>0.28629261642857146</v>
       </c>
     </row>
   </sheetData>
@@ -19862,99 +19862,99 @@
       </c>
       <c r="B2" s="1">
         <f>'[1]Qc, 2020, Summer'!B2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.47193096428571424</v>
+        <v>0.42473786785714285</v>
       </c>
       <c r="C2" s="1">
         <f>'[1]Qc, 2020, Summer'!C2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.51119627142857149</v>
+        <v>0.46007664428571438</v>
       </c>
       <c r="D2" s="1">
         <f>'[1]Qc, 2020, Summer'!D2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.48718012500000007</v>
+        <v>0.43846211250000006</v>
       </c>
       <c r="E2" s="1">
         <f>'[1]Qc, 2020, Summer'!E2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.47757926785714283</v>
+        <v>0.42982134107142855</v>
       </c>
       <c r="F2" s="1">
         <f>'[1]Qc, 2020, Summer'!F2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.46488973571428571</v>
+        <v>0.41840076214285715</v>
       </c>
       <c r="G2" s="1">
         <f>'[1]Qc, 2020, Summer'!G2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.49166328571428569</v>
+        <v>0.44249695714285714</v>
       </c>
       <c r="H2" s="1">
         <f>'[1]Qc, 2020, Summer'!H2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.48223087499999995</v>
+        <v>0.43400778749999996</v>
       </c>
       <c r="I2" s="1">
         <f>'[1]Qc, 2020, Summer'!I2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.86124423571428588</v>
+        <v>0.7751198121428573</v>
       </c>
       <c r="J2" s="1">
         <f>'[1]Qc, 2020, Summer'!J2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0078897464285714</v>
+        <v>0.90710077178571435</v>
       </c>
       <c r="K2" s="1">
         <f>'[1]Qc, 2020, Summer'!K2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.99641094285714282</v>
+        <v>0.89676984857142861</v>
       </c>
       <c r="L2" s="1">
         <f>'[1]Qc, 2020, Summer'!L2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.96400578214285726</v>
+        <v>0.86760520392857154</v>
       </c>
       <c r="M2" s="1">
         <f>'[1]Qc, 2020, Summer'!M2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.96918078571428568</v>
+        <v>0.87226270714285714</v>
       </c>
       <c r="N2" s="1">
         <f>'[1]Qc, 2020, Summer'!N2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.027156542857143</v>
+        <v>0.9244408885714287</v>
       </c>
       <c r="O2" s="1">
         <f>'[1]Qc, 2020, Summer'!O2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0032270107142858</v>
+        <v>0.90290430964285717</v>
       </c>
       <c r="P2" s="1">
         <f>'[1]Qc, 2020, Summer'!P2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.72365487142857143</v>
+        <v>0.65128938428571426</v>
       </c>
       <c r="Q2" s="1">
         <f>'[1]Qc, 2020, Summer'!Q2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.93326013214285708</v>
+        <v>0.83993411892857139</v>
       </c>
       <c r="R2" s="1">
         <f>'[1]Qc, 2020, Summer'!R2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.93828679642857149</v>
+        <v>0.84445811678571436</v>
       </c>
       <c r="S2" s="1">
         <f>'[1]Qc, 2020, Summer'!S2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.86838012857142866</v>
+        <v>0.78154211571428578</v>
       </c>
       <c r="T2" s="1">
         <f>'[1]Qc, 2020, Summer'!T2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69472797857142865</v>
+        <v>0.62525518071428576</v>
       </c>
       <c r="U2" s="1">
         <f>'[1]Qc, 2020, Summer'!U2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.64387377142857138</v>
+        <v>0.57948639428571425</v>
       </c>
       <c r="V2" s="1">
         <f>'[1]Qc, 2020, Summer'!V2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.66978957857142851</v>
+        <v>0.60281062071428571</v>
       </c>
       <c r="W2" s="1">
         <f>'[1]Qc, 2020, Summer'!W2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.66355363571428561</v>
+        <v>0.59719827214285703</v>
       </c>
       <c r="X2" s="1">
         <f>'[1]Qc, 2020, Summer'!X2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.47659792857142858</v>
+        <v>0.42893813571428574</v>
       </c>
       <c r="Y2" s="1">
         <f>'[1]Qc, 2020, Summer'!Y2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.4669891607142857</v>
+        <v>0.42029024464285714</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -19963,99 +19963,99 @@
       </c>
       <c r="B3" s="1">
         <f>'[1]Qc, 2020, Summer'!B3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.9031035714285712E-2</v>
+        <v>-1.7127932142857141E-2</v>
       </c>
       <c r="C3" s="1">
         <f>'[1]Qc, 2020, Summer'!C3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.6319414285714289E-2</v>
+        <v>-4.168747285714286E-2</v>
       </c>
       <c r="D3" s="1">
         <f>'[1]Qc, 2020, Summer'!D3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.0635610714285711E-2</v>
+        <v>-4.5572049642857139E-2</v>
       </c>
       <c r="E3" s="1">
         <f>'[1]Qc, 2020, Summer'!E3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.2789292857142853E-2</v>
+        <v>-5.6510363571428572E-2</v>
       </c>
       <c r="F3" s="1">
         <f>'[1]Qc, 2020, Summer'!F3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.0630264285714284E-2</v>
+        <v>-6.3567237857142855E-2</v>
       </c>
       <c r="G3" s="1">
         <f>'[1]Qc, 2020, Summer'!G3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.6049421428571425E-2</v>
+        <v>-5.9444479285714287E-2</v>
       </c>
       <c r="H3" s="1">
         <f>'[1]Qc, 2020, Summer'!H3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.7377157142857136E-2</v>
+        <v>-6.0639441428571424E-2</v>
       </c>
       <c r="I3" s="1">
         <f>'[1]Qc, 2020, Summer'!I3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.1057128107142857</v>
+        <v>9.5141529642857131E-2</v>
       </c>
       <c r="J3" s="1">
         <f>'[1]Qc, 2020, Summer'!J3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.14762908571428571</v>
+        <v>0.13286617714285714</v>
       </c>
       <c r="K3" s="1">
         <f>'[1]Qc, 2020, Summer'!K3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.18946229285714283</v>
+        <v>0.17051606357142857</v>
       </c>
       <c r="L3" s="1">
         <f>'[1]Qc, 2020, Summer'!L3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10161891785714287</v>
+        <v>9.1457026071428582E-2</v>
       </c>
       <c r="M3" s="1">
         <f>'[1]Qc, 2020, Summer'!M3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.805821785714287E-2</v>
+        <v>7.025239607142858E-2</v>
       </c>
       <c r="N3" s="1">
         <f>'[1]Qc, 2020, Summer'!N3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6076553571428577E-2</v>
+        <v>4.1468898214285718E-2</v>
       </c>
       <c r="O3" s="1">
         <f>'[1]Qc, 2020, Summer'!O3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1209199999999991E-2</v>
+        <v>5.5088279999999996E-2</v>
       </c>
       <c r="P3" s="1">
         <f>'[1]Qc, 2020, Summer'!P3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2556082142857139E-2</v>
+        <v>1.1300473928571425E-2</v>
       </c>
       <c r="Q3" s="1">
         <f>'[1]Qc, 2020, Summer'!Q3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.963039285714289E-3</v>
+        <v>8.9667353571428604E-3</v>
       </c>
       <c r="R3" s="1">
         <f>'[1]Qc, 2020, Summer'!R3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7360810714285715E-2</v>
+        <v>1.5624729642857143E-2</v>
       </c>
       <c r="S3" s="1">
         <f>'[1]Qc, 2020, Summer'!S3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9975328571428571E-2</v>
+        <v>4.4977795714285715E-2</v>
       </c>
       <c r="T3" s="1">
         <f>'[1]Qc, 2020, Summer'!T3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.132981875</v>
+        <v>0.1196836875</v>
       </c>
       <c r="U3" s="1">
         <f>'[1]Qc, 2020, Summer'!U3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.15152858571428574</v>
+        <v>0.13637572714285717</v>
       </c>
       <c r="V3" s="1">
         <f>'[1]Qc, 2020, Summer'!V3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10910772142857142</v>
+        <v>9.8196949285714277E-2</v>
       </c>
       <c r="W3" s="1">
         <f>'[1]Qc, 2020, Summer'!W3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.9437239285714292E-2</v>
+        <v>7.1493515357142864E-2</v>
       </c>
       <c r="X3" s="1">
         <f>'[1]Qc, 2020, Summer'!X3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5403599999999998E-2</v>
+        <v>2.286324E-2</v>
       </c>
       <c r="Y3" s="1">
         <f>'[1]Qc, 2020, Summer'!Y3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5143067857142856E-2</v>
+        <v>-1.3628761071428571E-2</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -20064,99 +20064,99 @@
       </c>
       <c r="B4" s="1">
         <f>'[1]Qc, 2020, Summer'!B4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15645529285714285</v>
+        <v>-0.14080976357142858</v>
       </c>
       <c r="C4" s="1">
         <f>'[1]Qc, 2020, Summer'!C4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.26897068928571433</v>
+        <v>-0.24207362035714289</v>
       </c>
       <c r="D4" s="1">
         <f>'[1]Qc, 2020, Summer'!D4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.39828553928571431</v>
+        <v>-0.35845698535714288</v>
       </c>
       <c r="E4" s="1">
         <f>'[1]Qc, 2020, Summer'!E4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.38611667142857142</v>
+        <v>-0.34750500428571429</v>
       </c>
       <c r="F4" s="1">
         <f>'[1]Qc, 2020, Summer'!F4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.39513373928571427</v>
+        <v>-0.35562036535714286</v>
       </c>
       <c r="G4" s="1">
         <f>'[1]Qc, 2020, Summer'!G4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.38761849642857144</v>
+        <v>-0.34885664678571432</v>
       </c>
       <c r="H4" s="1">
         <f>'[1]Qc, 2020, Summer'!H4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.13675381785714286</v>
+        <v>-0.12307843607142857</v>
       </c>
       <c r="I4" s="1">
         <f>'[1]Qc, 2020, Summer'!I4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.22756102142857146</v>
+        <v>0.20480491928571432</v>
       </c>
       <c r="J4" s="1">
         <f>'[1]Qc, 2020, Summer'!J4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.33295764999999999</v>
+        <v>0.29966188500000002</v>
       </c>
       <c r="K4" s="1">
         <f>'[1]Qc, 2020, Summer'!K4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.34358621428571429</v>
+        <v>0.30922759285714285</v>
       </c>
       <c r="L4" s="1">
         <f>'[1]Qc, 2020, Summer'!L4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.28865476071428575</v>
+        <v>0.25978928464285717</v>
       </c>
       <c r="M4" s="1">
         <f>'[1]Qc, 2020, Summer'!M4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.37400322500000005</v>
+        <v>0.33660290250000008</v>
       </c>
       <c r="N4" s="1">
         <f>'[1]Qc, 2020, Summer'!N4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.3255817535714286</v>
+        <v>0.29302357821428576</v>
       </c>
       <c r="O4" s="1">
         <f>'[1]Qc, 2020, Summer'!O4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.25044141785714286</v>
+        <v>0.22539727607142857</v>
       </c>
       <c r="P4" s="1">
         <f>'[1]Qc, 2020, Summer'!P4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.13625005357142858</v>
+        <v>0.12262504821428573</v>
       </c>
       <c r="Q4" s="1">
         <f>'[1]Qc, 2020, Summer'!Q4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3604564285714291E-2</v>
+        <v>3.9244107857142864E-2</v>
       </c>
       <c r="R4" s="1">
         <f>'[1]Qc, 2020, Summer'!R4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.9463253571428564E-2</v>
+        <v>8.0516928214285716E-2</v>
       </c>
       <c r="S4" s="1">
         <f>'[1]Qc, 2020, Summer'!S4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.772238928571428E-2</v>
+        <v>6.0950150357142852E-2</v>
       </c>
       <c r="T4" s="1">
         <f>'[1]Qc, 2020, Summer'!T4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.0785578571428569E-2</v>
+        <v>-4.5707020714285715E-2</v>
       </c>
       <c r="U4" s="1">
         <f>'[1]Qc, 2020, Summer'!U4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2467810714285723E-2</v>
+        <v>3.8221029642857153E-2</v>
       </c>
       <c r="V4" s="1">
         <f>'[1]Qc, 2020, Summer'!V4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.0393750000000023E-2</v>
+        <v>8.135437500000002E-2</v>
       </c>
       <c r="W4" s="1">
         <f>'[1]Qc, 2020, Summer'!W4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3715603571428587E-2</v>
+        <v>2.1344043214285728E-2</v>
       </c>
       <c r="X4" s="1">
         <f>'[1]Qc, 2020, Summer'!X4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.22493311071428573</v>
+        <v>-0.20243979964285716</v>
       </c>
       <c r="Y4" s="1">
         <f>'[1]Qc, 2020, Summer'!Y4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.35848083928571428</v>
+        <v>-0.32263275535714286</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -20165,99 +20165,99 @@
       </c>
       <c r="B5" s="1">
         <f>'[1]Qc, 2020, Summer'!B5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.5247697785714287</v>
+        <v>-0.47229280071428587</v>
       </c>
       <c r="C5" s="1">
         <f>'[1]Qc, 2020, Summer'!C5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.52963921428571425</v>
+        <v>-0.47667529285714283</v>
       </c>
       <c r="D5" s="1">
         <f>'[1]Qc, 2020, Summer'!D5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.54202448571428574</v>
+        <v>-0.48782203714285716</v>
       </c>
       <c r="E5" s="1">
         <f>'[1]Qc, 2020, Summer'!E5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.54364607142857146</v>
+        <v>-0.48928146428571434</v>
       </c>
       <c r="F5" s="1">
         <f>'[1]Qc, 2020, Summer'!F5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.55319181071428569</v>
+        <v>-0.49787262964285711</v>
       </c>
       <c r="G5" s="1">
         <f>'[1]Qc, 2020, Summer'!G5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.5769119857142857</v>
+        <v>-0.51922078714285713</v>
       </c>
       <c r="H5" s="1">
         <f>'[1]Qc, 2020, Summer'!H5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.52552980000000016</v>
+        <v>-0.47297682000000013</v>
       </c>
       <c r="I5" s="1">
         <f>'[1]Qc, 2020, Summer'!I5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.3654344964285714</v>
+        <v>-0.32889104678571429</v>
       </c>
       <c r="J5" s="1">
         <f>'[1]Qc, 2020, Summer'!J5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.29169708571428571</v>
+        <v>-0.26252737714285712</v>
       </c>
       <c r="K5" s="1">
         <f>'[1]Qc, 2020, Summer'!K5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.31308202142857144</v>
+        <v>-0.28177381928571432</v>
       </c>
       <c r="L5" s="1">
         <f>'[1]Qc, 2020, Summer'!L5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.3719444357142857</v>
+        <v>-0.33474999214285717</v>
       </c>
       <c r="M5" s="1">
         <f>'[1]Qc, 2020, Summer'!M5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.41052053571428571</v>
+        <v>-0.36946848214285716</v>
       </c>
       <c r="N5" s="1">
         <f>'[1]Qc, 2020, Summer'!N5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.39578034285714286</v>
+        <v>-0.35620230857142859</v>
       </c>
       <c r="O5" s="1">
         <f>'[1]Qc, 2020, Summer'!O5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.42595264285714285</v>
+        <v>-0.3833573785714286</v>
       </c>
       <c r="P5" s="1">
         <f>'[1]Qc, 2020, Summer'!P5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.41099630714285718</v>
+        <v>-0.36989667642857149</v>
       </c>
       <c r="Q5" s="1">
         <f>'[1]Qc, 2020, Summer'!Q5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.46024165357142854</v>
+        <v>-0.41421748821428572</v>
       </c>
       <c r="R5" s="1">
         <f>'[1]Qc, 2020, Summer'!R5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.49495499642857149</v>
+        <v>-0.44545949678571434</v>
       </c>
       <c r="S5" s="1">
         <f>'[1]Qc, 2020, Summer'!S5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.44396801428571431</v>
+        <v>-0.39957121285714287</v>
       </c>
       <c r="T5" s="1">
         <f>'[1]Qc, 2020, Summer'!T5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.32702079285714286</v>
+        <v>-0.29431871357142858</v>
       </c>
       <c r="U5" s="1">
         <f>'[1]Qc, 2020, Summer'!U5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.30186721785714282</v>
+        <v>-0.27168049607142852</v>
       </c>
       <c r="V5" s="1">
         <f>'[1]Qc, 2020, Summer'!V5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.30901836785714287</v>
+        <v>-0.27811653107142859</v>
       </c>
       <c r="W5" s="1">
         <f>'[1]Qc, 2020, Summer'!W5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.36657167857142853</v>
+        <v>-0.32991451071428568</v>
       </c>
       <c r="X5" s="1">
         <f>'[1]Qc, 2020, Summer'!X5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.44428054285714286</v>
+        <v>-0.39985248857142858</v>
       </c>
       <c r="Y5" s="1">
         <f>'[1]Qc, 2020, Summer'!Y5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.46456730357142861</v>
+        <v>-0.41811057321428574</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -20266,99 +20266,99 @@
       </c>
       <c r="B6" s="1">
         <f>'[1]Qc, 2020, Summer'!B6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.25471836071428572</v>
+        <v>-0.22924652464285716</v>
       </c>
       <c r="C6" s="1">
         <f>'[1]Qc, 2020, Summer'!C6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.31394902499999999</v>
+        <v>-0.2825541225</v>
       </c>
       <c r="D6" s="1">
         <f>'[1]Qc, 2020, Summer'!D6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.36133496071428567</v>
+        <v>-0.3252014646428571</v>
       </c>
       <c r="E6" s="1">
         <f>'[1]Qc, 2020, Summer'!E6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.36994282142857149</v>
+        <v>-0.33294853928571433</v>
       </c>
       <c r="F6" s="1">
         <f>'[1]Qc, 2020, Summer'!F6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.37628898214285711</v>
+        <v>-0.33866008392857139</v>
       </c>
       <c r="G6" s="1">
         <f>'[1]Qc, 2020, Summer'!G6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.4083531535714286</v>
+        <v>-0.36751783821428574</v>
       </c>
       <c r="H6" s="1">
         <f>'[1]Qc, 2020, Summer'!H6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.3837332</v>
+        <v>-0.34535988000000001</v>
       </c>
       <c r="I6" s="1">
         <f>'[1]Qc, 2020, Summer'!I6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.20825137499999996</v>
+        <v>-0.18742623749999998</v>
       </c>
       <c r="J6" s="1">
         <f>'[1]Qc, 2020, Summer'!J6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.0424946428571427E-2</v>
+        <v>-4.5382451785714283E-2</v>
       </c>
       <c r="K6" s="1">
         <f>'[1]Qc, 2020, Summer'!K6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9784178571428571E-2</v>
+        <v>5.3805760714285715E-2</v>
       </c>
       <c r="L6" s="1">
         <f>'[1]Qc, 2020, Summer'!L6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.14896409642857142</v>
+        <v>0.13406768678571429</v>
       </c>
       <c r="M6" s="1">
         <f>'[1]Qc, 2020, Summer'!M6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.17211412857142855</v>
+        <v>0.15490271571428571</v>
       </c>
       <c r="N6" s="1">
         <f>'[1]Qc, 2020, Summer'!N6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.13531662857142857</v>
+        <v>0.12178496571428571</v>
       </c>
       <c r="O6" s="1">
         <f>'[1]Qc, 2020, Summer'!O6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.891289285714285E-2</v>
+        <v>8.0021603571428568E-2</v>
       </c>
       <c r="P6" s="1">
         <f>'[1]Qc, 2020, Summer'!P6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7173117857142867E-2</v>
+        <v>2.4455806071428582E-2</v>
       </c>
       <c r="Q6" s="1">
         <f>'[1]Qc, 2020, Summer'!Q6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.2326928571428477E-3</v>
+        <v>-2.0094235714285631E-3</v>
       </c>
       <c r="R6" s="1">
         <f>'[1]Qc, 2020, Summer'!R6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.9319810714285707E-2</v>
+        <v>-1.7387829642857136E-2</v>
       </c>
       <c r="S6" s="1">
         <f>'[1]Qc, 2020, Summer'!S6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.3271167857142859E-2</v>
+        <v>-2.0944051071428573E-2</v>
       </c>
       <c r="T6" s="1">
         <f>'[1]Qc, 2020, Summer'!T6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4878807142857137E-2</v>
+        <v>-1.3390926428571424E-2</v>
       </c>
       <c r="U6" s="1">
         <f>'[1]Qc, 2020, Summer'!U6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.9611760714285705E-2</v>
+        <v>-4.4650584642857136E-2</v>
       </c>
       <c r="V6" s="1">
         <f>'[1]Qc, 2020, Summer'!V6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1898664285714288E-2</v>
+        <v>3.7708797857142859E-2</v>
       </c>
       <c r="W6" s="1">
         <f>'[1]Qc, 2020, Summer'!W6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9489460714285714E-2</v>
+        <v>1.7540514642857143E-2</v>
       </c>
       <c r="X6" s="1">
         <f>'[1]Qc, 2020, Summer'!X6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3220542857142858E-2</v>
+        <v>-1.1898488571428573E-2</v>
       </c>
       <c r="Y6" s="1">
         <f>'[1]Qc, 2020, Summer'!Y6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.4480207142857139E-2</v>
+        <v>-8.5032186428571424E-2</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -20367,99 +20367,99 @@
       </c>
       <c r="B7" s="1">
         <f>'[1]Qc, 2020, Summer'!B7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6196797357142857</v>
+        <v>0.55771176214285711</v>
       </c>
       <c r="C7" s="1">
         <f>'[1]Qc, 2020, Summer'!C7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.68830433571428584</v>
+        <v>0.61947390214285725</v>
       </c>
       <c r="D7" s="1">
         <f>'[1]Qc, 2020, Summer'!D7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.54491038214285714</v>
+        <v>0.49041934392857145</v>
       </c>
       <c r="E7" s="1">
         <f>'[1]Qc, 2020, Summer'!E7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6192817928571428</v>
+        <v>0.55735361357142854</v>
       </c>
       <c r="F7" s="1">
         <f>'[1]Qc, 2020, Summer'!F7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63335634642857142</v>
+        <v>0.57002071178571434</v>
       </c>
       <c r="G7" s="1">
         <f>'[1]Qc, 2020, Summer'!G7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63820360357142858</v>
+        <v>0.57438324321428569</v>
       </c>
       <c r="H7" s="1">
         <f>'[1]Qc, 2020, Summer'!H7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.58835565357142861</v>
+        <v>0.52952008821428576</v>
       </c>
       <c r="I7" s="1">
         <f>'[1]Qc, 2020, Summer'!I7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0142361035714285</v>
+        <v>0.91281249321428559</v>
       </c>
       <c r="J7" s="1">
         <f>'[1]Qc, 2020, Summer'!J7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1609154785714286</v>
+        <v>1.0448239307142857</v>
       </c>
       <c r="K7" s="1">
         <f>'[1]Qc, 2020, Summer'!K7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2046608392857143</v>
+        <v>1.0841947553571429</v>
       </c>
       <c r="L7" s="1">
         <f>'[1]Qc, 2020, Summer'!L7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.073570575</v>
+        <v>0.96621351749999995</v>
       </c>
       <c r="M7" s="1">
         <f>'[1]Qc, 2020, Summer'!M7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2619042357142858</v>
+        <v>1.1357138121428572</v>
       </c>
       <c r="N7" s="1">
         <f>'[1]Qc, 2020, Summer'!N7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2977015392857143</v>
+        <v>1.1679313853571429</v>
       </c>
       <c r="O7" s="1">
         <f>'[1]Qc, 2020, Summer'!O7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.195254407142857</v>
+        <v>1.0757289664285714</v>
       </c>
       <c r="P7" s="1">
         <f>'[1]Qc, 2020, Summer'!P7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0431690321428571</v>
+        <v>0.93885212892857139</v>
       </c>
       <c r="Q7" s="1">
         <f>'[1]Qc, 2020, Summer'!Q7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.94642481785714283</v>
+        <v>0.85178233607142861</v>
       </c>
       <c r="R7" s="1">
         <f>'[1]Qc, 2020, Summer'!R7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.093815432142857</v>
+        <v>0.98443388892857131</v>
       </c>
       <c r="S7" s="1">
         <f>'[1]Qc, 2020, Summer'!S7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0594666642857145</v>
+        <v>0.95351999785714303</v>
       </c>
       <c r="T7" s="1">
         <f>'[1]Qc, 2020, Summer'!T7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.86194098214285719</v>
+        <v>0.7757468839285715</v>
       </c>
       <c r="U7" s="1">
         <f>'[1]Qc, 2020, Summer'!U7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.82786006071428564</v>
+        <v>0.74507405464285714</v>
       </c>
       <c r="V7" s="1">
         <f>'[1]Qc, 2020, Summer'!V7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.9308172107142858</v>
+        <v>0.83773548964285727</v>
       </c>
       <c r="W7" s="1">
         <f>'[1]Qc, 2020, Summer'!W7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.78220599999999996</v>
+        <v>0.70398539999999998</v>
       </c>
       <c r="X7" s="1">
         <f>'[1]Qc, 2020, Summer'!X7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.62939703214285714</v>
+        <v>0.56645732892857148</v>
       </c>
       <c r="Y7" s="1">
         <f>'[1]Qc, 2020, Summer'!Y7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.67286351071428574</v>
+        <v>0.60557715964285719</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -20468,99 +20468,99 @@
       </c>
       <c r="B8" s="1">
         <f>'[1]Qc, 2020, Summer'!B8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.34777173928571431</v>
+        <v>-0.31299456535714287</v>
       </c>
       <c r="C8" s="1">
         <f>'[1]Qc, 2020, Summer'!C8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.35922638571428567</v>
+        <v>-0.32330374714285709</v>
       </c>
       <c r="D8" s="1">
         <f>'[1]Qc, 2020, Summer'!D8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.38372812142857138</v>
+        <v>-0.34535530928571423</v>
       </c>
       <c r="E8" s="1">
         <f>'[1]Qc, 2020, Summer'!E8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.3908362142857143</v>
+        <v>-0.35175259285714289</v>
       </c>
       <c r="F8" s="1">
         <f>'[1]Qc, 2020, Summer'!F8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.37886569285714289</v>
+        <v>-0.34097912357142862</v>
       </c>
       <c r="G8" s="1">
         <f>'[1]Qc, 2020, Summer'!G8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.40167769642857143</v>
+        <v>-0.36150992678571431</v>
       </c>
       <c r="H8" s="1">
         <f>'[1]Qc, 2020, Summer'!H8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.37475423214285714</v>
+        <v>-0.33727880892857143</v>
       </c>
       <c r="I8" s="1">
         <f>'[1]Qc, 2020, Summer'!I8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.21954477500000003</v>
+        <v>-0.19759029750000004</v>
       </c>
       <c r="J8" s="1">
         <f>'[1]Qc, 2020, Summer'!J8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.10895872857142856</v>
+        <v>-9.8062855714285704E-2</v>
       </c>
       <c r="K8" s="1">
         <f>'[1]Qc, 2020, Summer'!K8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.4146439285714275E-2</v>
+        <v>-7.5731795357142848E-2</v>
       </c>
       <c r="L8" s="1">
         <f>'[1]Qc, 2020, Summer'!L8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.0937739285714267E-2</v>
+        <v>-2.7843965357142841E-2</v>
       </c>
       <c r="M8" s="1">
         <f>'[1]Qc, 2020, Summer'!M8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.1422224999999988E-2</v>
+        <v>-4.6280002499999993E-2</v>
       </c>
       <c r="N8" s="1">
         <f>'[1]Qc, 2020, Summer'!N8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.7102296428571425E-2</v>
+        <v>-5.1392066785714285E-2</v>
       </c>
       <c r="O8" s="1">
         <f>'[1]Qc, 2020, Summer'!O8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.3097717857142854E-2</v>
+        <v>-5.678794607142857E-2</v>
       </c>
       <c r="P8" s="1">
         <f>'[1]Qc, 2020, Summer'!P8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.10836644642857141</v>
+        <v>-9.7529801785714271E-2</v>
       </c>
       <c r="Q8" s="1">
         <f>'[1]Qc, 2020, Summer'!Q8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14005577499999999</v>
+        <v>-0.12605019749999999</v>
       </c>
       <c r="R8" s="1">
         <f>'[1]Qc, 2020, Summer'!R8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16009390714285715</v>
+        <v>-0.14408451642857145</v>
       </c>
       <c r="S8" s="1">
         <f>'[1]Qc, 2020, Summer'!S8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18301062857142858</v>
+        <v>-0.16470956571428572</v>
       </c>
       <c r="T8" s="1">
         <f>'[1]Qc, 2020, Summer'!T8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17112773214285712</v>
+        <v>-0.15401495892857142</v>
       </c>
       <c r="U8" s="1">
         <f>'[1]Qc, 2020, Summer'!U8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.19688534999999999</v>
+        <v>-0.17719681499999998</v>
       </c>
       <c r="V8" s="1">
         <f>'[1]Qc, 2020, Summer'!V8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1624786892857143</v>
+        <v>-0.14623082035714288</v>
       </c>
       <c r="W8" s="1">
         <f>'[1]Qc, 2020, Summer'!W8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.21903647857142858</v>
+        <v>-0.19713283071428572</v>
       </c>
       <c r="X8" s="1">
         <f>'[1]Qc, 2020, Summer'!X8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.26200707857142858</v>
+        <v>-0.23580637071428573</v>
       </c>
       <c r="Y8" s="1">
         <f>'[1]Qc, 2020, Summer'!Y8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.28070958214285713</v>
+        <v>-0.25263862392857145</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -20569,99 +20569,99 @@
       </c>
       <c r="B9" s="1">
         <f>'[1]Qc, 2020, Summer'!B9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5079411035714287</v>
+        <v>-1.3571469932142859</v>
       </c>
       <c r="C9" s="1">
         <f>'[1]Qc, 2020, Summer'!C9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5205815607142861</v>
+        <v>-1.3685234046428576</v>
       </c>
       <c r="D9" s="1">
         <f>'[1]Qc, 2020, Summer'!D9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5342730285714288</v>
+        <v>-1.3808457257142859</v>
       </c>
       <c r="E9" s="1">
         <f>'[1]Qc, 2020, Summer'!E9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5407511035714285</v>
+        <v>-1.3866759932142858</v>
       </c>
       <c r="F9" s="1">
         <f>'[1]Qc, 2020, Summer'!F9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5272594500000003</v>
+        <v>-1.3745335050000003</v>
       </c>
       <c r="G9" s="1">
         <f>'[1]Qc, 2020, Summer'!G9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4977863607142858</v>
+        <v>-1.3480077246428572</v>
       </c>
       <c r="H9" s="1">
         <f>'[1]Qc, 2020, Summer'!H9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3173588607142857</v>
+        <v>-1.185622974642857</v>
       </c>
       <c r="I9" s="1">
         <f>'[1]Qc, 2020, Summer'!I9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1430724428571428</v>
+        <v>-1.0287651985714286</v>
       </c>
       <c r="J9" s="1">
         <f>'[1]Qc, 2020, Summer'!J9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1169071928571428</v>
+        <v>-1.0052164735714286</v>
       </c>
       <c r="K9" s="1">
         <f>'[1]Qc, 2020, Summer'!K9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0925646785714285</v>
+        <v>-0.98330821071428565</v>
       </c>
       <c r="L9" s="1">
         <f>'[1]Qc, 2020, Summer'!L9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0669144785714286</v>
+        <v>-0.96022303071428583</v>
       </c>
       <c r="M9" s="1">
         <f>'[1]Qc, 2020, Summer'!M9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0623786142857141</v>
+        <v>-0.95614075285714273</v>
       </c>
       <c r="N9" s="1">
         <f>'[1]Qc, 2020, Summer'!N9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1027292750000002</v>
+        <v>-0.99245634750000022</v>
       </c>
       <c r="O9" s="1">
         <f>'[1]Qc, 2020, Summer'!O9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1427128892857144</v>
+        <v>-1.028441600357143</v>
       </c>
       <c r="P9" s="1">
         <f>'[1]Qc, 2020, Summer'!P9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.228003</v>
+        <v>-1.1052027</v>
       </c>
       <c r="Q9" s="1">
         <f>'[1]Qc, 2020, Summer'!Q9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2630509535714287</v>
+        <v>-1.136745858214286</v>
       </c>
       <c r="R9" s="1">
         <f>'[1]Qc, 2020, Summer'!R9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.28761945</v>
+        <v>-1.1588575050000001</v>
       </c>
       <c r="S9" s="1">
         <f>'[1]Qc, 2020, Summer'!S9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2863150214285715</v>
+        <v>-1.1576835192857144</v>
       </c>
       <c r="T9" s="1">
         <f>'[1]Qc, 2020, Summer'!T9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.300894007142857</v>
+        <v>-1.1708046064285713</v>
       </c>
       <c r="U9" s="1">
         <f>'[1]Qc, 2020, Summer'!U9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3389136714285714</v>
+        <v>-1.2050223042857142</v>
       </c>
       <c r="V9" s="1">
         <f>'[1]Qc, 2020, Summer'!V9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4045915035714287</v>
+        <v>-1.2641323532142859</v>
       </c>
       <c r="W9" s="1">
         <f>'[1]Qc, 2020, Summer'!W9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4475722571428573</v>
+        <v>-1.3028150314285716</v>
       </c>
       <c r="X9" s="1">
         <f>'[1]Qc, 2020, Summer'!X9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4755386857142856</v>
+        <v>-1.327984817142857</v>
       </c>
       <c r="Y9" s="1">
         <f>'[1]Qc, 2020, Summer'!Y9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4964875571428573</v>
+        <v>-1.3468388014285717</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -20670,99 +20670,99 @@
       </c>
       <c r="B10" s="1">
         <f>'[1]Qc, 2020, Summer'!B10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.470292857142857E-2</v>
+        <v>-1.3232635714285713E-2</v>
       </c>
       <c r="C10" s="1">
         <f>'[1]Qc, 2020, Summer'!C10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.4611782142857147E-2</v>
+        <v>-4.9150603928571436E-2</v>
       </c>
       <c r="D10" s="1">
         <f>'[1]Qc, 2020, Summer'!D10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.3283089285714286E-2</v>
+        <v>-5.695478035714286E-2</v>
       </c>
       <c r="E10" s="1">
         <f>'[1]Qc, 2020, Summer'!E10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.6917296428571424E-2</v>
+        <v>-6.9225566785714288E-2</v>
       </c>
       <c r="F10" s="1">
         <f>'[1]Qc, 2020, Summer'!F10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.8339039285714285E-2</v>
+        <v>-7.0505135357142854E-2</v>
       </c>
       <c r="G10" s="1">
         <f>'[1]Qc, 2020, Summer'!G10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.6054174999999997E-2</v>
+        <v>-7.7448757499999993E-2</v>
       </c>
       <c r="H10" s="1">
         <f>'[1]Qc, 2020, Summer'!H10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14540312857142856</v>
+        <v>-0.13086281571428571</v>
       </c>
       <c r="I10" s="1">
         <f>'[1]Qc, 2020, Summer'!I10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.4149542857142861E-2</v>
+        <v>-5.7734588571428574E-2</v>
       </c>
       <c r="J10" s="1">
         <f>'[1]Qc, 2020, Summer'!J10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.5539399999999998E-2</v>
+        <v>-5.8985459999999997E-2</v>
       </c>
       <c r="K10" s="1">
         <f>'[1]Qc, 2020, Summer'!K10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.9195574999999999E-2</v>
+        <v>-1.7276017500000001E-2</v>
       </c>
       <c r="L10" s="1">
         <f>'[1]Qc, 2020, Summer'!L10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.0650749999999979E-3</v>
+        <v>-7.2585674999999985E-3</v>
       </c>
       <c r="M10" s="1">
         <f>'[1]Qc, 2020, Summer'!M10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.186760357142857E-2</v>
+        <v>1.9680843214285714E-2</v>
       </c>
       <c r="N10" s="1">
         <f>'[1]Qc, 2020, Summer'!N10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8423246428571438E-2</v>
+        <v>4.3580921785714294E-2</v>
       </c>
       <c r="O10" s="1">
         <f>'[1]Qc, 2020, Summer'!O10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4164342857142864E-2</v>
+        <v>3.0747908571428579E-2</v>
       </c>
       <c r="P10" s="1">
         <f>'[1]Qc, 2020, Summer'!P10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2586132142857151E-2</v>
+        <v>1.1327518928571437E-2</v>
       </c>
       <c r="Q10" s="1">
         <f>'[1]Qc, 2020, Summer'!Q10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6566792857142854E-2</v>
+        <v>5.0910113571428571E-2</v>
       </c>
       <c r="R10" s="1">
         <f>'[1]Qc, 2020, Summer'!R10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1614575000000001E-2</v>
+        <v>3.7453117500000001E-2</v>
       </c>
       <c r="S10" s="1">
         <f>'[1]Qc, 2020, Summer'!S10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3858510714285722E-2</v>
+        <v>3.0472659642857152E-2</v>
       </c>
       <c r="T10" s="1">
         <f>'[1]Qc, 2020, Summer'!T10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2086099999999999E-2</v>
+        <v>2.8877489999999999E-2</v>
       </c>
       <c r="U10" s="1">
         <f>'[1]Qc, 2020, Summer'!U10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0959796428571433E-2</v>
+        <v>2.7863816785714292E-2</v>
       </c>
       <c r="V10" s="1">
         <f>'[1]Qc, 2020, Summer'!V10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8248778571428579E-2</v>
+        <v>5.2423900714285723E-2</v>
       </c>
       <c r="W10" s="1">
         <f>'[1]Qc, 2020, Summer'!W10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.2168221428571431E-2</v>
+        <v>5.5951399285714291E-2</v>
       </c>
       <c r="X10" s="1">
         <f>'[1]Qc, 2020, Summer'!X10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1528467857142857E-2</v>
+        <v>-1.0375621071428571E-2</v>
       </c>
       <c r="Y10" s="1">
         <f>'[1]Qc, 2020, Summer'!Y10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7502117857142858E-2</v>
+        <v>-1.5751906071428571E-2</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -20771,99 +20771,99 @@
       </c>
       <c r="B11" s="1">
         <f>'[1]Qc, 2020, Summer'!B11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.21578044285714285</v>
+        <v>-0.19420239857142857</v>
       </c>
       <c r="C11" s="1">
         <f>'[1]Qc, 2020, Summer'!C11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.24273776785714285</v>
+        <v>-0.21846399107142858</v>
       </c>
       <c r="D11" s="1">
         <f>'[1]Qc, 2020, Summer'!D11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.24882026428571427</v>
+        <v>-0.22393823785714284</v>
       </c>
       <c r="E11" s="1">
         <f>'[1]Qc, 2020, Summer'!E11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.24453077142857144</v>
+        <v>-0.2200776942857143</v>
       </c>
       <c r="F11" s="1">
         <f>'[1]Qc, 2020, Summer'!F11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.25005632142857148</v>
+        <v>-0.22505068928571434</v>
       </c>
       <c r="G11" s="1">
         <f>'[1]Qc, 2020, Summer'!G11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.26249365357142856</v>
+        <v>-0.23624428821428572</v>
       </c>
       <c r="H11" s="1">
         <f>'[1]Qc, 2020, Summer'!H11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.12333673571428572</v>
+        <v>-0.11100306214285714</v>
       </c>
       <c r="I11" s="1">
         <f>'[1]Qc, 2020, Summer'!I11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.9861571428571435E-3</v>
+        <v>7.1875414285714296E-3</v>
       </c>
       <c r="J11" s="1">
         <f>'[1]Qc, 2020, Summer'!J11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.9304985714285717E-2</v>
+        <v>8.0374487142857151E-2</v>
       </c>
       <c r="K11" s="1">
         <f>'[1]Qc, 2020, Summer'!K11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10436951071428571</v>
+        <v>9.3932559642857141E-2</v>
       </c>
       <c r="L11" s="1">
         <f>'[1]Qc, 2020, Summer'!L11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1431460714285717E-2</v>
+        <v>3.7288314642857145E-2</v>
       </c>
       <c r="M11" s="1">
         <f>'[1]Qc, 2020, Summer'!M11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11901038214285715</v>
+        <v>0.10710934392857144</v>
       </c>
       <c r="N11" s="1">
         <f>'[1]Qc, 2020, Summer'!N11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11258424642857143</v>
+        <v>0.10132582178571428</v>
       </c>
       <c r="O11" s="1">
         <f>'[1]Qc, 2020, Summer'!O11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.301219285714285E-2</v>
+        <v>8.3710973571428565E-2</v>
       </c>
       <c r="P11" s="1">
         <f>'[1]Qc, 2020, Summer'!P11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6466825000000012E-2</v>
+        <v>5.0820142500000012E-2</v>
       </c>
       <c r="Q11" s="1">
         <f>'[1]Qc, 2020, Summer'!Q11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.7793785714285606E-3</v>
+        <v>-3.4014407142857047E-3</v>
       </c>
       <c r="R11" s="1">
         <f>'[1]Qc, 2020, Summer'!R11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.7993467857142854E-2</v>
+        <v>-2.5194121071428568E-2</v>
       </c>
       <c r="S11" s="1">
         <f>'[1]Qc, 2020, Summer'!S11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.4417364285714283E-2</v>
+        <v>-2.1975627857142854E-2</v>
       </c>
       <c r="T11" s="1">
         <f>'[1]Qc, 2020, Summer'!T11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7433085714285715E-2</v>
+        <v>-1.5689777142857145E-2</v>
       </c>
       <c r="U11" s="1">
         <f>'[1]Qc, 2020, Summer'!U11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.366775000000006E-3</v>
+        <v>6.6300975000000055E-3</v>
       </c>
       <c r="V11" s="1">
         <f>'[1]Qc, 2020, Summer'!V11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7016735714285724E-2</v>
+        <v>2.4315062142857152E-2</v>
       </c>
       <c r="W11" s="1">
         <f>'[1]Qc, 2020, Summer'!W11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.3947814285714287E-2</v>
+        <v>-2.155303285714286E-2</v>
       </c>
       <c r="X11" s="1">
         <f>'[1]Qc, 2020, Summer'!X11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1158247857142857</v>
+        <v>-0.10424230714285714</v>
       </c>
       <c r="Y11" s="1">
         <f>'[1]Qc, 2020, Summer'!Y11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17575853928571428</v>
+        <v>-0.15818268535714286</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -20872,99 +20872,99 @@
       </c>
       <c r="B12" s="1">
         <f>'[1]Qc, 2020, Summer'!B12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.27358546071428569</v>
+        <v>-0.24622691464285712</v>
       </c>
       <c r="C12" s="1">
         <f>'[1]Qc, 2020, Summer'!C12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.29322614285714282</v>
+        <v>-0.26390352857142857</v>
       </c>
       <c r="D12" s="1">
         <f>'[1]Qc, 2020, Summer'!D12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.30582871071428569</v>
+        <v>-0.27524583964285715</v>
       </c>
       <c r="E12" s="1">
         <f>'[1]Qc, 2020, Summer'!E12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.3108632428571429</v>
+        <v>-0.27977691857142861</v>
       </c>
       <c r="F12" s="1">
         <f>'[1]Qc, 2020, Summer'!F12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.30252781785714289</v>
+        <v>-0.27227503607142861</v>
       </c>
       <c r="G12" s="1">
         <f>'[1]Qc, 2020, Summer'!G12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.3050483607142857</v>
+        <v>-0.27454352464285714</v>
       </c>
       <c r="H12" s="1">
         <f>'[1]Qc, 2020, Summer'!H12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.25083535714285715</v>
+        <v>-0.22575182142857145</v>
       </c>
       <c r="I12" s="1">
         <f>'[1]Qc, 2020, Summer'!I12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.20570720714285715</v>
+        <v>-0.18513648642857145</v>
       </c>
       <c r="J12" s="1">
         <f>'[1]Qc, 2020, Summer'!J12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17527169285714286</v>
+        <v>-0.15774452357142857</v>
       </c>
       <c r="K12" s="1">
         <f>'[1]Qc, 2020, Summer'!K12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14793290000000001</v>
+        <v>-0.13313961000000002</v>
       </c>
       <c r="L12" s="1">
         <f>'[1]Qc, 2020, Summer'!L12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14810224999999999</v>
+        <v>-0.13329202500000001</v>
       </c>
       <c r="M12" s="1">
         <f>'[1]Qc, 2020, Summer'!M12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15368488214285714</v>
+        <v>-0.13831639392857142</v>
       </c>
       <c r="N12" s="1">
         <f>'[1]Qc, 2020, Summer'!N12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17230918571428572</v>
+        <v>-0.15507826714285716</v>
       </c>
       <c r="O12" s="1">
         <f>'[1]Qc, 2020, Summer'!O12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18387334999999999</v>
+        <v>-0.16548601499999999</v>
       </c>
       <c r="P12" s="1">
         <f>'[1]Qc, 2020, Summer'!P12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.201599625</v>
+        <v>-0.18143966250000002</v>
       </c>
       <c r="Q12" s="1">
         <f>'[1]Qc, 2020, Summer'!Q12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.20280328571428569</v>
+        <v>-0.18252295714285713</v>
       </c>
       <c r="R12" s="1">
         <f>'[1]Qc, 2020, Summer'!R12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.20394397857142857</v>
+        <v>-0.1835495807142857</v>
       </c>
       <c r="S12" s="1">
         <f>'[1]Qc, 2020, Summer'!S12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16603741428571428</v>
+        <v>-0.14943367285714285</v>
       </c>
       <c r="T12" s="1">
         <f>'[1]Qc, 2020, Summer'!T12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14584255714285713</v>
+        <v>-0.13125830142857142</v>
       </c>
       <c r="U12" s="1">
         <f>'[1]Qc, 2020, Summer'!U12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15767403571428573</v>
+        <v>-0.14190663214285718</v>
       </c>
       <c r="V12" s="1">
         <f>'[1]Qc, 2020, Summer'!V12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14252660714285714</v>
+        <v>-0.12827394642857143</v>
       </c>
       <c r="W12" s="1">
         <f>'[1]Qc, 2020, Summer'!W12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16196675714285716</v>
+        <v>-0.14577008142857145</v>
       </c>
       <c r="X12" s="1">
         <f>'[1]Qc, 2020, Summer'!X12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1867905857142857</v>
+        <v>-0.16811152714285713</v>
       </c>
       <c r="Y12" s="1">
         <f>'[1]Qc, 2020, Summer'!Y12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.20846590357142858</v>
+        <v>-0.18761931321428574</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -20973,99 +20973,99 @@
       </c>
       <c r="B13" s="1">
         <f>'[1]Qc, 2020, Summer'!B13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18437902857142863</v>
+        <v>-0.16594112571428576</v>
       </c>
       <c r="C13" s="1">
         <f>'[1]Qc, 2020, Summer'!C13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.12331704642857141</v>
+        <v>-0.11098534178571427</v>
       </c>
       <c r="D13" s="1">
         <f>'[1]Qc, 2020, Summer'!D13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.21732826071428574</v>
+        <v>-0.19559543464285717</v>
       </c>
       <c r="E13" s="1">
         <f>'[1]Qc, 2020, Summer'!E13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18757621785714282</v>
+        <v>-0.16881859607142854</v>
       </c>
       <c r="F13" s="1">
         <f>'[1]Qc, 2020, Summer'!F13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.28522379642857143</v>
+        <v>-0.25670141678571429</v>
       </c>
       <c r="G13" s="1">
         <f>'[1]Qc, 2020, Summer'!G13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.13440459642857144</v>
+        <v>-0.1209641367857143</v>
       </c>
       <c r="H13" s="1">
         <f>'[1]Qc, 2020, Summer'!H13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.47986471785714285</v>
+        <v>-0.43187824607142855</v>
       </c>
       <c r="I13" s="1">
         <f>'[1]Qc, 2020, Summer'!I13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.43835426428571422</v>
+        <v>-0.39451883785714281</v>
       </c>
       <c r="J13" s="1">
         <f>'[1]Qc, 2020, Summer'!J13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.41936853214285719</v>
+        <v>-0.37743167892857149</v>
       </c>
       <c r="K13" s="1">
         <f>'[1]Qc, 2020, Summer'!K13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.49301257857142855</v>
+        <v>-0.44371132071428571</v>
       </c>
       <c r="L13" s="1">
         <f>'[1]Qc, 2020, Summer'!L13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.40579780357142858</v>
+        <v>-0.36521802321428576</v>
       </c>
       <c r="M13" s="1">
         <f>'[1]Qc, 2020, Summer'!M13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.36077309642857142</v>
+        <v>-0.32469578678571426</v>
       </c>
       <c r="N13" s="1">
         <f>'[1]Qc, 2020, Summer'!N13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10279074642857142</v>
+        <v>9.2511671785714275E-2</v>
       </c>
       <c r="O13" s="1">
         <f>'[1]Qc, 2020, Summer'!O13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1958035714285727E-2</v>
+        <v>4.6762232142857157E-2</v>
       </c>
       <c r="P13" s="1">
         <f>'[1]Qc, 2020, Summer'!P13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.41438865357142857</v>
+        <v>-0.3729497882142857</v>
       </c>
       <c r="Q13" s="1">
         <f>'[1]Qc, 2020, Summer'!Q13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15843340714285714</v>
+        <v>-0.14259006642857144</v>
       </c>
       <c r="R13" s="1">
         <f>'[1]Qc, 2020, Summer'!R13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17913359642857143</v>
+        <v>-0.16122023678571429</v>
       </c>
       <c r="S13" s="1">
         <f>'[1]Qc, 2020, Summer'!S13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.12923886071428572</v>
+        <v>-0.11631497464285716</v>
       </c>
       <c r="T13" s="1">
         <f>'[1]Qc, 2020, Summer'!T13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.5994853571428563E-2</v>
+        <v>-2.3395368214285707E-2</v>
       </c>
       <c r="U13" s="1">
         <f>'[1]Qc, 2020, Summer'!U13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.20908352857142853</v>
+        <v>0.18817517571428569</v>
       </c>
       <c r="V13" s="1">
         <f>'[1]Qc, 2020, Summer'!V13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.51413026785714278</v>
+        <v>0.46271724107142853</v>
       </c>
       <c r="W13" s="1">
         <f>'[1]Qc, 2020, Summer'!W13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.58400754642857144</v>
+        <v>0.52560679178571434</v>
       </c>
       <c r="X13" s="1">
         <f>'[1]Qc, 2020, Summer'!X13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.56231497500000005</v>
+        <v>0.50608347750000005</v>
       </c>
       <c r="Y13" s="1">
         <f>'[1]Qc, 2020, Summer'!Y13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63934656785714294</v>
+        <v>0.57541191107142864</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -21074,99 +21074,99 @@
       </c>
       <c r="B14" s="1">
         <f>'[1]Qc, 2020, Summer'!B14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.3627702892857142</v>
+        <v>0.32649326035714277</v>
       </c>
       <c r="C14" s="1">
         <f>'[1]Qc, 2020, Summer'!C14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.33342398214285718</v>
+        <v>0.30008158392857148</v>
       </c>
       <c r="D14" s="1">
         <f>'[1]Qc, 2020, Summer'!D14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.25407687142857144</v>
+        <v>0.22866918428571431</v>
       </c>
       <c r="E14" s="1">
         <f>'[1]Qc, 2020, Summer'!E14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.23209238928571424</v>
+        <v>0.20888315035714283</v>
       </c>
       <c r="F14" s="1">
         <f>'[1]Qc, 2020, Summer'!F14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.20897729642857144</v>
+        <v>0.1880795667857143</v>
       </c>
       <c r="G14" s="1">
         <f>'[1]Qc, 2020, Summer'!G14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.24284735000000002</v>
+        <v>0.21856261500000002</v>
       </c>
       <c r="H14" s="1">
         <f>'[1]Qc, 2020, Summer'!H14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.83253901071428582</v>
+        <v>0.74928510964285722</v>
       </c>
       <c r="I14" s="1">
         <f>'[1]Qc, 2020, Summer'!I14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0892513928571428</v>
+        <v>0.98032625357142855</v>
       </c>
       <c r="J14" s="1">
         <f>'[1]Qc, 2020, Summer'!J14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4073092714285715</v>
+        <v>1.2665783442857144</v>
       </c>
       <c r="K14" s="1">
         <f>'[1]Qc, 2020, Summer'!K14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3501668071428572</v>
+        <v>1.2151501264285716</v>
       </c>
       <c r="L14" s="1">
         <f>'[1]Qc, 2020, Summer'!L14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3595329392857141</v>
+        <v>1.2235796453571426</v>
       </c>
       <c r="M14" s="1">
         <f>'[1]Qc, 2020, Summer'!M14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3400887678571427</v>
+        <v>1.2060798910714285</v>
       </c>
       <c r="N14" s="1">
         <f>'[1]Qc, 2020, Summer'!N14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3933026178571428</v>
+        <v>1.2539723560714287</v>
       </c>
       <c r="O14" s="1">
         <f>'[1]Qc, 2020, Summer'!O14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2551060607142857</v>
+        <v>1.129595454642857</v>
       </c>
       <c r="P14" s="1">
         <f>'[1]Qc, 2020, Summer'!P14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1164941071428571</v>
+        <v>1.0048446964285715</v>
       </c>
       <c r="Q14" s="1">
         <f>'[1]Qc, 2020, Summer'!Q14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0563550071428573</v>
+        <v>0.95071950642857161</v>
       </c>
       <c r="R14" s="1">
         <f>'[1]Qc, 2020, Summer'!R14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0439934964285718</v>
+        <v>0.93959414678571462</v>
       </c>
       <c r="S14" s="1">
         <f>'[1]Qc, 2020, Summer'!S14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0865940821428575</v>
+        <v>0.9779346739285717</v>
       </c>
       <c r="T14" s="1">
         <f>'[1]Qc, 2020, Summer'!T14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.83690474999999986</v>
+        <v>0.75321427499999993</v>
       </c>
       <c r="U14" s="1">
         <f>'[1]Qc, 2020, Summer'!U14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.81484076428571417</v>
+        <v>0.73335668785714281</v>
       </c>
       <c r="V14" s="1">
         <f>'[1]Qc, 2020, Summer'!V14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.88708293214285705</v>
+        <v>0.79837463892857141</v>
       </c>
       <c r="W14" s="1">
         <f>'[1]Qc, 2020, Summer'!W14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.64398502857142847</v>
+        <v>0.57958652571428559</v>
       </c>
       <c r="X14" s="1">
         <f>'[1]Qc, 2020, Summer'!X14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.30030739285714286</v>
+        <v>0.2702766535714286</v>
       </c>
       <c r="Y14" s="1">
         <f>'[1]Qc, 2020, Summer'!Y14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.29219178928571432</v>
+        <v>0.26297261035714292</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -21175,99 +21175,99 @@
       </c>
       <c r="B15" s="1">
         <f>'[1]Qc, 2020, Summer'!B15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11617004642857143</v>
+        <v>0.10455304178571428</v>
       </c>
       <c r="C15" s="1">
         <f>'[1]Qc, 2020, Summer'!C15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11643802142857143</v>
+        <v>0.10479421928571429</v>
       </c>
       <c r="D15" s="1">
         <f>'[1]Qc, 2020, Summer'!D15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.1178075392857143</v>
+        <v>0.10602678535714287</v>
       </c>
       <c r="E15" s="1">
         <f>'[1]Qc, 2020, Summer'!E15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11846336428571427</v>
+        <v>0.10661702785714285</v>
       </c>
       <c r="F15" s="1">
         <f>'[1]Qc, 2020, Summer'!F15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.12239681785714283</v>
+        <v>0.11015713607142855</v>
       </c>
       <c r="G15" s="1">
         <f>'[1]Qc, 2020, Summer'!G15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11689753214285716</v>
+        <v>0.10520777892857144</v>
       </c>
       <c r="H15" s="1">
         <f>'[1]Qc, 2020, Summer'!H15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10906046071428574</v>
+        <v>9.8154414642857166E-2</v>
       </c>
       <c r="I15" s="1">
         <f>'[1]Qc, 2020, Summer'!I15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.9966539285714279E-2</v>
+        <v>8.9969885357142856E-2</v>
       </c>
       <c r="J15" s="1">
         <f>'[1]Qc, 2020, Summer'!J15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.4203314285714273E-2</v>
+        <v>7.5782982857142842E-2</v>
       </c>
       <c r="K15" s="1">
         <f>'[1]Qc, 2020, Summer'!K15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.3249571428571433E-2</v>
+        <v>5.6924614285714291E-2</v>
       </c>
       <c r="L15" s="1">
         <f>'[1]Qc, 2020, Summer'!L15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.6876521428571423E-2</v>
+        <v>6.0188869285714285E-2</v>
       </c>
       <c r="M15" s="1">
         <f>'[1]Qc, 2020, Summer'!M15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.3837314285714287E-2</v>
+        <v>6.6453582857142854E-2</v>
       </c>
       <c r="N15" s="1">
         <f>'[1]Qc, 2020, Summer'!N15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1406217857142863E-2</v>
+        <v>5.5265596071428578E-2</v>
       </c>
       <c r="O15" s="1">
         <f>'[1]Qc, 2020, Summer'!O15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.1025796428571426E-2</v>
+        <v>7.2923216785714284E-2</v>
       </c>
       <c r="P15" s="1">
         <f>'[1]Qc, 2020, Summer'!P15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.6437321428571426E-2</v>
+        <v>7.7793589285714282E-2</v>
       </c>
       <c r="Q15" s="1">
         <f>'[1]Qc, 2020, Summer'!Q15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.7033849999999996E-2</v>
+        <v>7.8330465000000002E-2</v>
       </c>
       <c r="R15" s="1">
         <f>'[1]Qc, 2020, Summer'!R15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.3572317857142864E-2</v>
+        <v>7.5215086071428586E-2</v>
       </c>
       <c r="S15" s="1">
         <f>'[1]Qc, 2020, Summer'!S15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.5028085714285717E-2</v>
+        <v>7.6525277142857145E-2</v>
       </c>
       <c r="T15" s="1">
         <f>'[1]Qc, 2020, Summer'!T15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.0139500000000002E-2</v>
+        <v>7.212555000000001E-2</v>
       </c>
       <c r="U15" s="1">
         <f>'[1]Qc, 2020, Summer'!U15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.1409378571428571E-2</v>
+        <v>8.2268440714285712E-2</v>
       </c>
       <c r="V15" s="1">
         <f>'[1]Qc, 2020, Summer'!V15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.5575796428571419E-2</v>
+        <v>8.601821678571428E-2</v>
       </c>
       <c r="W15" s="1">
         <f>'[1]Qc, 2020, Summer'!W15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10970510714285714</v>
+        <v>9.8734596428571422E-2</v>
       </c>
       <c r="X15" s="1">
         <f>'[1]Qc, 2020, Summer'!X15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10185303928571429</v>
+        <v>9.1667735357142871E-2</v>
       </c>
       <c r="Y15" s="1">
         <f>'[1]Qc, 2020, Summer'!Y15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10479177857142857</v>
+        <v>9.4312600714285724E-2</v>
       </c>
     </row>
   </sheetData>
